--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80072C4B-BA9D-406C-AC0A-7167C353B16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053644FB-F129-41D0-856C-A257EF17EFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="4005" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="3270" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="572">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,276 +1053,6 @@
     <t>阿斯卡纶</t>
   </si>
   <si>
-    <t>maa://21955</t>
-  </si>
-  <si>
-    <t>maa://22765, *maa://21915</t>
-  </si>
-  <si>
-    <t>*maa://21624</t>
-  </si>
-  <si>
-    <t>maa://24570</t>
-  </si>
-  <si>
-    <t>maa://21261</t>
-  </si>
-  <si>
-    <t>maa://24368</t>
-  </si>
-  <si>
-    <t>maa://29753</t>
-  </si>
-  <si>
-    <t>maa://24465, maa://25725</t>
-  </si>
-  <si>
-    <t>maa://31694</t>
-  </si>
-  <si>
-    <t>maa://21247, maa://22748</t>
-  </si>
-  <si>
-    <t>maa://24370</t>
-  </si>
-  <si>
-    <t>*maa://24371</t>
-  </si>
-  <si>
-    <t>maa://24304, maa://21478</t>
-  </si>
-  <si>
-    <t>maa://24421</t>
-  </si>
-  <si>
-    <t>maa://24372</t>
-  </si>
-  <si>
-    <t>maa://24913</t>
-  </si>
-  <si>
-    <t>maa://24375</t>
-  </si>
-  <si>
-    <t>maa://24466</t>
-  </si>
-  <si>
-    <t>maa://22525, maa://21284</t>
-  </si>
-  <si>
-    <t>maa://29768, maa://27728</t>
-  </si>
-  <si>
-    <t>maa://35931</t>
-  </si>
-  <si>
-    <t>maa://27410, maa://29661, maa://28038</t>
-  </si>
-  <si>
-    <t>*maa://30769</t>
-  </si>
-  <si>
-    <t>maa://24376</t>
-  </si>
-  <si>
-    <t>maa://32532</t>
-  </si>
-  <si>
-    <t>maa://25176</t>
-  </si>
-  <si>
-    <t>maa://22757</t>
-  </si>
-  <si>
-    <t>maa://24839</t>
-  </si>
-  <si>
-    <t>maa://28624, maa://24957</t>
-  </si>
-  <si>
-    <t>maa://22762</t>
-  </si>
-  <si>
-    <t>*maa://21334</t>
-  </si>
-  <si>
-    <t>maa://24377</t>
-  </si>
-  <si>
-    <t>*maa://21679</t>
-  </si>
-  <si>
-    <t>maa://31731</t>
-  </si>
-  <si>
-    <t>maa://28071</t>
-  </si>
-  <si>
-    <t>*maa://30770</t>
-  </si>
-  <si>
-    <t>maa://30442</t>
-  </si>
-  <si>
-    <t>maa://28065</t>
-  </si>
-  <si>
-    <t>maa://31836, maa://30381</t>
-  </si>
-  <si>
-    <t>maa://22750</t>
-  </si>
-  <si>
-    <t>*maa://22736</t>
-  </si>
-  <si>
-    <t>maa://22676, *maa://22583, *maa://22500</t>
-  </si>
-  <si>
-    <t>maa://24381</t>
-  </si>
-  <si>
-    <t>maa://24382</t>
-  </si>
-  <si>
-    <t>maa://21442</t>
-  </si>
-  <si>
-    <t>maa://26203</t>
-  </si>
-  <si>
-    <t>*maa://21956, maa://22730</t>
-  </si>
-  <si>
-    <t>maa://21280, *maa://21239</t>
-  </si>
-  <si>
-    <t>*maa://24383</t>
-  </si>
-  <si>
-    <t>maa://24709</t>
-  </si>
-  <si>
-    <t>maa://22742, *maa://20791</t>
-  </si>
-  <si>
-    <t>maa://21291</t>
-  </si>
-  <si>
-    <t>maa://22747, maa://22501</t>
-  </si>
-  <si>
-    <t>maa://23892</t>
-  </si>
-  <si>
-    <t>maa://24385</t>
-  </si>
-  <si>
-    <t>maa://24386</t>
-  </si>
-  <si>
-    <t>maa://29113</t>
-  </si>
-  <si>
-    <t>maa://21993</t>
-  </si>
-  <si>
-    <t>maa://30624</t>
-  </si>
-  <si>
-    <t>maa://30711, maa://30768</t>
-  </si>
-  <si>
-    <t>maa://24526</t>
-  </si>
-  <si>
-    <t>maa://24842</t>
-  </si>
-  <si>
-    <t>maa://27613</t>
-  </si>
-  <si>
-    <t>maa://30713</t>
-  </si>
-  <si>
-    <t>maa://21290</t>
-  </si>
-  <si>
-    <t>maa://22399, *maa://22758</t>
-  </si>
-  <si>
-    <t>maa://21411</t>
-  </si>
-  <si>
-    <t>maa://26223</t>
-  </si>
-  <si>
-    <t>maa://28501, maa://28051</t>
-  </si>
-  <si>
-    <t>maa://31386</t>
-  </si>
-  <si>
-    <t>*maa://28503</t>
-  </si>
-  <si>
-    <t>*maa://29890</t>
-  </si>
-  <si>
-    <t>maa://24389</t>
-  </si>
-  <si>
-    <t>maa://24390</t>
-  </si>
-  <si>
-    <t>maa://22739</t>
-  </si>
-  <si>
-    <t>maa://24391</t>
-  </si>
-  <si>
-    <t>maa://24392</t>
-  </si>
-  <si>
-    <t>maa://22764</t>
-  </si>
-  <si>
-    <t>maa://26228</t>
-  </si>
-  <si>
-    <t>maa://24393</t>
-  </si>
-  <si>
-    <t>maa://23656</t>
-  </si>
-  <si>
-    <t>maa://29652</t>
-  </si>
-  <si>
-    <t>*maa://21289</t>
-  </si>
-  <si>
-    <t>*maa://30062</t>
-  </si>
-  <si>
-    <t>*maa://24479, *maa://21990</t>
-  </si>
-  <si>
-    <t>maa://31203</t>
-  </si>
-  <si>
-    <t>maa://22524, maa://22432</t>
-  </si>
-  <si>
-    <t>maa://29658</t>
-  </si>
-  <si>
-    <t>maa://31489</t>
-  </si>
-  <si>
-    <t>*maa://32650</t>
-  </si>
-  <si>
     <t>2024.04.21更新：删除好评率20以下的作业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1331,238 +1061,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*maa://21248, **maa://22728</t>
-  </si>
-  <si>
-    <t>maa://32534, **maa://32434</t>
-  </si>
-  <si>
-    <t>**maa://24395</t>
-  </si>
-  <si>
-    <t>maa://23250, maa://20107, maa://22772, **maa://22745</t>
-  </si>
-  <si>
-    <t>maa://27395, maa://22755, **maa://22756</t>
-  </si>
-  <si>
-    <t>maa://21917, *maa://22741</t>
-  </si>
-  <si>
-    <t>maa://26206, **maa://22865</t>
-  </si>
-  <si>
-    <t>***maa://22737</t>
-  </si>
-  <si>
-    <t>maa://30511, **maa://29760</t>
-  </si>
-  <si>
-    <t>maa://29863, **maa://26013</t>
-  </si>
-  <si>
-    <t>maa://24378</t>
-  </si>
-  <si>
-    <t>maa://28502</t>
-  </si>
-  <si>
-    <t>*maa://24080</t>
-  </si>
-  <si>
-    <t>maa://36707</t>
-  </si>
-  <si>
     <t>历阵锐枪芬</t>
   </si>
   <si>
-    <t>*maa://22880, maa://20276, *maa://22749</t>
-  </si>
-  <si>
     <t>维什戴尔</t>
   </si>
   <si>
     <t>逻各斯</t>
   </si>
   <si>
-    <t>maa://36713</t>
-  </si>
-  <si>
     <t>魔王</t>
   </si>
   <si>
     <t>PhonoR-0</t>
-  </si>
-  <si>
-    <t>maa://36660, *maa://36701</t>
-  </si>
-  <si>
-    <t>maa://36697</t>
-  </si>
-  <si>
-    <t>maa://36987</t>
-  </si>
-  <si>
-    <t>maa://21245, maa://22744</t>
-  </si>
-  <si>
-    <t>maa://30764</t>
-  </si>
-  <si>
-    <t>maa://35926, *maa://36258</t>
-  </si>
-  <si>
-    <t>maa://37442</t>
-  </si>
-  <si>
-    <t>**maa://30968</t>
-  </si>
-  <si>
-    <t>*maa://22471, maa://22521</t>
-  </si>
-  <si>
-    <t>maa://24702, maa://25390, maa://36681</t>
-  </si>
-  <si>
-    <t>maa://30766, **maa://36678</t>
-  </si>
-  <si>
-    <t>*maa://22743, maa://22734, *maa://30808</t>
-  </si>
-  <si>
-    <t>maa://21432, maa://25198, **maa://20795, maa://36680</t>
-  </si>
-  <si>
-    <t>maa://32651</t>
-  </si>
-  <si>
-    <t>maa://21867</t>
-  </si>
-  <si>
-    <t>maa://22430</t>
-  </si>
-  <si>
-    <t>maa://22864</t>
-  </si>
-  <si>
-    <t>*maa://25175</t>
-  </si>
-  <si>
-    <t>maa://25199, maa://30434, maa://36670</t>
-  </si>
-  <si>
-    <t>maa://21229, maa://30807, *maa://22767</t>
-  </si>
-  <si>
-    <t>maa://27746, maa://31270</t>
-  </si>
-  <si>
-    <t>maa://21287</t>
-  </si>
-  <si>
-    <t>maa://26245, maa://21288, maa://36682</t>
-  </si>
-  <si>
-    <t>maa://22466, *maa://22732</t>
-  </si>
-  <si>
-    <t>maa://21249, maa://26254</t>
-  </si>
-  <si>
-    <t>maa://21919, maa://21281</t>
-  </si>
-  <si>
-    <t>maa://28977, *maa://23264, maa://36669</t>
-  </si>
-  <si>
-    <t>maa://24762, *maa://22727</t>
-  </si>
-  <si>
-    <t>maa://28504</t>
-  </si>
-  <si>
-    <t>maa://23890, *maa://24940</t>
-  </si>
-  <si>
-    <t>maa://24379, maa://24380</t>
-  </si>
-  <si>
-    <t>*maa://23168, **maa://30050</t>
-  </si>
-  <si>
-    <t>maa://23278, maa://21386, maa://36664</t>
-  </si>
-  <si>
-    <t>maa://24617, **maa://20790, **maa://37170</t>
-  </si>
-  <si>
-    <t>maa://32509, maa://22754, *maa://27295, *maa://21746, *maa://31008</t>
-  </si>
-  <si>
-    <t>**maa://22866, maa://26222</t>
-  </si>
-  <si>
-    <t>maa://21484</t>
-  </si>
-  <si>
-    <t>maa://22729, *maa://28648, *maa://36674</t>
-  </si>
-  <si>
-    <t>maa://24387, maa://31212</t>
-  </si>
-  <si>
-    <t>maa://20109, maa://22545</t>
-  </si>
-  <si>
-    <t>maa://23263, *maa://29765</t>
-  </si>
-  <si>
-    <t>maa://27396, maa://27484, maa://27480</t>
-  </si>
-  <si>
-    <t>maa://22301, maa://22726</t>
-  </si>
-  <si>
-    <t>maa://20110, maa://34946</t>
-  </si>
-  <si>
-    <t>maa://21246, maa://36684</t>
-  </si>
-  <si>
-    <t>maa://25389</t>
-  </si>
-  <si>
-    <t>maa://28711, **maa://27377, ***maa://25174</t>
-  </si>
-  <si>
-    <t>maa://22516, *maa://20794, maa://29912</t>
-  </si>
-  <si>
-    <t>maa://23669, maa://36677</t>
-  </si>
-  <si>
-    <t>*maa://30709, **maa://36668</t>
-  </si>
-  <si>
-    <t>*maa://21443, ***maa://23820</t>
-  </si>
-  <si>
-    <t>*maa://33152, ***maa://22770</t>
-  </si>
-  <si>
-    <t>*maa://25021, *maa://22733, maa://22761</t>
-  </si>
-  <si>
-    <t>*maa://28932, *maa://20106, *maa://22769</t>
-  </si>
-  <si>
-    <t>*maa://23911, maa://27755</t>
-  </si>
-  <si>
-    <t>*maa://21663</t>
-  </si>
-  <si>
-    <t>maa://24023</t>
   </si>
   <si>
     <t>2024.04.30更新：修复关卡名包含干员名时导致的搜素错误</t>
@@ -1573,155 +1084,683 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>***maa://25695, **maa://32237</t>
+    <t>乌尔比安</t>
+  </si>
+  <si>
+    <t>深巡</t>
+  </si>
+  <si>
+    <t>海霓</t>
+  </si>
+  <si>
+    <t>渡桥</t>
+  </si>
+  <si>
+    <t>妮芙</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩佩</t>
+  </si>
+  <si>
+    <t>娜仁图亚</t>
+  </si>
+  <si>
+    <t>莎草</t>
+  </si>
+  <si>
+    <t>衡沙</t>
+  </si>
+  <si>
+    <t>锡人</t>
+  </si>
+  <si>
+    <t>maa://24702, maa://25390, maa://36681</t>
+  </si>
+  <si>
+    <t>maa://36987, maa://39849</t>
+  </si>
+  <si>
+    <t>maa://24632, **maa://24303, maa://22499, maa://22746</t>
+  </si>
+  <si>
+    <t>maa://21245, maa://22744</t>
+  </si>
+  <si>
+    <t>maa://21955</t>
+  </si>
+  <si>
+    <t>*maa://21476, *maa://37551</t>
+  </si>
+  <si>
+    <t>maa://22765, *maa://21915</t>
+  </si>
+  <si>
+    <t>**maa://32237, **maa://39243</t>
+  </si>
+  <si>
+    <t>maa://36707</t>
+  </si>
+  <si>
+    <t>maa://30766, **maa://36678</t>
+  </si>
+  <si>
+    <t>maa://24999, maa://36673, maa://25001</t>
+  </si>
+  <si>
+    <t>maa://30764</t>
+  </si>
+  <si>
+    <t>*maa://22743, maa://22734, *maa://30808</t>
   </si>
   <si>
     <t>maa://21441, maa://36679, maa://37650</t>
   </si>
   <si>
+    <t>*maa://21624</t>
+  </si>
+  <si>
+    <t>maa://24570</t>
+  </si>
+  <si>
+    <t>maa://21432, maa://25198, **maa://20795, maa://36680</t>
+  </si>
+  <si>
+    <t>maa://21261</t>
+  </si>
+  <si>
+    <t>***maa://28036</t>
+  </si>
+  <si>
+    <t>maa://24368</t>
+  </si>
+  <si>
+    <t>maa://29753</t>
+  </si>
+  <si>
+    <t>maa://24465, maa://25725</t>
+  </si>
+  <si>
+    <t>maa://31694</t>
+  </si>
+  <si>
+    <t>maa://21247, maa://22748</t>
+  </si>
+  <si>
+    <t>maa://24370</t>
+  </si>
+  <si>
+    <t>*maa://24371</t>
+  </si>
+  <si>
+    <t>maa://32651</t>
+  </si>
+  <si>
+    <t>maa://21867</t>
+  </si>
+  <si>
+    <t>*maa://21248, **maa://22728</t>
+  </si>
+  <si>
+    <t>*maa://32656</t>
+  </si>
+  <si>
+    <t>maa://24304, maa://21478</t>
+  </si>
+  <si>
+    <t>maa://22430, **maa://39599</t>
+  </si>
+  <si>
+    <t>maa://24421</t>
+  </si>
+  <si>
+    <t>maa://22864</t>
+  </si>
+  <si>
+    <t>maa://24372</t>
+  </si>
+  <si>
+    <t>**maa://21678, maa://25236, **maa://22735</t>
+  </si>
+  <si>
+    <t>maa://29063, *maa://25311</t>
+  </si>
+  <si>
+    <t>maa://24913</t>
+  </si>
+  <si>
+    <t>**maa://21283, maa://34494, **maa://36665, maa://39601</t>
+  </si>
+  <si>
+    <t>*maa://25175</t>
+  </si>
+  <si>
+    <t>maa://39355</t>
+  </si>
+  <si>
+    <t>maa://32721, **maa://24373</t>
+  </si>
+  <si>
     <t>maa://21895, maa://36667, **maa://20793, maa://22760</t>
   </si>
   <si>
+    <t>maa://39351</t>
+  </si>
+  <si>
+    <t>maa://24375</t>
+  </si>
+  <si>
+    <t>*maa://24374</t>
+  </si>
+  <si>
+    <t>maa://25199, maa://30434, maa://36670</t>
+  </si>
+  <si>
+    <t>maa://24466</t>
+  </si>
+  <si>
+    <t>maa://22525, maa://21284</t>
+  </si>
+  <si>
+    <t>maa://29768, maa://27728</t>
+  </si>
+  <si>
+    <t>maa://21229, maa://30807, *maa://22767</t>
+  </si>
+  <si>
+    <t>maa://35931</t>
+  </si>
+  <si>
+    <t>maa://27410, maa://29661, maa://28038</t>
+  </si>
+  <si>
+    <t>*maa://30769</t>
+  </si>
+  <si>
+    <t>maa://24376</t>
+  </si>
+  <si>
+    <t>maa://32534, **maa://32434</t>
+  </si>
+  <si>
+    <t>maa://32532</t>
+  </si>
+  <si>
+    <t>maa://25176</t>
+  </si>
+  <si>
+    <t>*maa://37964</t>
+  </si>
+  <si>
+    <t>maa://27746, maa://31270</t>
+  </si>
+  <si>
+    <t>*maa://24633, *maa://30515, *maa://34787, ***maa://29083, maa://39402</t>
+  </si>
+  <si>
+    <t>*maa://22880, maa://20276, *maa://22749</t>
+  </si>
+  <si>
+    <t>maa://22757</t>
+  </si>
+  <si>
+    <t>maa://24839</t>
+  </si>
+  <si>
+    <t>maa://28624, maa://24957</t>
+  </si>
+  <si>
+    <t>maa://22762</t>
+  </si>
+  <si>
+    <t>**maa://24395</t>
+  </si>
+  <si>
+    <t>maa://21287</t>
+  </si>
+  <si>
+    <t>maa://26245, maa://21288, maa://36682, maa://39841</t>
+  </si>
+  <si>
+    <t>*maa://21334</t>
+  </si>
+  <si>
+    <t>maa://24377</t>
+  </si>
+  <si>
+    <t>*maa://21679</t>
+  </si>
+  <si>
+    <t>maa://22466, *maa://22732</t>
+  </si>
+  <si>
+    <t>maa://39347</t>
+  </si>
+  <si>
+    <t>maa://31731</t>
+  </si>
+  <si>
+    <t>maa://27127, *maa://22751</t>
+  </si>
+  <si>
+    <t>maa://39756</t>
+  </si>
+  <si>
+    <t>maa://24378</t>
+  </si>
+  <si>
+    <t>maa://28071</t>
+  </si>
+  <si>
+    <t>*maa://30770</t>
+  </si>
+  <si>
     <t>maa://28432, *maa://28440, maa://31400, *maa://28650</t>
   </si>
   <si>
+    <t>maa://30442</t>
+  </si>
+  <si>
+    <t>maa://35926, *maa://36258</t>
+  </si>
+  <si>
+    <t>maa://28065</t>
+  </si>
+  <si>
+    <t>maa://39384</t>
+  </si>
+  <si>
+    <t>maa://21249, maa://26254</t>
+  </si>
+  <si>
+    <t>maa://21919, maa://21281</t>
+  </si>
+  <si>
+    <t>maa://31836, maa://30381</t>
+  </si>
+  <si>
+    <t>maa://22750</t>
+  </si>
+  <si>
     <t>*maa://21916, maa://32931, maa://23252, **maa://22759, maa://37496</t>
   </si>
   <si>
+    <t>maa://22736</t>
+  </si>
+  <si>
+    <t>maa://28977, *maa://23264, maa://36669</t>
+  </si>
+  <si>
+    <t>maa://22676, *maa://22583, *maa://22500</t>
+  </si>
+  <si>
+    <t>maa://23250, maa://20107, maa://22772, **maa://22745</t>
+  </si>
+  <si>
+    <t>maa://24762, *maa://22727</t>
+  </si>
+  <si>
+    <t>maa://28504</t>
+  </si>
+  <si>
+    <t>maa://23890, *maa://24940</t>
+  </si>
+  <si>
+    <t>maa://24379, maa://24380</t>
+  </si>
+  <si>
+    <t>maa://39433</t>
+  </si>
+  <si>
+    <t>maa://37442</t>
+  </si>
+  <si>
+    <t>maa://24381</t>
+  </si>
+  <si>
     <t>maa://30587, *maa://29748, *maa://37566</t>
   </si>
   <si>
+    <t>maa://24382</t>
+  </si>
+  <si>
+    <t>*maa://30968</t>
+  </si>
+  <si>
+    <t>*maa://23168, **maa://30050</t>
+  </si>
+  <si>
+    <t>maa://21442</t>
+  </si>
+  <si>
+    <t>maa://26203</t>
+  </si>
+  <si>
+    <t>*maa://21956, maa://22730</t>
+  </si>
+  <si>
+    <t>maa://21280, *maa://21239</t>
+  </si>
+  <si>
+    <t>*maa://24383</t>
+  </si>
+  <si>
+    <t>maa://24709</t>
+  </si>
+  <si>
+    <t>maa://23278, maa://21386, maa://36664</t>
+  </si>
+  <si>
+    <t>**maa://35616</t>
+  </si>
+  <si>
+    <t>*maa://36237</t>
+  </si>
+  <si>
+    <t>maa://39643</t>
+  </si>
+  <si>
+    <t>maa://22742, *maa://20791</t>
+  </si>
+  <si>
+    <t>maa://24617, **maa://20790, ***maa://37170</t>
+  </si>
+  <si>
+    <t>maa://32509, maa://22754, *maa://27295, *maa://21746, *maa://31008</t>
+  </si>
+  <si>
+    <t>*maa://37411</t>
+  </si>
+  <si>
+    <t>maa://21291</t>
+  </si>
+  <si>
+    <t>**maa://22866, maa://26222</t>
+  </si>
+  <si>
+    <t>maa://27395, maa://22755, **maa://22756</t>
+  </si>
+  <si>
+    <t>maa://22747, maa://22501</t>
+  </si>
+  <si>
+    <t>maa://21484</t>
+  </si>
+  <si>
+    <t>*maa://22471, maa://22521</t>
+  </si>
+  <si>
+    <t>maa://23892</t>
+  </si>
+  <si>
+    <t>maa://22729, *maa://28648, *maa://36674</t>
+  </si>
+  <si>
+    <t>maa://24385</t>
+  </si>
+  <si>
+    <t>maa://24386</t>
+  </si>
+  <si>
+    <t>maa://29113</t>
+  </si>
+  <si>
+    <t>maa://21993</t>
+  </si>
+  <si>
+    <t>maa://38495</t>
+  </si>
+  <si>
+    <t>maa://24387, maa://31212</t>
+  </si>
+  <si>
+    <t>maa://20109, maa://22545</t>
+  </si>
+  <si>
+    <t>maa://30624</t>
+  </si>
+  <si>
+    <t>maa://23263, *maa://29765</t>
+  </si>
+  <si>
+    <t>maa://28502</t>
+  </si>
+  <si>
+    <t>*maa://32940, maa://24388</t>
+  </si>
+  <si>
+    <t>maa://30711, maa://30768</t>
+  </si>
+  <si>
+    <t>maa://24526</t>
+  </si>
+  <si>
+    <t>maa://24842</t>
+  </si>
+  <si>
+    <t>maa://27613</t>
+  </si>
+  <si>
+    <t>**maa://39354</t>
+  </si>
+  <si>
+    <t>maa://30713</t>
+  </si>
+  <si>
+    <t>maa://39366</t>
+  </si>
+  <si>
+    <t>maa://39364</t>
+  </si>
+  <si>
+    <t>maa://27396, maa://27484, maa://27480</t>
+  </si>
+  <si>
+    <t>maa://21290</t>
+  </si>
+  <si>
+    <t>maa://22399, *maa://22758</t>
+  </si>
+  <si>
+    <t>maa://21411</t>
+  </si>
+  <si>
+    <t>maa://26223</t>
+  </si>
+  <si>
+    <t>maa://22301, maa://22726</t>
+  </si>
+  <si>
+    <t>maa://36713</t>
+  </si>
+  <si>
+    <t>maa://22753, *maa://21485, *maa://37962</t>
+  </si>
+  <si>
+    <t>*maa://34957, *maa://22768</t>
+  </si>
+  <si>
     <t>maa://37468</t>
   </si>
   <si>
-    <t>maa://25251, *maa://36675</t>
-  </si>
-  <si>
-    <t>*maa://21476, *maa://37551</t>
-  </si>
-  <si>
-    <t>maa://37964</t>
-  </si>
-  <si>
-    <t>*maa://36237</t>
-  </si>
-  <si>
-    <t>*maa://32940, maa://24388</t>
-  </si>
-  <si>
-    <t>maa://23504, maa://29988, **maa://22892, *maa://25141, maa://36663, ***maa://22815</t>
+    <t>*maa://38786</t>
+  </si>
+  <si>
+    <t>maa://28501, maa://28051</t>
+  </si>
+  <si>
+    <t>maa://21917, *maa://22741</t>
+  </si>
+  <si>
+    <t>maa://31386</t>
+  </si>
+  <si>
+    <t>maa://20110, maa://34946</t>
+  </si>
+  <si>
+    <t>maa://21282, *maa://37649</t>
+  </si>
+  <si>
+    <t>*maa://28503</t>
+  </si>
+  <si>
+    <t>maa://23504, maa://29988, **maa://22892, *maa://25141, *maa://36663, ***maa://22815</t>
+  </si>
+  <si>
+    <t>*maa://29890</t>
+  </si>
+  <si>
+    <t>maa://24389</t>
+  </si>
+  <si>
+    <t>**maa://39821, ***maa://39723</t>
+  </si>
+  <si>
+    <t>*maa://39477</t>
+  </si>
+  <si>
+    <t>maa://21246, maa://36684</t>
+  </si>
+  <si>
+    <t>maa://24390</t>
+  </si>
+  <si>
+    <t>*maa://32658</t>
+  </si>
+  <si>
+    <t>maa://29863, **maa://26013</t>
+  </si>
+  <si>
+    <t>maa://22739</t>
+  </si>
+  <si>
+    <t>maa://25389</t>
+  </si>
+  <si>
+    <t>maa://28711, **maa://27377, ***maa://25174</t>
+  </si>
+  <si>
+    <t>maa://24391</t>
+  </si>
+  <si>
+    <t>maa://22516, *maa://20794, maa://29912</t>
+  </si>
+  <si>
+    <t>maa://23669, maa://36677, maa://39872</t>
+  </si>
+  <si>
+    <t>maa://24392</t>
+  </si>
+  <si>
+    <t>maa://22764</t>
+  </si>
+  <si>
+    <t>maa://26228</t>
+  </si>
+  <si>
+    <t>maa://24393</t>
+  </si>
+  <si>
+    <t>*maa://30709, **maa://36668</t>
+  </si>
+  <si>
+    <t>*maa://21443, ***maa://23820</t>
+  </si>
+  <si>
+    <t>maa://23656</t>
+  </si>
+  <si>
+    <t>maa://29652</t>
+  </si>
+  <si>
+    <t>maa://39349</t>
   </si>
   <si>
     <t>maa://24516, maa://31215, maa://26001</t>
   </si>
   <si>
+    <t>maa://25251, *maa://36675, *maa://39501</t>
+  </si>
+  <si>
+    <t>*maa://21289</t>
+  </si>
+  <si>
+    <t>*maa://30062, maa://39394</t>
+  </si>
+  <si>
+    <t>*maa://33152, ***maa://22770</t>
+  </si>
+  <si>
+    <t>*maa://26191, *maa://36671</t>
+  </si>
+  <si>
+    <t>*maa://24479, *maa://21990</t>
+  </si>
+  <si>
+    <t>maa://26206, **maa://22865</t>
+  </si>
+  <si>
+    <t>*maa://25021, *maa://22733, maa://22761</t>
+  </si>
+  <si>
+    <t>maa://31203</t>
+  </si>
+  <si>
+    <t>*maa://28932, *maa://20106, *maa://22769</t>
+  </si>
+  <si>
+    <t>**maa://22737</t>
+  </si>
+  <si>
+    <t>maa://21364, *maa://22766, *maa://36666</t>
+  </si>
+  <si>
+    <t>*maa://23911, maa://27755</t>
+  </si>
+  <si>
     <t>*maa://24313, **maa://29784</t>
   </si>
   <si>
-    <t>**maa://21678, maa://25236, **maa://22735</t>
-  </si>
-  <si>
-    <t>*maa://32658</t>
-  </si>
-  <si>
-    <t>maa://21364, *maa://22766, *maa://36666</t>
-  </si>
-  <si>
-    <t>**maa://28036</t>
-  </si>
-  <si>
-    <t>*maa://32656</t>
-  </si>
-  <si>
-    <t>maa://29063, *maa://25311</t>
-  </si>
-  <si>
-    <t>maa://32721, **maa://24373</t>
-  </si>
-  <si>
-    <t>**maa://24374</t>
-  </si>
-  <si>
-    <t>乌尔比安</t>
-  </si>
-  <si>
-    <t>*maa://22751, maa://27127</t>
-  </si>
-  <si>
-    <t>深巡</t>
-  </si>
-  <si>
-    <t>**maa://35616</t>
-  </si>
-  <si>
-    <t>maa://37411</t>
-  </si>
-  <si>
-    <t>maa://38495</t>
-  </si>
-  <si>
-    <t>maa://22753, *maa://21485, **maa://37962</t>
-  </si>
-  <si>
-    <t>*maa://22768, *maa://34957</t>
-  </si>
-  <si>
-    <t>海霓</t>
-  </si>
-  <si>
-    <t>*maa://26191, *maa://36671</t>
-  </si>
-  <si>
-    <t>maa://22523, maa://29910, maa://36672, **maa://21440</t>
+    <t>*maa://21663</t>
+  </si>
+  <si>
+    <t>maa://22524, maa://22432</t>
+  </si>
+  <si>
+    <t>maa://29658</t>
+  </si>
+  <si>
+    <t>maa://31489</t>
+  </si>
+  <si>
+    <t>maa://22523, maa://36672, maa://29910, **maa://21440</t>
   </si>
   <si>
     <t>maa://20108, maa://24621, maa://22771, maa://36676, maa://37772</t>
   </si>
   <si>
-    <t>maa://24632, **maa://24303, maa://22499, maa://22746</t>
-  </si>
-  <si>
-    <t>maa://24999, maa://36673, maa://25001</t>
-  </si>
-  <si>
-    <t>maa://21282, **maa://37649</t>
-  </si>
-  <si>
-    <t>**maa://21283, maa://34494, ***maa://36665</t>
-  </si>
-  <si>
-    <t>maa://39355</t>
-  </si>
-  <si>
-    <t>maa://39351</t>
-  </si>
-  <si>
-    <t>*maa://24633, *maa://30515, *maa://34787, **maa://29083</t>
-  </si>
-  <si>
-    <t>maa://39347</t>
-  </si>
-  <si>
-    <t>maa://39354</t>
-  </si>
-  <si>
-    <t>**maa://38786</t>
-  </si>
-  <si>
-    <t>maa://39349</t>
-  </si>
-  <si>
-    <t>渡桥</t>
-  </si>
-  <si>
-    <t>maa://39366</t>
-  </si>
-  <si>
-    <t>妮芙</t>
-  </si>
-  <si>
-    <t>更新日期：2024.07.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>maa://30511, *maa://29760</t>
+  </si>
+  <si>
+    <t>maa://24023</t>
+  </si>
+  <si>
+    <t>maa://36660, *maa://36701</t>
+  </si>
+  <si>
+    <t>*maa://24080</t>
+  </si>
+  <si>
+    <t>*maa://32650</t>
+  </si>
+  <si>
+    <t>*maa://39479</t>
+  </si>
+  <si>
+    <t>maa://36697</t>
   </si>
 </sst>
 </file>
@@ -2084,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE70"/>
+  <dimension ref="A1:AE71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2208,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>459</v>
+        <v>357</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -2223,10 +2262,10 @@
         <v>125</v>
       </c>
       <c r="J2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>157</v>
@@ -2244,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>387</v>
+        <v>472</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
@@ -2262,16 +2301,16 @@
         <v>2</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>295</v>
       </c>
       <c r="AD2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2279,10 +2318,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>68</v>
@@ -2291,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -2300,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>158</v>
@@ -2309,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>204</v>
@@ -2318,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>243</v>
@@ -2327,7 +2366,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>269</v>
@@ -2336,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>410</v>
+        <v>526</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>296</v>
@@ -2345,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>419</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2356,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>544</v>
+        <v>359</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>69</v>
@@ -2392,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>244</v>
@@ -2410,16 +2449,16 @@
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>297</v>
       </c>
       <c r="AD4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>420</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2430,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>453</v>
+        <v>360</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
@@ -2448,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>160</v>
@@ -2457,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>206</v>
@@ -2475,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>401</v>
+        <v>504</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>271</v>
@@ -2484,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>438</v>
+        <v>528</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>298</v>
@@ -2513,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2522,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>161</v>
@@ -2531,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>207</v>
@@ -2540,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>536</v>
+        <v>475</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>246</v>
@@ -2558,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>411</v>
+        <v>529</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>299</v>
@@ -2567,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2578,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
@@ -2596,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>162</v>
@@ -2605,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>208</v>
@@ -2614,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>388</v>
+        <v>476</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>247</v>
@@ -2623,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>402</v>
+        <v>505</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>273</v>
@@ -2641,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2652,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2661,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>131</v>
@@ -2679,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>209</v>
@@ -2697,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>403</v>
+        <v>506</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>274</v>
@@ -2706,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>301</v>
@@ -2715,7 +2754,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>421</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2726,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
@@ -2744,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>164</v>
@@ -2753,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>210</v>
@@ -2762,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>249</v>
@@ -2771,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>404</v>
+        <v>507</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>275</v>
@@ -2780,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>302</v>
@@ -2789,7 +2828,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>435</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2800,7 +2839,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>509</v>
+        <v>364</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -2809,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>463</v>
+        <v>383</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>133</v>
@@ -2818,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>165</v>
@@ -2827,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>211</v>
@@ -2836,7 +2875,7 @@
         <v>3</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>250</v>
@@ -2845,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>276</v>
@@ -2854,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>412</v>
+        <v>532</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>303</v>
@@ -2863,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2874,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>442</v>
+        <v>365</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -2892,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>166</v>
@@ -2910,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>389</v>
+        <v>479</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>251</v>
@@ -2919,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>447</v>
+        <v>509</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>277</v>
@@ -2928,7 +2967,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>304</v>
@@ -2937,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>422</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2948,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>460</v>
+        <v>366</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
@@ -2957,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>464</v>
+        <v>384</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>135</v>
@@ -2993,16 +3032,16 @@
         <v>3</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>278</v>
       </c>
       <c r="Z12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>305</v>
@@ -3011,7 +3050,7 @@
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -3022,7 +3061,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>545</v>
+        <v>367</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>78</v>
@@ -3031,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>136</v>
@@ -3049,7 +3088,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>214</v>
@@ -3058,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>253</v>
@@ -3067,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>279</v>
@@ -3076,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>306</v>
@@ -3085,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>436</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3096,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>454</v>
+        <v>368</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -3105,16 +3144,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>528</v>
+        <v>386</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>169</v>
@@ -3123,7 +3162,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>215</v>
@@ -3132,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>254</v>
@@ -3141,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>280</v>
@@ -3150,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>307</v>
@@ -3170,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>80</v>
@@ -3179,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>138</v>
@@ -3188,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>170</v>
@@ -3197,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>216</v>
@@ -3206,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>390</v>
+        <v>482</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>255</v>
@@ -3215,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>281</v>
@@ -3233,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3244,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>510</v>
+        <v>370</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
@@ -3262,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>171</v>
@@ -3271,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>217</v>
@@ -3280,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>256</v>
@@ -3289,7 +3328,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>405</v>
+        <v>514</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>282</v>
@@ -3298,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>415</v>
+        <v>537</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>309</v>
@@ -3307,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3318,16 +3357,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>465</v>
+        <v>388</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>140</v>
@@ -3336,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -3345,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>218</v>
@@ -3392,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -3401,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>141</v>
@@ -3410,7 +3449,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>173</v>
@@ -3419,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>219</v>
@@ -3428,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>391</v>
+        <v>484</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>258</v>
@@ -3437,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>434</v>
+        <v>515</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>284</v>
@@ -3446,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>416</v>
+        <v>538</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>311</v>
@@ -3455,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3484,16 +3523,16 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>551</v>
+        <v>430</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>174</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>66</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>220</v>
@@ -3502,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>392</v>
+        <v>485</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>259</v>
@@ -3511,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>406</v>
+        <v>516</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>285</v>
@@ -3520,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>312</v>
@@ -3529,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3540,7 +3579,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>462</v>
+        <v>373</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3549,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
@@ -3576,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>393</v>
+        <v>486</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>260</v>
@@ -3614,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
@@ -3623,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -3632,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>176</v>
@@ -3641,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>379</v>
+        <v>457</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>222</v>
@@ -3650,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>394</v>
+        <v>487</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>261</v>
@@ -3659,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>287</v>
@@ -3668,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>314</v>
@@ -3677,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>423</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3697,7 +3736,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>524</v>
+        <v>392</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>145</v>
@@ -3706,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>533</v>
+        <v>432</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>177</v>
@@ -3724,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>262</v>
@@ -3733,7 +3772,7 @@
         <v>2</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>288</v>
@@ -3742,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>417</v>
+        <v>541</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>315</v>
@@ -3751,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>424</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3762,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>527</v>
+        <v>375</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
@@ -3776,11 +3815,11 @@
       <c r="I23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>326</v>
+      <c r="J23" s="1">
+        <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>326</v>
+        <v>433</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>178</v>
@@ -3789,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>224</v>
@@ -3798,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>263</v>
@@ -3807,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>407</v>
+        <v>519</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>289</v>
@@ -3816,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>418</v>
+        <v>542</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>316</v>
@@ -3825,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>425</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3836,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -3881,7 +3920,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>290</v>
@@ -3890,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>317</v>
@@ -3899,7 +3938,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3910,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>90</v>
@@ -3919,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>529</v>
+        <v>393</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
@@ -3928,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
@@ -3937,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>226</v>
@@ -3946,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>265</v>
@@ -3955,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>408</v>
+        <v>521</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>291</v>
@@ -3964,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>318</v>
@@ -3973,18 +4012,18 @@
         <v>5</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>326</v>
+      <c r="B26" s="1">
+        <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>91</v>
@@ -3993,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>149</v>
@@ -4011,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>227</v>
@@ -4029,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>409</v>
+        <v>522</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>292</v>
@@ -4047,7 +4086,7 @@
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>437</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4064,10 +4103,10 @@
         <v>92</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>547</v>
+        <v>395</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>150</v>
@@ -4076,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>182</v>
@@ -4094,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>395</v>
+        <v>491</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>267</v>
@@ -4121,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4132,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -4150,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>183</v>
@@ -4168,16 +4207,16 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>326</v>
+      <c r="V28" s="1">
+        <v>2</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>326</v>
+        <v>523</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>294</v>
@@ -4195,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>450</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4206,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -4215,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>467</v>
+        <v>396</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>152</v>
@@ -4224,7 +4263,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>512</v>
+        <v>437</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>184</v>
@@ -4233,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>230</v>
@@ -4242,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>23</v>
@@ -4269,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>441</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4289,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>548</v>
+        <v>397</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>153</v>
@@ -4298,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>185</v>
@@ -4307,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>381</v>
+        <v>462</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>231</v>
@@ -4316,16 +4355,16 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>66</v>
+        <v>524</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>30</v>
@@ -4363,7 +4402,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>530</v>
+        <v>398</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>154</v>
@@ -4372,7 +4411,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
@@ -4390,7 +4429,16 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>396</v>
+        <v>495</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>37</v>
@@ -4413,7 +4461,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>443</v>
+        <v>339</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>326</v>
@@ -4428,7 +4476,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>511</v>
+        <v>399</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>155</v>
@@ -4437,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>187</v>
@@ -4446,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>382</v>
+        <v>463</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>233</v>
@@ -4458,7 +4506,7 @@
         <v>326</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>448</v>
+        <v>342</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>326</v>
@@ -4478,7 +4526,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>555</v>
+        <v>349</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>326</v>
@@ -4493,16 +4541,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>549</v>
+        <v>400</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>326</v>
+      <c r="J33" s="1">
+        <v>0</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>188</v>
@@ -4511,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>383</v>
+        <v>464</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>234</v>
@@ -4523,7 +4568,7 @@
         <v>66</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>449</v>
+        <v>343</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>326</v>
@@ -4576,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>397</v>
+        <v>496</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>540</v>
+        <v>348</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>326</v>
@@ -4594,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>426</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4632,16 +4677,25 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>398</v>
+        <v>497</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="AD35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>66</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -4652,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
@@ -4679,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>399</v>
+        <v>498</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>334</v>
@@ -4699,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>531</v>
+        <v>402</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>39</v>
@@ -4717,7 +4771,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>384</v>
+        <v>465</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>238</v>
@@ -4726,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>552</v>
+        <v>499</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>335</v>
@@ -4740,7 +4794,7 @@
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>428</v>
+        <v>338</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4757,10 +4811,10 @@
         <v>331</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>66</v>
+        <v>441</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>193</v>
@@ -4769,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>385</v>
+        <v>466</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>239</v>
@@ -4778,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>336</v>
@@ -4787,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>451</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4801,10 +4855,10 @@
         <v>3</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>468</v>
+        <v>403</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>534</v>
+        <v>347</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>326</v>
@@ -4819,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>386</v>
+        <v>467</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>240</v>
@@ -4828,6 +4882,15 @@
         <v>326</v>
       </c>
       <c r="S39" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE39" s="2" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4853,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>241</v>
@@ -4876,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>196</v>
@@ -4885,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>535</v>
+        <v>469</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>242</v>
@@ -4899,7 +4962,7 @@
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>558</v>
+        <v>351</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4942,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>198</v>
@@ -4974,7 +5037,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
@@ -4992,12 +5055,12 @@
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>556</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>427</v>
+        <v>337</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -5008,7 +5071,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>200</v>
@@ -5017,13 +5080,16 @@
         <v>1</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>332</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
@@ -5037,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>201</v>
@@ -5049,7 +5115,7 @@
         <v>66</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>446</v>
+        <v>341</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>326</v>
@@ -5060,7 +5126,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>507</v>
+        <v>344</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -5071,7 +5137,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>202</v>
@@ -5083,7 +5149,7 @@
         <v>326</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>557</v>
+        <v>350</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>326</v>
@@ -5117,7 +5183,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>508</v>
+        <v>345</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5134,10 +5200,10 @@
         <v>25</v>
       </c>
       <c r="N49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -5171,10 +5237,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>326</v>
@@ -5191,7 +5257,16 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>360</v>
+        <v>411</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -5202,7 +5277,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5224,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5246,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5257,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -5268,18 +5343,18 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>470</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>326</v>
+      <c r="F60" s="1">
+        <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -5383,12 +5458,23 @@
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>532</v>
+        <v>346</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E71" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>326</v>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053644FB-F129-41D0-856C-A257EF17EFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A109578F-9EC5-4794-9D25-8C9367671754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="3270" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="3120" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="573">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1099,668 +1099,671 @@
     <t>妮芙</t>
   </si>
   <si>
-    <t>更新日期：2024.08.04</t>
+    <t>佩佩</t>
+  </si>
+  <si>
+    <t>娜仁图亚</t>
+  </si>
+  <si>
+    <t>莎草</t>
+  </si>
+  <si>
+    <t>衡沙</t>
+  </si>
+  <si>
+    <t>锡人</t>
+  </si>
+  <si>
+    <t>maa://24702, maa://25390, maa://36681</t>
+  </si>
+  <si>
+    <t>maa://36987, maa://39849</t>
+  </si>
+  <si>
+    <t>maa://24632, **maa://24303, maa://22499, maa://22746</t>
+  </si>
+  <si>
+    <t>maa://21245, maa://22744</t>
+  </si>
+  <si>
+    <t>maa://21955</t>
+  </si>
+  <si>
+    <t>maa://22765, *maa://21915</t>
+  </si>
+  <si>
+    <t>maa://36707</t>
+  </si>
+  <si>
+    <t>maa://30766, **maa://36678</t>
+  </si>
+  <si>
+    <t>maa://24999, maa://36673, maa://25001</t>
+  </si>
+  <si>
+    <t>maa://30764</t>
+  </si>
+  <si>
+    <t>*maa://22743, maa://22734, *maa://30808</t>
+  </si>
+  <si>
+    <t>maa://21441, maa://36679, maa://37650</t>
+  </si>
+  <si>
+    <t>*maa://21624</t>
+  </si>
+  <si>
+    <t>maa://24570</t>
+  </si>
+  <si>
+    <t>maa://21432, maa://25198, **maa://20795, maa://36680</t>
+  </si>
+  <si>
+    <t>maa://21261</t>
+  </si>
+  <si>
+    <t>***maa://28036</t>
+  </si>
+  <si>
+    <t>maa://24368</t>
+  </si>
+  <si>
+    <t>maa://29753</t>
+  </si>
+  <si>
+    <t>maa://24465, maa://25725</t>
+  </si>
+  <si>
+    <t>maa://31694</t>
+  </si>
+  <si>
+    <t>maa://24370</t>
+  </si>
+  <si>
+    <t>*maa://24371</t>
+  </si>
+  <si>
+    <t>maa://32651</t>
+  </si>
+  <si>
+    <t>maa://21867</t>
+  </si>
+  <si>
+    <t>*maa://21248, **maa://22728</t>
+  </si>
+  <si>
+    <t>*maa://32656</t>
+  </si>
+  <si>
+    <t>maa://24304, maa://21478</t>
+  </si>
+  <si>
+    <t>maa://24421</t>
+  </si>
+  <si>
+    <t>maa://22864</t>
+  </si>
+  <si>
+    <t>maa://24372</t>
+  </si>
+  <si>
+    <t>**maa://21678, maa://25236, **maa://22735</t>
+  </si>
+  <si>
+    <t>maa://24913</t>
+  </si>
+  <si>
+    <t>**maa://21283, maa://34494, **maa://36665, maa://39601</t>
+  </si>
+  <si>
+    <t>*maa://25175</t>
+  </si>
+  <si>
+    <t>maa://39355</t>
+  </si>
+  <si>
+    <t>maa://32721, **maa://24373</t>
+  </si>
+  <si>
+    <t>maa://21895, maa://36667, **maa://20793, maa://22760</t>
+  </si>
+  <si>
+    <t>maa://24375</t>
+  </si>
+  <si>
+    <t>*maa://24374</t>
+  </si>
+  <si>
+    <t>maa://25199, maa://30434, maa://36670</t>
+  </si>
+  <si>
+    <t>maa://24466</t>
+  </si>
+  <si>
+    <t>maa://22525, maa://21284</t>
+  </si>
+  <si>
+    <t>maa://29768, maa://27728</t>
+  </si>
+  <si>
+    <t>maa://21229, maa://30807, *maa://22767</t>
+  </si>
+  <si>
+    <t>maa://35931</t>
+  </si>
+  <si>
+    <t>maa://27410, maa://29661, maa://28038</t>
+  </si>
+  <si>
+    <t>*maa://30769</t>
+  </si>
+  <si>
+    <t>maa://24376</t>
+  </si>
+  <si>
+    <t>maa://32534, **maa://32434</t>
+  </si>
+  <si>
+    <t>maa://32532</t>
+  </si>
+  <si>
+    <t>maa://25176</t>
+  </si>
+  <si>
+    <t>*maa://37964</t>
+  </si>
+  <si>
+    <t>maa://27746, maa://31270</t>
+  </si>
+  <si>
+    <t>*maa://22880, maa://20276, *maa://22749</t>
+  </si>
+  <si>
+    <t>maa://22757</t>
+  </si>
+  <si>
+    <t>maa://24839</t>
+  </si>
+  <si>
+    <t>maa://28624, maa://24957</t>
+  </si>
+  <si>
+    <t>maa://22762</t>
+  </si>
+  <si>
+    <t>**maa://24395</t>
+  </si>
+  <si>
+    <t>maa://21287</t>
+  </si>
+  <si>
+    <t>maa://26245, maa://21288, maa://36682, maa://39841</t>
+  </si>
+  <si>
+    <t>*maa://21334</t>
+  </si>
+  <si>
+    <t>maa://24377</t>
+  </si>
+  <si>
+    <t>*maa://21679</t>
+  </si>
+  <si>
+    <t>maa://22466, *maa://22732</t>
+  </si>
+  <si>
+    <t>maa://39347</t>
+  </si>
+  <si>
+    <t>maa://31731</t>
+  </si>
+  <si>
+    <t>maa://27127, *maa://22751</t>
+  </si>
+  <si>
+    <t>maa://24378</t>
+  </si>
+  <si>
+    <t>maa://28071</t>
+  </si>
+  <si>
+    <t>*maa://30770</t>
+  </si>
+  <si>
+    <t>maa://28432, *maa://28440, maa://31400, *maa://28650</t>
+  </si>
+  <si>
+    <t>maa://30442</t>
+  </si>
+  <si>
+    <t>maa://35926, *maa://36258</t>
+  </si>
+  <si>
+    <t>maa://28065</t>
+  </si>
+  <si>
+    <t>maa://39384</t>
+  </si>
+  <si>
+    <t>maa://21249, maa://26254</t>
+  </si>
+  <si>
+    <t>maa://21919, maa://21281</t>
+  </si>
+  <si>
+    <t>maa://31836, maa://30381</t>
+  </si>
+  <si>
+    <t>maa://22750</t>
+  </si>
+  <si>
+    <t>*maa://21916, maa://32931, maa://23252, **maa://22759, maa://37496</t>
+  </si>
+  <si>
+    <t>maa://22736</t>
+  </si>
+  <si>
+    <t>maa://28977, *maa://23264, maa://36669</t>
+  </si>
+  <si>
+    <t>maa://22676, *maa://22583, *maa://22500</t>
+  </si>
+  <si>
+    <t>maa://23250, maa://20107, maa://22772, **maa://22745</t>
+  </si>
+  <si>
+    <t>maa://24762, *maa://22727</t>
+  </si>
+  <si>
+    <t>maa://28504</t>
+  </si>
+  <si>
+    <t>maa://23890, *maa://24940</t>
+  </si>
+  <si>
+    <t>maa://24379, maa://24380</t>
+  </si>
+  <si>
+    <t>maa://39433</t>
+  </si>
+  <si>
+    <t>maa://37442</t>
+  </si>
+  <si>
+    <t>maa://24381</t>
+  </si>
+  <si>
+    <t>maa://24382</t>
+  </si>
+  <si>
+    <t>*maa://23168, **maa://30050</t>
+  </si>
+  <si>
+    <t>maa://21442</t>
+  </si>
+  <si>
+    <t>maa://26203</t>
+  </si>
+  <si>
+    <t>*maa://21956, maa://22730</t>
+  </si>
+  <si>
+    <t>maa://21280, *maa://21239</t>
+  </si>
+  <si>
+    <t>*maa://24383</t>
+  </si>
+  <si>
+    <t>maa://24709</t>
+  </si>
+  <si>
+    <t>maa://23278, maa://21386, maa://36664</t>
+  </si>
+  <si>
+    <t>**maa://35616</t>
+  </si>
+  <si>
+    <t>*maa://36237</t>
+  </si>
+  <si>
+    <t>maa://22742, *maa://20791</t>
+  </si>
+  <si>
+    <t>maa://32509, maa://22754, *maa://27295, *maa://21746, *maa://31008</t>
+  </si>
+  <si>
+    <t>*maa://37411</t>
+  </si>
+  <si>
+    <t>maa://21291</t>
+  </si>
+  <si>
+    <t>**maa://22866, maa://26222</t>
+  </si>
+  <si>
+    <t>maa://27395, maa://22755, **maa://22756</t>
+  </si>
+  <si>
+    <t>maa://22747, maa://22501</t>
+  </si>
+  <si>
+    <t>maa://21484</t>
+  </si>
+  <si>
+    <t>*maa://22471, maa://22521</t>
+  </si>
+  <si>
+    <t>maa://23892</t>
+  </si>
+  <si>
+    <t>maa://22729, *maa://28648, *maa://36674</t>
+  </si>
+  <si>
+    <t>maa://24385</t>
+  </si>
+  <si>
+    <t>maa://24386</t>
+  </si>
+  <si>
+    <t>maa://29113</t>
+  </si>
+  <si>
+    <t>maa://21993</t>
+  </si>
+  <si>
+    <t>maa://38495</t>
+  </si>
+  <si>
+    <t>maa://24387, maa://31212</t>
+  </si>
+  <si>
+    <t>maa://20109, maa://22545</t>
+  </si>
+  <si>
+    <t>maa://23263, *maa://29765</t>
+  </si>
+  <si>
+    <t>maa://28502</t>
+  </si>
+  <si>
+    <t>*maa://32940, maa://24388</t>
+  </si>
+  <si>
+    <t>maa://30711, maa://30768</t>
+  </si>
+  <si>
+    <t>maa://24526</t>
+  </si>
+  <si>
+    <t>maa://24842</t>
+  </si>
+  <si>
+    <t>maa://27613</t>
+  </si>
+  <si>
+    <t>**maa://39354</t>
+  </si>
+  <si>
+    <t>maa://30713</t>
+  </si>
+  <si>
+    <t>maa://39366</t>
+  </si>
+  <si>
+    <t>maa://39364</t>
+  </si>
+  <si>
+    <t>maa://27396, maa://27484, maa://27480</t>
+  </si>
+  <si>
+    <t>maa://21290</t>
+  </si>
+  <si>
+    <t>maa://22399, *maa://22758</t>
+  </si>
+  <si>
+    <t>maa://21411</t>
+  </si>
+  <si>
+    <t>maa://26223</t>
+  </si>
+  <si>
+    <t>maa://22301, maa://22726</t>
+  </si>
+  <si>
+    <t>maa://36713</t>
+  </si>
+  <si>
+    <t>maa://22753, *maa://21485, *maa://37962</t>
+  </si>
+  <si>
+    <t>maa://37468</t>
+  </si>
+  <si>
+    <t>*maa://38786</t>
+  </si>
+  <si>
+    <t>maa://28501, maa://28051</t>
+  </si>
+  <si>
+    <t>maa://21917, *maa://22741</t>
+  </si>
+  <si>
+    <t>maa://31386</t>
+  </si>
+  <si>
+    <t>maa://20110, maa://34946</t>
+  </si>
+  <si>
+    <t>maa://21282, *maa://37649</t>
+  </si>
+  <si>
+    <t>*maa://28503</t>
+  </si>
+  <si>
+    <t>maa://23504, maa://29988, **maa://22892, *maa://25141, *maa://36663, ***maa://22815</t>
+  </si>
+  <si>
+    <t>*maa://29890</t>
+  </si>
+  <si>
+    <t>maa://24389</t>
+  </si>
+  <si>
+    <t>*maa://39477</t>
+  </si>
+  <si>
+    <t>maa://21246, maa://36684</t>
+  </si>
+  <si>
+    <t>maa://24390</t>
+  </si>
+  <si>
+    <t>*maa://32658</t>
+  </si>
+  <si>
+    <t>maa://29863, **maa://26013</t>
+  </si>
+  <si>
+    <t>maa://22739</t>
+  </si>
+  <si>
+    <t>maa://25389</t>
+  </si>
+  <si>
+    <t>maa://24391</t>
+  </si>
+  <si>
+    <t>maa://22516, *maa://20794, maa://29912</t>
+  </si>
+  <si>
+    <t>maa://23669, maa://36677, maa://39872</t>
+  </si>
+  <si>
+    <t>maa://24392</t>
+  </si>
+  <si>
+    <t>maa://22764</t>
+  </si>
+  <si>
+    <t>maa://26228</t>
+  </si>
+  <si>
+    <t>maa://24393</t>
+  </si>
+  <si>
+    <t>*maa://21443, ***maa://23820</t>
+  </si>
+  <si>
+    <t>maa://23656</t>
+  </si>
+  <si>
+    <t>maa://29652</t>
+  </si>
+  <si>
+    <t>maa://39349</t>
+  </si>
+  <si>
+    <t>maa://24516, maa://31215, maa://26001</t>
+  </si>
+  <si>
+    <t>*maa://21289</t>
+  </si>
+  <si>
+    <t>*maa://30062, maa://39394</t>
+  </si>
+  <si>
+    <t>*maa://33152, ***maa://22770</t>
+  </si>
+  <si>
+    <t>*maa://26191, *maa://36671</t>
+  </si>
+  <si>
+    <t>*maa://24479, *maa://21990</t>
+  </si>
+  <si>
+    <t>maa://26206, **maa://22865</t>
+  </si>
+  <si>
+    <t>*maa://25021, *maa://22733, maa://22761</t>
+  </si>
+  <si>
+    <t>maa://31203</t>
+  </si>
+  <si>
+    <t>*maa://28932, *maa://20106, *maa://22769</t>
+  </si>
+  <si>
+    <t>maa://21364, *maa://22766, *maa://36666</t>
+  </si>
+  <si>
+    <t>*maa://23911, maa://27755</t>
+  </si>
+  <si>
+    <t>*maa://24313, **maa://29784</t>
+  </si>
+  <si>
+    <t>*maa://21663</t>
+  </si>
+  <si>
+    <t>maa://29658</t>
+  </si>
+  <si>
+    <t>maa://31489</t>
+  </si>
+  <si>
+    <t>maa://20108, maa://24621, maa://22771, maa://36676, maa://37772</t>
+  </si>
+  <si>
+    <t>maa://30511, *maa://29760</t>
+  </si>
+  <si>
+    <t>maa://24023</t>
+  </si>
+  <si>
+    <t>maa://36660, *maa://36701</t>
+  </si>
+  <si>
+    <t>*maa://24080</t>
+  </si>
+  <si>
+    <t>*maa://32650</t>
+  </si>
+  <si>
+    <t>*maa://39479</t>
+  </si>
+  <si>
+    <t>maa://36697</t>
+  </si>
+  <si>
+    <t>*maa://21476, *maa://37551, maa://39431</t>
+  </si>
+  <si>
+    <t>**maa://32237, ***maa://39243, **maa://39951</t>
+  </si>
+  <si>
+    <t>maa://21247, *maa://22748</t>
+  </si>
+  <si>
+    <t>maa://22430, *maa://39599</t>
+  </si>
+  <si>
+    <t>*maa://29063, *maa://25311</t>
+  </si>
+  <si>
+    <t>*maa://39351</t>
+  </si>
+  <si>
+    <t>*maa://24633, *maa://30515, *maa://34787, maa://39402, ***maa://29083</t>
+  </si>
+  <si>
+    <t>maa://39756, maa://39875</t>
+  </si>
+  <si>
+    <t>maa://39808</t>
+  </si>
+  <si>
+    <t>maa://30587, *maa://29748, maa://37566</t>
+  </si>
+  <si>
+    <t>*maa://30968, maa://39870</t>
+  </si>
+  <si>
+    <t>*maa://39643</t>
+  </si>
+  <si>
+    <t>maa://24617, **maa://20790</t>
+  </si>
+  <si>
+    <t>*maa://30624</t>
+  </si>
+  <si>
+    <t>maa://34957, *maa://22768</t>
+  </si>
+  <si>
+    <t>*maa://39929</t>
+  </si>
+  <si>
+    <t>maa://28711, **maa://27377, ***maa://25174, *maa://39938</t>
+  </si>
+  <si>
+    <t>*maa://30709, *maa://36668</t>
+  </si>
+  <si>
+    <t>maa://25251, *maa://36675, **maa://39501</t>
+  </si>
+  <si>
+    <t>**maa://22737, maa://39883, maa://39885</t>
+  </si>
+  <si>
+    <t>maa://22524, *maa://22432</t>
+  </si>
+  <si>
+    <t>maa://22523, *maa://36672, maa://29910, **maa://21440</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩佩</t>
-  </si>
-  <si>
-    <t>娜仁图亚</t>
-  </si>
-  <si>
-    <t>莎草</t>
-  </si>
-  <si>
-    <t>衡沙</t>
-  </si>
-  <si>
-    <t>锡人</t>
-  </si>
-  <si>
-    <t>maa://24702, maa://25390, maa://36681</t>
-  </si>
-  <si>
-    <t>maa://36987, maa://39849</t>
-  </si>
-  <si>
-    <t>maa://24632, **maa://24303, maa://22499, maa://22746</t>
-  </si>
-  <si>
-    <t>maa://21245, maa://22744</t>
-  </si>
-  <si>
-    <t>maa://21955</t>
-  </si>
-  <si>
-    <t>*maa://21476, *maa://37551</t>
-  </si>
-  <si>
-    <t>maa://22765, *maa://21915</t>
-  </si>
-  <si>
-    <t>**maa://32237, **maa://39243</t>
-  </si>
-  <si>
-    <t>maa://36707</t>
-  </si>
-  <si>
-    <t>maa://30766, **maa://36678</t>
-  </si>
-  <si>
-    <t>maa://24999, maa://36673, maa://25001</t>
-  </si>
-  <si>
-    <t>maa://30764</t>
-  </si>
-  <si>
-    <t>*maa://22743, maa://22734, *maa://30808</t>
-  </si>
-  <si>
-    <t>maa://21441, maa://36679, maa://37650</t>
-  </si>
-  <si>
-    <t>*maa://21624</t>
-  </si>
-  <si>
-    <t>maa://24570</t>
-  </si>
-  <si>
-    <t>maa://21432, maa://25198, **maa://20795, maa://36680</t>
-  </si>
-  <si>
-    <t>maa://21261</t>
-  </si>
-  <si>
-    <t>***maa://28036</t>
-  </si>
-  <si>
-    <t>maa://24368</t>
-  </si>
-  <si>
-    <t>maa://29753</t>
-  </si>
-  <si>
-    <t>maa://24465, maa://25725</t>
-  </si>
-  <si>
-    <t>maa://31694</t>
-  </si>
-  <si>
-    <t>maa://21247, maa://22748</t>
-  </si>
-  <si>
-    <t>maa://24370</t>
-  </si>
-  <si>
-    <t>*maa://24371</t>
-  </si>
-  <si>
-    <t>maa://32651</t>
-  </si>
-  <si>
-    <t>maa://21867</t>
-  </si>
-  <si>
-    <t>*maa://21248, **maa://22728</t>
-  </si>
-  <si>
-    <t>*maa://32656</t>
-  </si>
-  <si>
-    <t>maa://24304, maa://21478</t>
-  </si>
-  <si>
-    <t>maa://22430, **maa://39599</t>
-  </si>
-  <si>
-    <t>maa://24421</t>
-  </si>
-  <si>
-    <t>maa://22864</t>
-  </si>
-  <si>
-    <t>maa://24372</t>
-  </si>
-  <si>
-    <t>**maa://21678, maa://25236, **maa://22735</t>
-  </si>
-  <si>
-    <t>maa://29063, *maa://25311</t>
-  </si>
-  <si>
-    <t>maa://24913</t>
-  </si>
-  <si>
-    <t>**maa://21283, maa://34494, **maa://36665, maa://39601</t>
-  </si>
-  <si>
-    <t>*maa://25175</t>
-  </si>
-  <si>
-    <t>maa://39355</t>
-  </si>
-  <si>
-    <t>maa://32721, **maa://24373</t>
-  </si>
-  <si>
-    <t>maa://21895, maa://36667, **maa://20793, maa://22760</t>
-  </si>
-  <si>
-    <t>maa://39351</t>
-  </si>
-  <si>
-    <t>maa://24375</t>
-  </si>
-  <si>
-    <t>*maa://24374</t>
-  </si>
-  <si>
-    <t>maa://25199, maa://30434, maa://36670</t>
-  </si>
-  <si>
-    <t>maa://24466</t>
-  </si>
-  <si>
-    <t>maa://22525, maa://21284</t>
-  </si>
-  <si>
-    <t>maa://29768, maa://27728</t>
-  </si>
-  <si>
-    <t>maa://21229, maa://30807, *maa://22767</t>
-  </si>
-  <si>
-    <t>maa://35931</t>
-  </si>
-  <si>
-    <t>maa://27410, maa://29661, maa://28038</t>
-  </si>
-  <si>
-    <t>*maa://30769</t>
-  </si>
-  <si>
-    <t>maa://24376</t>
-  </si>
-  <si>
-    <t>maa://32534, **maa://32434</t>
-  </si>
-  <si>
-    <t>maa://32532</t>
-  </si>
-  <si>
-    <t>maa://25176</t>
-  </si>
-  <si>
-    <t>*maa://37964</t>
-  </si>
-  <si>
-    <t>maa://27746, maa://31270</t>
-  </si>
-  <si>
-    <t>*maa://24633, *maa://30515, *maa://34787, ***maa://29083, maa://39402</t>
-  </si>
-  <si>
-    <t>*maa://22880, maa://20276, *maa://22749</t>
-  </si>
-  <si>
-    <t>maa://22757</t>
-  </si>
-  <si>
-    <t>maa://24839</t>
-  </si>
-  <si>
-    <t>maa://28624, maa://24957</t>
-  </si>
-  <si>
-    <t>maa://22762</t>
-  </si>
-  <si>
-    <t>**maa://24395</t>
-  </si>
-  <si>
-    <t>maa://21287</t>
-  </si>
-  <si>
-    <t>maa://26245, maa://21288, maa://36682, maa://39841</t>
-  </si>
-  <si>
-    <t>*maa://21334</t>
-  </si>
-  <si>
-    <t>maa://24377</t>
-  </si>
-  <si>
-    <t>*maa://21679</t>
-  </si>
-  <si>
-    <t>maa://22466, *maa://22732</t>
-  </si>
-  <si>
-    <t>maa://39347</t>
-  </si>
-  <si>
-    <t>maa://31731</t>
-  </si>
-  <si>
-    <t>maa://27127, *maa://22751</t>
-  </si>
-  <si>
-    <t>maa://39756</t>
-  </si>
-  <si>
-    <t>maa://24378</t>
-  </si>
-  <si>
-    <t>maa://28071</t>
-  </si>
-  <si>
-    <t>*maa://30770</t>
-  </si>
-  <si>
-    <t>maa://28432, *maa://28440, maa://31400, *maa://28650</t>
-  </si>
-  <si>
-    <t>maa://30442</t>
-  </si>
-  <si>
-    <t>maa://35926, *maa://36258</t>
-  </si>
-  <si>
-    <t>maa://28065</t>
-  </si>
-  <si>
-    <t>maa://39384</t>
-  </si>
-  <si>
-    <t>maa://21249, maa://26254</t>
-  </si>
-  <si>
-    <t>maa://21919, maa://21281</t>
-  </si>
-  <si>
-    <t>maa://31836, maa://30381</t>
-  </si>
-  <si>
-    <t>maa://22750</t>
-  </si>
-  <si>
-    <t>*maa://21916, maa://32931, maa://23252, **maa://22759, maa://37496</t>
-  </si>
-  <si>
-    <t>maa://22736</t>
-  </si>
-  <si>
-    <t>maa://28977, *maa://23264, maa://36669</t>
-  </si>
-  <si>
-    <t>maa://22676, *maa://22583, *maa://22500</t>
-  </si>
-  <si>
-    <t>maa://23250, maa://20107, maa://22772, **maa://22745</t>
-  </si>
-  <si>
-    <t>maa://24762, *maa://22727</t>
-  </si>
-  <si>
-    <t>maa://28504</t>
-  </si>
-  <si>
-    <t>maa://23890, *maa://24940</t>
-  </si>
-  <si>
-    <t>maa://24379, maa://24380</t>
-  </si>
-  <si>
-    <t>maa://39433</t>
-  </si>
-  <si>
-    <t>maa://37442</t>
-  </si>
-  <si>
-    <t>maa://24381</t>
-  </si>
-  <si>
-    <t>maa://30587, *maa://29748, *maa://37566</t>
-  </si>
-  <si>
-    <t>maa://24382</t>
-  </si>
-  <si>
-    <t>*maa://30968</t>
-  </si>
-  <si>
-    <t>*maa://23168, **maa://30050</t>
-  </si>
-  <si>
-    <t>maa://21442</t>
-  </si>
-  <si>
-    <t>maa://26203</t>
-  </si>
-  <si>
-    <t>*maa://21956, maa://22730</t>
-  </si>
-  <si>
-    <t>maa://21280, *maa://21239</t>
-  </si>
-  <si>
-    <t>*maa://24383</t>
-  </si>
-  <si>
-    <t>maa://24709</t>
-  </si>
-  <si>
-    <t>maa://23278, maa://21386, maa://36664</t>
-  </si>
-  <si>
-    <t>**maa://35616</t>
-  </si>
-  <si>
-    <t>*maa://36237</t>
-  </si>
-  <si>
-    <t>maa://39643</t>
-  </si>
-  <si>
-    <t>maa://22742, *maa://20791</t>
-  </si>
-  <si>
-    <t>maa://24617, **maa://20790, ***maa://37170</t>
-  </si>
-  <si>
-    <t>maa://32509, maa://22754, *maa://27295, *maa://21746, *maa://31008</t>
-  </si>
-  <si>
-    <t>*maa://37411</t>
-  </si>
-  <si>
-    <t>maa://21291</t>
-  </si>
-  <si>
-    <t>**maa://22866, maa://26222</t>
-  </si>
-  <si>
-    <t>maa://27395, maa://22755, **maa://22756</t>
-  </si>
-  <si>
-    <t>maa://22747, maa://22501</t>
-  </si>
-  <si>
-    <t>maa://21484</t>
-  </si>
-  <si>
-    <t>*maa://22471, maa://22521</t>
-  </si>
-  <si>
-    <t>maa://23892</t>
-  </si>
-  <si>
-    <t>maa://22729, *maa://28648, *maa://36674</t>
-  </si>
-  <si>
-    <t>maa://24385</t>
-  </si>
-  <si>
-    <t>maa://24386</t>
-  </si>
-  <si>
-    <t>maa://29113</t>
-  </si>
-  <si>
-    <t>maa://21993</t>
-  </si>
-  <si>
-    <t>maa://38495</t>
-  </si>
-  <si>
-    <t>maa://24387, maa://31212</t>
-  </si>
-  <si>
-    <t>maa://20109, maa://22545</t>
-  </si>
-  <si>
-    <t>maa://30624</t>
-  </si>
-  <si>
-    <t>maa://23263, *maa://29765</t>
-  </si>
-  <si>
-    <t>maa://28502</t>
-  </si>
-  <si>
-    <t>*maa://32940, maa://24388</t>
-  </si>
-  <si>
-    <t>maa://30711, maa://30768</t>
-  </si>
-  <si>
-    <t>maa://24526</t>
-  </si>
-  <si>
-    <t>maa://24842</t>
-  </si>
-  <si>
-    <t>maa://27613</t>
-  </si>
-  <si>
-    <t>**maa://39354</t>
-  </si>
-  <si>
-    <t>maa://30713</t>
-  </si>
-  <si>
-    <t>maa://39366</t>
-  </si>
-  <si>
-    <t>maa://39364</t>
-  </si>
-  <si>
-    <t>maa://27396, maa://27484, maa://27480</t>
-  </si>
-  <si>
-    <t>maa://21290</t>
-  </si>
-  <si>
-    <t>maa://22399, *maa://22758</t>
-  </si>
-  <si>
-    <t>maa://21411</t>
-  </si>
-  <si>
-    <t>maa://26223</t>
-  </si>
-  <si>
-    <t>maa://22301, maa://22726</t>
-  </si>
-  <si>
-    <t>maa://36713</t>
-  </si>
-  <si>
-    <t>maa://22753, *maa://21485, *maa://37962</t>
-  </si>
-  <si>
-    <t>*maa://34957, *maa://22768</t>
-  </si>
-  <si>
-    <t>maa://37468</t>
-  </si>
-  <si>
-    <t>*maa://38786</t>
-  </si>
-  <si>
-    <t>maa://28501, maa://28051</t>
-  </si>
-  <si>
-    <t>maa://21917, *maa://22741</t>
-  </si>
-  <si>
-    <t>maa://31386</t>
-  </si>
-  <si>
-    <t>maa://20110, maa://34946</t>
-  </si>
-  <si>
-    <t>maa://21282, *maa://37649</t>
-  </si>
-  <si>
-    <t>*maa://28503</t>
-  </si>
-  <si>
-    <t>maa://23504, maa://29988, **maa://22892, *maa://25141, *maa://36663, ***maa://22815</t>
-  </si>
-  <si>
-    <t>*maa://29890</t>
-  </si>
-  <si>
-    <t>maa://24389</t>
-  </si>
-  <si>
-    <t>**maa://39821, ***maa://39723</t>
-  </si>
-  <si>
-    <t>*maa://39477</t>
-  </si>
-  <si>
-    <t>maa://21246, maa://36684</t>
-  </si>
-  <si>
-    <t>maa://24390</t>
-  </si>
-  <si>
-    <t>*maa://32658</t>
-  </si>
-  <si>
-    <t>maa://29863, **maa://26013</t>
-  </si>
-  <si>
-    <t>maa://22739</t>
-  </si>
-  <si>
-    <t>maa://25389</t>
-  </si>
-  <si>
-    <t>maa://28711, **maa://27377, ***maa://25174</t>
-  </si>
-  <si>
-    <t>maa://24391</t>
-  </si>
-  <si>
-    <t>maa://22516, *maa://20794, maa://29912</t>
-  </si>
-  <si>
-    <t>maa://23669, maa://36677, maa://39872</t>
-  </si>
-  <si>
-    <t>maa://24392</t>
-  </si>
-  <si>
-    <t>maa://22764</t>
-  </si>
-  <si>
-    <t>maa://26228</t>
-  </si>
-  <si>
-    <t>maa://24393</t>
-  </si>
-  <si>
-    <t>*maa://30709, **maa://36668</t>
-  </si>
-  <si>
-    <t>*maa://21443, ***maa://23820</t>
-  </si>
-  <si>
-    <t>maa://23656</t>
-  </si>
-  <si>
-    <t>maa://29652</t>
-  </si>
-  <si>
-    <t>maa://39349</t>
-  </si>
-  <si>
-    <t>maa://24516, maa://31215, maa://26001</t>
-  </si>
-  <si>
-    <t>maa://25251, *maa://36675, *maa://39501</t>
-  </si>
-  <si>
-    <t>*maa://21289</t>
-  </si>
-  <si>
-    <t>*maa://30062, maa://39394</t>
-  </si>
-  <si>
-    <t>*maa://33152, ***maa://22770</t>
-  </si>
-  <si>
-    <t>*maa://26191, *maa://36671</t>
-  </si>
-  <si>
-    <t>*maa://24479, *maa://21990</t>
-  </si>
-  <si>
-    <t>maa://26206, **maa://22865</t>
-  </si>
-  <si>
-    <t>*maa://25021, *maa://22733, maa://22761</t>
-  </si>
-  <si>
-    <t>maa://31203</t>
-  </si>
-  <si>
-    <t>*maa://28932, *maa://20106, *maa://22769</t>
-  </si>
-  <si>
-    <t>**maa://22737</t>
-  </si>
-  <si>
-    <t>maa://21364, *maa://22766, *maa://36666</t>
-  </si>
-  <si>
-    <t>*maa://23911, maa://27755</t>
-  </si>
-  <si>
-    <t>*maa://24313, **maa://29784</t>
-  </si>
-  <si>
-    <t>*maa://21663</t>
-  </si>
-  <si>
-    <t>maa://22524, maa://22432</t>
-  </si>
-  <si>
-    <t>maa://29658</t>
-  </si>
-  <si>
-    <t>maa://31489</t>
-  </si>
-  <si>
-    <t>maa://22523, maa://36672, maa://29910, **maa://21440</t>
-  </si>
-  <si>
-    <t>maa://20108, maa://24621, maa://22771, maa://36676, maa://37772</t>
-  </si>
-  <si>
-    <t>maa://30511, *maa://29760</t>
-  </si>
-  <si>
-    <t>maa://24023</t>
-  </si>
-  <si>
-    <t>maa://36660, *maa://36701</t>
-  </si>
-  <si>
-    <t>*maa://24080</t>
-  </si>
-  <si>
-    <t>*maa://32650</t>
-  </si>
-  <si>
-    <t>*maa://39479</t>
-  </si>
-  <si>
-    <t>maa://36697</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2129,7 @@
   <dimension ref="A1:AE71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2247,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -2265,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>157</v>
@@ -2283,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
@@ -2301,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>295</v>
@@ -2310,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2321,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>68</v>
@@ -2330,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>380</v>
+        <v>552</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -2339,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>158</v>
@@ -2348,16 +2351,16 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>204</v>
       </c>
       <c r="R3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>473</v>
+        <v>562</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>243</v>
@@ -2366,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>269</v>
@@ -2375,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>296</v>
@@ -2384,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2395,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>69</v>
@@ -2431,7 +2434,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>244</v>
@@ -2449,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>297</v>
@@ -2458,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2469,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
@@ -2487,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>160</v>
@@ -2496,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>206</v>
@@ -2514,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>271</v>
@@ -2523,7 +2526,7 @@
         <v>2</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>298</v>
@@ -2552,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2561,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>161</v>
@@ -2570,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>207</v>
@@ -2579,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>246</v>
@@ -2597,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>299</v>
@@ -2606,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2617,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
@@ -2635,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>162</v>
@@ -2644,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>208</v>
@@ -2653,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>247</v>
@@ -2662,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>273</v>
@@ -2680,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2688,10 +2691,10 @@
         <v>46</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>362</v>
+        <v>550</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2700,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>131</v>
@@ -2718,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>209</v>
@@ -2736,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>274</v>
@@ -2745,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>301</v>
@@ -2754,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2765,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
@@ -2783,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>164</v>
@@ -2792,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>210</v>
@@ -2801,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>249</v>
@@ -2810,16 +2813,16 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>275</v>
       </c>
       <c r="Z9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>302</v>
@@ -2828,7 +2831,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2836,10 +2839,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>364</v>
+        <v>551</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -2848,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>133</v>
@@ -2857,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>165</v>
@@ -2866,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>211</v>
@@ -2875,7 +2878,7 @@
         <v>3</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>250</v>
@@ -2884,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>276</v>
@@ -2893,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>303</v>
@@ -2902,7 +2905,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2913,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -2931,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>166</v>
@@ -2949,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>251</v>
@@ -2958,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>277</v>
@@ -2967,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>304</v>
@@ -2976,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2987,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
@@ -2996,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>135</v>
@@ -3032,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>278</v>
@@ -3041,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>305</v>
@@ -3050,7 +3053,7 @@
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -3061,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>78</v>
@@ -3070,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>136</v>
@@ -3088,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>214</v>
@@ -3097,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>253</v>
@@ -3106,7 +3109,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>279</v>
@@ -3115,16 +3118,16 @@
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>306</v>
       </c>
       <c r="AD13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3135,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -3144,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
@@ -3153,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>169</v>
@@ -3162,7 +3165,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>215</v>
@@ -3171,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>254</v>
@@ -3180,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>280</v>
@@ -3189,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>307</v>
@@ -3209,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>80</v>
@@ -3218,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>138</v>
@@ -3227,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>170</v>
@@ -3236,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>216</v>
@@ -3245,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>255</v>
@@ -3254,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>281</v>
@@ -3272,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3283,7 +3286,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
@@ -3301,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>171</v>
@@ -3310,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>217</v>
@@ -3319,7 +3322,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>256</v>
@@ -3328,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>282</v>
@@ -3337,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>309</v>
@@ -3346,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3357,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>82</v>
@@ -3366,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>388</v>
+        <v>553</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>140</v>
@@ -3375,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -3384,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>218</v>
@@ -3431,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -3440,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>141</v>
@@ -3449,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>173</v>
@@ -3458,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>219</v>
@@ -3467,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>258</v>
@@ -3476,7 +3479,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>284</v>
@@ -3485,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>311</v>
@@ -3494,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3523,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>174</v>
@@ -3532,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>220</v>
@@ -3541,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>259</v>
@@ -3550,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>285</v>
@@ -3559,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>312</v>
@@ -3568,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3579,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3588,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
@@ -3606,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>221</v>
@@ -3615,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>260</v>
@@ -3653,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
@@ -3662,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -3671,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>176</v>
@@ -3680,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>222</v>
@@ -3689,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>261</v>
@@ -3698,7 +3701,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>287</v>
@@ -3707,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>314</v>
@@ -3716,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3736,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>145</v>
@@ -3745,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>177</v>
@@ -3763,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>262</v>
@@ -3772,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>288</v>
@@ -3781,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>315</v>
@@ -3790,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3801,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
@@ -3816,10 +3819,10 @@
         <v>146</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>433</v>
+        <v>557</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>178</v>
@@ -3828,7 +3831,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>458</v>
+        <v>559</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>224</v>
@@ -3837,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>263</v>
@@ -3846,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>289</v>
@@ -3855,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>316</v>
@@ -3864,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3875,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -3920,7 +3923,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>290</v>
@@ -3929,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>317</v>
@@ -3938,7 +3941,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3949,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>90</v>
@@ -3958,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>393</v>
+        <v>554</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
@@ -3967,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
@@ -3976,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>226</v>
@@ -3985,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>265</v>
@@ -3994,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>291</v>
@@ -4003,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>318</v>
@@ -4012,7 +4015,7 @@
         <v>5</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -4032,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>149</v>
@@ -4047,10 +4050,10 @@
         <v>181</v>
       </c>
       <c r="N26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>460</v>
+        <v>560</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>227</v>
@@ -4068,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>292</v>
@@ -4086,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4106,7 +4109,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>150</v>
@@ -4115,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>182</v>
@@ -4133,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>491</v>
+        <v>563</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>267</v>
@@ -4160,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4171,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -4189,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>183</v>
@@ -4207,16 +4210,16 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="V28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>294</v>
@@ -4234,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4245,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -4254,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>152</v>
@@ -4263,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>184</v>
@@ -4272,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>230</v>
@@ -4281,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>23</v>
@@ -4308,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4328,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>153</v>
@@ -4337,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>185</v>
@@ -4346,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>231</v>
@@ -4355,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>31</v>
@@ -4364,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>30</v>
@@ -4402,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>154</v>
@@ -4411,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
@@ -4429,10 +4432,10 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>326</v>
@@ -4476,7 +4479,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>155</v>
@@ -4485,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>187</v>
@@ -4494,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>233</v>
@@ -4541,13 +4544,16 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>400</v>
+        <v>555</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>156</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>188</v>
@@ -4556,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>234</v>
@@ -4621,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>348</v>
@@ -4639,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4677,10 +4683,10 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>326</v>
@@ -4695,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -4706,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
@@ -4733,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>334</v>
@@ -4753,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>39</v>
@@ -4771,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>238</v>
@@ -4780,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>335</v>
@@ -4814,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>193</v>
@@ -4823,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>239</v>
@@ -4832,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>336</v>
@@ -4841,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4855,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>347</v>
@@ -4873,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>240</v>
@@ -4885,7 +4891,7 @@
         <v>326</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AD39" s="1" t="s">
         <v>326</v>
@@ -4916,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>241</v>
@@ -4939,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>196</v>
@@ -4948,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>242</v>
@@ -4962,7 +4968,7 @@
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>351</v>
+        <v>572</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5005,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>198</v>
@@ -5037,7 +5043,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
@@ -5055,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
@@ -5071,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>200</v>
@@ -5080,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>332</v>
@@ -5089,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
@@ -5103,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>201</v>
@@ -5137,7 +5143,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>202</v>
@@ -5203,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>471</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -5237,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>340</v>
@@ -5257,10 +5263,10 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>326</v>
@@ -5277,7 +5283,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5299,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5321,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5332,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -5343,7 +5349,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5469,7 +5475,7 @@
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E71" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>326</v>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A109578F-9EC5-4794-9D25-8C9367671754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797A603-9313-4BF7-94CF-8EAB9D920620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="3120" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="574">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1117,9 +1117,6 @@
     <t>maa://24702, maa://25390, maa://36681</t>
   </si>
   <si>
-    <t>maa://36987, maa://39849</t>
-  </si>
-  <si>
     <t>maa://24632, **maa://24303, maa://22499, maa://22746</t>
   </si>
   <si>
@@ -1207,9 +1204,6 @@
     <t>maa://24372</t>
   </si>
   <si>
-    <t>**maa://21678, maa://25236, **maa://22735</t>
-  </si>
-  <si>
     <t>maa://24913</t>
   </si>
   <si>
@@ -1234,9 +1228,6 @@
     <t>*maa://24374</t>
   </si>
   <si>
-    <t>maa://25199, maa://30434, maa://36670</t>
-  </si>
-  <si>
     <t>maa://24466</t>
   </si>
   <si>
@@ -1288,9 +1279,6 @@
     <t>maa://28624, maa://24957</t>
   </si>
   <si>
-    <t>maa://22762</t>
-  </si>
-  <si>
     <t>**maa://24395</t>
   </si>
   <si>
@@ -1429,9 +1417,6 @@
     <t>maa://22742, *maa://20791</t>
   </si>
   <si>
-    <t>maa://32509, maa://22754, *maa://27295, *maa://21746, *maa://31008</t>
-  </si>
-  <si>
     <t>*maa://37411</t>
   </si>
   <si>
@@ -1501,18 +1486,12 @@
     <t>maa://27613</t>
   </si>
   <si>
-    <t>**maa://39354</t>
-  </si>
-  <si>
     <t>maa://30713</t>
   </si>
   <si>
     <t>maa://39366</t>
   </si>
   <si>
-    <t>maa://39364</t>
-  </si>
-  <si>
     <t>maa://27396, maa://27484, maa://27480</t>
   </si>
   <si>
@@ -1582,9 +1561,6 @@
     <t>*maa://32658</t>
   </si>
   <si>
-    <t>maa://29863, **maa://26013</t>
-  </si>
-  <si>
     <t>maa://22739</t>
   </si>
   <si>
@@ -1594,9 +1570,6 @@
     <t>maa://24391</t>
   </si>
   <si>
-    <t>maa://22516, *maa://20794, maa://29912</t>
-  </si>
-  <si>
     <t>maa://23669, maa://36677, maa://39872</t>
   </si>
   <si>
@@ -1630,9 +1603,6 @@
     <t>*maa://21289</t>
   </si>
   <si>
-    <t>*maa://30062, maa://39394</t>
-  </si>
-  <si>
     <t>*maa://33152, ***maa://22770</t>
   </si>
   <si>
@@ -1672,9 +1642,6 @@
     <t>maa://31489</t>
   </si>
   <si>
-    <t>maa://20108, maa://24621, maa://22771, maa://36676, maa://37772</t>
-  </si>
-  <si>
     <t>maa://30511, *maa://29760</t>
   </si>
   <si>
@@ -1690,18 +1657,9 @@
     <t>*maa://32650</t>
   </si>
   <si>
-    <t>*maa://39479</t>
-  </si>
-  <si>
     <t>maa://36697</t>
   </si>
   <si>
-    <t>*maa://21476, *maa://37551, maa://39431</t>
-  </si>
-  <si>
-    <t>**maa://32237, ***maa://39243, **maa://39951</t>
-  </si>
-  <si>
     <t>maa://21247, *maa://22748</t>
   </si>
   <si>
@@ -1711,9 +1669,6 @@
     <t>*maa://29063, *maa://25311</t>
   </si>
   <si>
-    <t>*maa://39351</t>
-  </si>
-  <si>
     <t>*maa://24633, *maa://30515, *maa://34787, maa://39402, ***maa://29083</t>
   </si>
   <si>
@@ -1732,37 +1687,85 @@
     <t>*maa://39643</t>
   </si>
   <si>
-    <t>maa://24617, **maa://20790</t>
-  </si>
-  <si>
     <t>*maa://30624</t>
   </si>
   <si>
-    <t>maa://34957, *maa://22768</t>
-  </si>
-  <si>
-    <t>*maa://39929</t>
-  </si>
-  <si>
-    <t>maa://28711, **maa://27377, ***maa://25174, *maa://39938</t>
-  </si>
-  <si>
     <t>*maa://30709, *maa://36668</t>
   </si>
   <si>
     <t>maa://25251, *maa://36675, **maa://39501</t>
   </si>
   <si>
-    <t>**maa://22737, maa://39883, maa://39885</t>
-  </si>
-  <si>
     <t>maa://22524, *maa://22432</t>
   </si>
   <si>
     <t>maa://22523, *maa://36672, maa://29910, **maa://21440</t>
   </si>
   <si>
-    <t>更新日期：2024.08.10</t>
+    <t>maa://36987, maa://39849, maa://40192</t>
+  </si>
+  <si>
+    <t>*maa://21476, *maa://37551, **maa://39431</t>
+  </si>
+  <si>
+    <t>**maa://32237, ***maa://39243</t>
+  </si>
+  <si>
+    <t>maa://25236, **maa://21678, **maa://22735</t>
+  </si>
+  <si>
+    <t>**maa://39351</t>
+  </si>
+  <si>
+    <t>maa://25199, maa://36670, maa://30434</t>
+  </si>
+  <si>
+    <t>*maa://40438</t>
+  </si>
+  <si>
+    <t>maa://22762, **maa://39552</t>
+  </si>
+  <si>
+    <t>maa://24617, **maa://20790, ***maa://37170</t>
+  </si>
+  <si>
+    <t>maa://32509, maa://22754, maa://27295, *maa://21746, *maa://31008</t>
+  </si>
+  <si>
+    <t>***maa://39354</t>
+  </si>
+  <si>
+    <t>*maa://39364</t>
+  </si>
+  <si>
+    <t>*maa://34957, *maa://22768</t>
+  </si>
+  <si>
+    <t>maa://39929</t>
+  </si>
+  <si>
+    <t>*maa://29863, **maa://26013</t>
+  </si>
+  <si>
+    <t>maa://28711, **maa://27377, ***maa://25174, **maa://39938, maa://40166</t>
+  </si>
+  <si>
+    <t>maa://22516, maa://29912, *maa://20794</t>
+  </si>
+  <si>
+    <t>*maa://30062, *maa://39394</t>
+  </si>
+  <si>
+    <t>**maa://22737, maa://39883, *maa://39885</t>
+  </si>
+  <si>
+    <t>maa://20108, maa://24621, maa://36676, maa://22771, maa://37772</t>
+  </si>
+  <si>
+    <t>maa://39479</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,7 +2132,7 @@
   <dimension ref="A1:AE71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2268,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>157</v>
@@ -2286,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
@@ -2304,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>295</v>
@@ -2313,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2321,10 +2324,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>357</v>
+        <v>552</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>68</v>
@@ -2333,7 +2336,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -2342,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>158</v>
@@ -2351,16 +2354,16 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>204</v>
       </c>
       <c r="R3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>243</v>
@@ -2369,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>269</v>
@@ -2378,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>296</v>
@@ -2387,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2398,7 +2401,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>69</v>
@@ -2434,7 +2437,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>461</v>
+        <v>561</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>244</v>
@@ -2452,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>297</v>
@@ -2461,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2472,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
@@ -2490,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>160</v>
@@ -2499,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>206</v>
@@ -2517,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>271</v>
@@ -2526,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>298</v>
@@ -2555,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2564,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>161</v>
@@ -2573,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>207</v>
@@ -2582,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>246</v>
@@ -2600,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>299</v>
@@ -2609,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2620,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
@@ -2638,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>162</v>
@@ -2647,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>208</v>
@@ -2656,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>247</v>
@@ -2665,7 +2668,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>273</v>
@@ -2683,7 +2686,7 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2694,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2703,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>131</v>
@@ -2721,7 +2724,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>209</v>
@@ -2739,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>274</v>
@@ -2748,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>301</v>
@@ -2757,7 +2760,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2768,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
@@ -2783,10 +2786,10 @@
         <v>132</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>414</v>
+        <v>559</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>164</v>
@@ -2795,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>210</v>
@@ -2804,7 +2807,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>249</v>
@@ -2813,16 +2816,16 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>275</v>
       </c>
       <c r="Z9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>302</v>
@@ -2831,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2839,10 +2842,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -2851,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>133</v>
@@ -2860,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>165</v>
@@ -2869,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>211</v>
@@ -2878,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>250</v>
@@ -2887,7 +2890,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>276</v>
@@ -2896,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>303</v>
@@ -2905,7 +2908,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2916,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -2934,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>166</v>
@@ -2952,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>251</v>
@@ -2961,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>277</v>
@@ -2970,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>304</v>
@@ -2979,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2990,7 +2993,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
@@ -2999,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>135</v>
@@ -3035,7 +3038,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>278</v>
@@ -3044,7 +3047,7 @@
         <v>3</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>305</v>
@@ -3053,7 +3056,7 @@
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -3064,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>78</v>
@@ -3073,7 +3076,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>136</v>
@@ -3091,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>214</v>
@@ -3100,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>253</v>
@@ -3118,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>306</v>
@@ -3127,7 +3130,7 @@
         <v>3</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3138,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -3147,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
@@ -3156,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>169</v>
@@ -3165,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>215</v>
@@ -3174,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>254</v>
@@ -3183,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>280</v>
@@ -3192,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>307</v>
@@ -3212,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>80</v>
@@ -3221,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>138</v>
@@ -3230,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>170</v>
@@ -3239,7 +3242,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>216</v>
@@ -3248,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>255</v>
@@ -3257,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>281</v>
@@ -3275,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3286,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
@@ -3304,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>171</v>
@@ -3313,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>217</v>
@@ -3322,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>256</v>
@@ -3331,7 +3334,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>282</v>
@@ -3340,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>309</v>
@@ -3349,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3360,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>82</v>
@@ -3369,7 +3372,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>140</v>
@@ -3378,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -3387,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>218</v>
@@ -3434,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -3443,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>141</v>
@@ -3452,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>173</v>
@@ -3461,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>219</v>
@@ -3470,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>258</v>
@@ -3479,7 +3482,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>284</v>
@@ -3488,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>311</v>
@@ -3497,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3526,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>174</v>
@@ -3535,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>220</v>
@@ -3544,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>259</v>
@@ -3553,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>285</v>
@@ -3562,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>312</v>
@@ -3571,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3582,7 +3585,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3591,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
@@ -3609,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>221</v>
@@ -3618,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>260</v>
@@ -3656,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
@@ -3665,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -3674,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>176</v>
@@ -3683,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>222</v>
@@ -3692,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>261</v>
@@ -3701,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>287</v>
@@ -3710,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>314</v>
@@ -3719,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3739,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>387</v>
+        <v>555</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>145</v>
@@ -3748,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>177</v>
@@ -3766,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>262</v>
@@ -3775,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>288</v>
@@ -3784,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>315</v>
@@ -3793,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3804,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
@@ -3822,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>178</v>
@@ -3831,7 +3834,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>224</v>
@@ -3840,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>263</v>
@@ -3849,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>289</v>
@@ -3858,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>316</v>
@@ -3867,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3878,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -3923,7 +3926,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>290</v>
@@ -3932,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>317</v>
@@ -3941,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3952,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>90</v>
@@ -3961,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
@@ -3970,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
@@ -3979,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>226</v>
@@ -3988,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>265</v>
@@ -3997,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>291</v>
@@ -4006,7 +4009,7 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>318</v>
@@ -4015,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>542</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -4035,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>149</v>
@@ -4053,7 +4056,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>227</v>
@@ -4071,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>292</v>
@@ -4089,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4109,7 +4112,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>150</v>
@@ -4118,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>182</v>
@@ -4136,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>267</v>
@@ -4163,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4174,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -4192,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>183</v>
@@ -4210,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
@@ -4237,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4248,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -4257,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>152</v>
@@ -4266,7 +4269,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>184</v>
@@ -4275,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>230</v>
@@ -4284,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>23</v>
@@ -4311,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4331,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>153</v>
@@ -4340,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>185</v>
@@ -4349,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>231</v>
@@ -4358,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>31</v>
@@ -4367,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>30</v>
@@ -4405,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>154</v>
@@ -4414,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
@@ -4432,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>353</v>
@@ -4479,7 +4482,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>155</v>
@@ -4488,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>187</v>
@@ -4497,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>233</v>
@@ -4544,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>156</v>
@@ -4553,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>188</v>
@@ -4562,7 +4565,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>234</v>
@@ -4627,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>348</v>
@@ -4645,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4683,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>354</v>
@@ -4701,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -4712,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
@@ -4739,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>334</v>
@@ -4759,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>39</v>
@@ -4777,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>238</v>
@@ -4786,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>485</v>
+        <v>562</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>335</v>
@@ -4820,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>193</v>
@@ -4829,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>239</v>
@@ -4838,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>336</v>
@@ -4847,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4861,7 +4864,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>396</v>
+        <v>557</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>347</v>
@@ -4879,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>240</v>
@@ -4922,7 +4925,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>241</v>
@@ -4945,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>196</v>
@@ -4954,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>242</v>
@@ -4968,7 +4971,7 @@
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5011,7 +5014,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>198</v>
@@ -5043,7 +5046,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
@@ -5061,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
@@ -5077,7 +5080,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>200</v>
@@ -5086,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>332</v>
@@ -5095,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>488</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
@@ -5109,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>201</v>
@@ -5143,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>202</v>
@@ -5209,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -5243,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>340</v>
@@ -5263,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>352</v>
@@ -5283,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5305,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5327,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5338,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -5349,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5357,10 +5360,10 @@
         <v>15</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>66</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797A603-9313-4BF7-94CF-8EAB9D920620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8765ACB-3FA2-4B6B-A654-AC75FCCDF968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="3885" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="583">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>术士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>医疗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,9 +253,6 @@
     <t>霜叶</t>
   </si>
   <si>
-    <t>艾丝黛儿</t>
-  </si>
-  <si>
     <t>慕斯</t>
   </si>
   <si>
@@ -350,9 +343,6 @@
     <t>杰克</t>
   </si>
   <si>
-    <t>近卫阿米娅</t>
-  </si>
-  <si>
     <t>山</t>
   </si>
   <si>
@@ -614,9 +604,6 @@
     <t>正义骑士号</t>
   </si>
   <si>
-    <t>寒芒克洛斯</t>
-  </si>
-  <si>
     <t>菲亚梅塔</t>
   </si>
   <si>
@@ -773,9 +760,6 @@
     <t>芙蓉</t>
   </si>
   <si>
-    <t>安塞尔</t>
-  </si>
-  <si>
     <t>末药</t>
   </si>
   <si>
@@ -1011,9 +995,6 @@
   </si>
   <si>
     <t>缄默德克萨斯</t>
-  </si>
-  <si>
-    <t>麒麟X夜刀</t>
   </si>
   <si>
     <t>空构</t>
@@ -1189,9 +1170,6 @@
     <t>*maa://21248, **maa://22728</t>
   </si>
   <si>
-    <t>*maa://32656</t>
-  </si>
-  <si>
     <t>maa://24304, maa://21478</t>
   </si>
   <si>
@@ -1585,9 +1563,6 @@
     <t>maa://24393</t>
   </si>
   <si>
-    <t>*maa://21443, ***maa://23820</t>
-  </si>
-  <si>
     <t>maa://23656</t>
   </si>
   <si>
@@ -1597,9 +1572,6 @@
     <t>maa://39349</t>
   </si>
   <si>
-    <t>maa://24516, maa://31215, maa://26001</t>
-  </si>
-  <si>
     <t>*maa://21289</t>
   </si>
   <si>
@@ -1678,36 +1650,21 @@
     <t>maa://39808</t>
   </si>
   <si>
-    <t>maa://30587, *maa://29748, maa://37566</t>
-  </si>
-  <si>
     <t>*maa://30968, maa://39870</t>
   </si>
   <si>
-    <t>*maa://39643</t>
-  </si>
-  <si>
     <t>*maa://30624</t>
   </si>
   <si>
     <t>*maa://30709, *maa://36668</t>
   </si>
   <si>
-    <t>maa://25251, *maa://36675, **maa://39501</t>
-  </si>
-  <si>
     <t>maa://22524, *maa://22432</t>
   </si>
   <si>
     <t>maa://22523, *maa://36672, maa://29910, **maa://21440</t>
   </si>
   <si>
-    <t>maa://36987, maa://39849, maa://40192</t>
-  </si>
-  <si>
-    <t>*maa://21476, *maa://37551, **maa://39431</t>
-  </si>
-  <si>
     <t>**maa://32237, ***maa://39243</t>
   </si>
   <si>
@@ -1765,7 +1722,77 @@
     <t>maa://39479</t>
   </si>
   <si>
-    <t>更新日期：2024.08.31</t>
+    <t>maa://36987, maa://40192, maa://39849</t>
+  </si>
+  <si>
+    <t>*maa://21476, *maa://37551, ***maa://39431</t>
+  </si>
+  <si>
+    <t>齐尔查克</t>
+  </si>
+  <si>
+    <t>艾丝黛尔</t>
+  </si>
+  <si>
+    <t>*maa://22763</t>
+  </si>
+  <si>
+    <t>**maa://32656</t>
+  </si>
+  <si>
+    <t>阿米娅(近卫)</t>
+  </si>
+  <si>
+    <t>莱欧斯</t>
+  </si>
+  <si>
+    <t>maa://41296</t>
+  </si>
+  <si>
+    <t>森西</t>
+  </si>
+  <si>
+    <t>maa://30587, *maa://29748, *maa://37566</t>
+  </si>
+  <si>
+    <t>寒芒克洛丝</t>
+  </si>
+  <si>
+    <t>maa://39643</t>
+  </si>
+  <si>
+    <t>maa://41108, maa://41238</t>
+  </si>
+  <si>
+    <t>玛露西尔</t>
+  </si>
+  <si>
+    <t>术师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安赛尔</t>
+  </si>
+  <si>
+    <t>**maa://32495, ***maa://36683</t>
+  </si>
+  <si>
+    <t>阿米娅(医疗)</t>
+  </si>
+  <si>
+    <t>*maa://21443, **maa://23820</t>
+  </si>
+  <si>
+    <t>maa://31215, *maa://24516, maa://26001</t>
+  </si>
+  <si>
+    <t>maa://25251, ***maa://39501, *maa://36675</t>
+  </si>
+  <si>
+    <t>麒麟R夜刀</t>
+  </si>
+  <si>
+    <t>更新日期：2024.09.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE71"/>
+  <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2176,2681 +2203,2699 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J2" s="1">
         <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R2" s="1">
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Z2" s="1">
         <v>2</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AD2" s="1">
         <v>3</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N3" s="1">
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="R3" s="1">
         <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="V3" s="1">
         <v>3</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Z3" s="1">
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AD3" s="1">
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R4" s="1">
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>326</v>
+        <v>575</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>326</v>
+        <v>576</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Z4" s="1">
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AD4" s="1">
         <v>2</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N5" s="1">
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="V5" s="1">
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Z5" s="1">
         <v>2</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>326</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Z6" s="1">
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AD6" s="1">
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>326</v>
+        <v>562</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>326</v>
+        <v>563</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="V7" s="1">
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Z7" s="1">
         <v>0</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AD7" s="1">
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N8" s="1">
         <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="V8" s="1">
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Z8" s="1">
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AD8" s="1">
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J9" s="1">
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R9" s="1">
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="V9" s="1">
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Z9" s="1">
         <v>5</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AD9" s="1">
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N10" s="1">
         <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="R10" s="1">
         <v>3</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="V10" s="1">
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Z10" s="1">
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AD10" s="1">
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="R11" s="1">
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="V11" s="1">
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Z11" s="1">
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AD11" s="1">
         <v>1</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="V12" s="1">
         <v>3</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Z12" s="1">
         <v>3</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AD12" s="1">
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N13" s="1">
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="V13" s="1">
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Z13" s="1">
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AD13" s="1">
         <v>3</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>381</v>
+        <v>564</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R14" s="1">
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="V14" s="1">
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Z14" s="1">
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N15" s="1">
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="V15" s="1">
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AD15" s="1">
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="R16" s="1">
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="V16" s="1">
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Z16" s="1">
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AD16" s="1">
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N17" s="1">
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J18" s="1">
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N18" s="1">
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R18" s="1">
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="V18" s="1">
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Z18" s="1">
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AD18" s="1">
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="V19" s="1">
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Z19" s="1">
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AD19" s="1">
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>326</v>
+        <v>140</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="V21" s="1">
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Z21" s="1">
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AD21" s="1">
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R22" s="1">
         <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="V22" s="1">
         <v>2</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Z22" s="1">
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AD22" s="1">
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N23" s="1">
         <v>3</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="R23" s="1">
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="V23" s="1">
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Z23" s="1">
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AD23" s="1">
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="V24" s="1">
         <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Z24" s="1">
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AD24" s="1">
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R25" s="1">
         <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="V25" s="1">
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Z25" s="1">
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AD25" s="1">
         <v>5</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N26" s="1">
         <v>2</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="V26" s="1">
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AD26" s="1">
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F27" s="1">
         <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AD27" s="1">
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="R28" s="1">
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V28" s="1">
         <v>1</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AD28" s="1">
         <v>2</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J29" s="1">
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N29" s="1">
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R29" s="1">
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AD29" s="1">
         <v>1</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R30" s="1">
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V30" s="1">
         <v>1</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J31" s="1">
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="R31" s="1">
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>353</v>
+        <v>577</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>324</v>
+        <v>581</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F32" s="1">
         <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>326</v>
+        <v>229</v>
+      </c>
+      <c r="R32" s="1">
+        <v>2</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>326</v>
+        <v>572</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AD32" s="1">
         <v>0</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N33" s="1">
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="R34" s="1">
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD34" s="1">
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>326</v>
+        <v>20</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>326</v>
+        <v>567</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AD35" s="1">
         <v>1</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E36" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>191</v>
+        <v>570</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="R36" s="1">
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N37" s="1">
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="R37" s="1">
         <v>1</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="E38" s="1" t="s">
-        <v>103</v>
+        <v>565</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R38" s="1">
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AD38" s="1">
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4858,83 +4903,92 @@
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="E39" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N39" s="1">
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="E40" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N40" s="1">
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4942,65 +4996,65 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="E41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N41" s="1">
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5008,31 +5062,31 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="E43" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
@@ -5040,65 +5094,65 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="E44" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R44" s="1">
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="E45" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N45" s="1">
         <v>1</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="R45" s="1">
         <v>1</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
@@ -5106,65 +5160,65 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="E46" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="E47" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
@@ -5172,47 +5226,56 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="E48" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="E49" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N49" s="1">
         <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -5220,271 +5283,282 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="E50" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E51" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E52" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E53" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F53" s="1">
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E56" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E57" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E59" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E63" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E66" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E67" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E69" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E71" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E72" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8765ACB-3FA2-4B6B-A654-AC75FCCDF968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C2D3B0-1C13-49D0-BE68-9CFAEA8993B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="3885" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="4155" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="580">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1034,10 +1034,6 @@
     <t>阿斯卡纶</t>
   </si>
   <si>
-    <t>2024.04.21更新：删除好评率20以下的作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*为好评率不高于80%,**为好评率不高于50%，***为好评率不高于30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1055,14 +1051,6 @@
   </si>
   <si>
     <t>PhonoR-0</t>
-  </si>
-  <si>
-    <t>2024.04.30更新：修复关卡名包含干员名时导致的搜素错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.05.11更新：再次换用stage_id进行搜索，保证唯一性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乌尔比安</t>
@@ -1864,9 +1852,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1875,6 +1860,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2159,7 +2147,7 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2236,7 +2224,7 @@
         <v>66</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -2280,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -2298,7 +2286,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>154</v>
@@ -2316,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>11</v>
@@ -2334,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>290</v>
@@ -2343,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2354,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>67</v>
@@ -2363,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>123</v>
@@ -2372,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>155</v>
@@ -2381,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>200</v>
@@ -2390,7 +2378,7 @@
         <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>239</v>
@@ -2399,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>264</v>
@@ -2408,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>291</v>
@@ -2417,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2428,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>68</v>
@@ -2464,16 +2452,16 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="V4" s="1">
         <v>2</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>265</v>
@@ -2482,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>292</v>
@@ -2491,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2502,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>69</v>
@@ -2520,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>157</v>
@@ -2529,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>202</v>
@@ -2547,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>266</v>
@@ -2556,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>293</v>
@@ -2585,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>126</v>
@@ -2594,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>158</v>
@@ -2603,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>203</v>
@@ -2612,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>241</v>
@@ -2630,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>294</v>
@@ -2639,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2650,16 +2638,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>127</v>
@@ -2668,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>159</v>
@@ -2677,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>204</v>
@@ -2686,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>242</v>
@@ -2695,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>268</v>
@@ -2713,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2724,7 +2712,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>71</v>
@@ -2733,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>128</v>
@@ -2751,7 +2739,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>205</v>
@@ -2769,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>269</v>
@@ -2778,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>296</v>
@@ -2787,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2798,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>72</v>
@@ -2816,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>161</v>
@@ -2825,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>206</v>
@@ -2834,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>244</v>
@@ -2843,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>270</v>
@@ -2852,7 +2840,7 @@
         <v>5</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>297</v>
@@ -2861,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2872,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>73</v>
@@ -2881,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>130</v>
@@ -2890,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>162</v>
@@ -2899,7 +2887,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>207</v>
@@ -2908,7 +2896,7 @@
         <v>3</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>245</v>
@@ -2917,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>271</v>
@@ -2926,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>298</v>
@@ -2935,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2946,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>74</v>
@@ -2964,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>163</v>
@@ -2982,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>246</v>
@@ -2991,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>272</v>
@@ -3000,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>299</v>
@@ -3009,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -3020,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>75</v>
@@ -3029,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>132</v>
@@ -3065,7 +3053,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>273</v>
@@ -3074,7 +3062,7 @@
         <v>3</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>300</v>
@@ -3083,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -3094,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>76</v>
@@ -3103,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>133</v>
@@ -3121,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>210</v>
@@ -3130,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>248</v>
@@ -3139,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>274</v>
@@ -3148,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>301</v>
@@ -3157,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3168,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>77</v>
@@ -3177,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>134</v>
@@ -3186,7 +3174,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>166</v>
@@ -3195,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>211</v>
@@ -3204,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>249</v>
@@ -3213,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>275</v>
@@ -3222,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>302</v>
@@ -3242,7 +3230,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>78</v>
@@ -3251,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>135</v>
@@ -3260,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>167</v>
@@ -3269,7 +3257,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>212</v>
@@ -3278,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>250</v>
@@ -3287,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>276</v>
@@ -3305,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3316,7 +3304,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>79</v>
@@ -3334,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>168</v>
@@ -3343,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>213</v>
@@ -3352,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>251</v>
@@ -3361,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>277</v>
@@ -3370,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>304</v>
@@ -3379,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3390,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>80</v>
@@ -3399,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>137</v>
@@ -3408,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>169</v>
@@ -3417,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>214</v>
@@ -3464,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>81</v>
@@ -3473,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>138</v>
@@ -3482,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>170</v>
@@ -3491,7 +3479,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>215</v>
@@ -3500,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>253</v>
@@ -3509,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>279</v>
@@ -3518,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>306</v>
@@ -3527,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3556,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>171</v>
@@ -3565,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>216</v>
@@ -3574,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>254</v>
@@ -3583,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>280</v>
@@ -3592,7 +3580,7 @@
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>307</v>
@@ -3601,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3612,7 +3600,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>83</v>
@@ -3621,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>140</v>
@@ -3639,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>217</v>
@@ -3648,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>255</v>
@@ -3686,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>84</v>
@@ -3695,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>141</v>
@@ -3704,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>173</v>
@@ -3713,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>218</v>
@@ -3722,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>256</v>
@@ -3731,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>282</v>
@@ -3740,7 +3728,7 @@
         <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>309</v>
@@ -3749,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3769,7 +3757,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>142</v>
@@ -3778,7 +3766,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>174</v>
@@ -3796,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>257</v>
@@ -3805,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>283</v>
@@ -3814,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>310</v>
@@ -3823,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3834,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>86</v>
@@ -3852,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>175</v>
@@ -3861,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>220</v>
@@ -3870,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>258</v>
@@ -3879,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>284</v>
@@ -3888,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>311</v>
@@ -3897,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3908,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>87</v>
@@ -3953,7 +3941,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>285</v>
@@ -3962,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>312</v>
@@ -3971,7 +3959,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3982,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>88</v>
@@ -3991,7 +3979,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>145</v>
@@ -4000,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>177</v>
@@ -4009,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>222</v>
@@ -4018,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>260</v>
@@ -4027,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>286</v>
@@ -4036,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>313</v>
@@ -4045,7 +4033,7 @@
         <v>5</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -4065,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>146</v>
@@ -4083,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>223</v>
@@ -4101,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>287</v>
@@ -4119,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4139,7 +4127,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>147</v>
@@ -4148,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>179</v>
@@ -4166,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>262</v>
@@ -4193,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4204,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>91</v>
@@ -4222,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>180</v>
@@ -4240,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>17</v>
@@ -4249,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>289</v>
@@ -4267,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4278,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>92</v>
@@ -4287,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>149</v>
@@ -4296,7 +4284,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>181</v>
@@ -4305,7 +4293,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>226</v>
@@ -4314,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>22</v>
@@ -4341,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4361,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>150</v>
@@ -4370,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>182</v>
@@ -4379,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>227</v>
@@ -4388,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>30</v>
@@ -4397,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>29</v>
@@ -4435,7 +4423,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>151</v>
@@ -4444,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>183</v>
@@ -4462,10 +4450,10 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>320</v>
@@ -4483,7 +4471,7 @@
         <v>320</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AD31" s="1" t="s">
         <v>320</v>
@@ -4494,7 +4482,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>320</v>
@@ -4509,7 +4497,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>152</v>
@@ -4518,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>184</v>
@@ -4527,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>229</v>
@@ -4536,10 +4524,10 @@
         <v>2</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>320</v>
@@ -4548,7 +4536,7 @@
         <v>320</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>320</v>
@@ -4568,7 +4556,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>320</v>
@@ -4583,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>153</v>
@@ -4592,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>185</v>
@@ -4601,7 +4589,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>230</v>
@@ -4613,7 +4601,7 @@
         <v>65</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>320</v>
@@ -4633,7 +4621,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>320</v>
@@ -4675,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>320</v>
@@ -4693,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4713,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>187</v>
@@ -4731,10 +4719,10 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>320</v>
@@ -4749,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -4760,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>26</v>
@@ -4772,7 +4760,7 @@
         <v>320</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>320</v>
@@ -4787,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>328</v>
@@ -4807,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>38</v>
@@ -4825,7 +4813,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>234</v>
@@ -4834,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>329</v>
@@ -4847,13 +4835,13 @@
       </c>
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="E38" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>320</v>
@@ -4868,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>189</v>
@@ -4877,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>235</v>
@@ -4886,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>330</v>
@@ -4895,13 +4883,13 @@
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="E39" s="1" t="s">
         <v>101</v>
       </c>
@@ -4909,10 +4897,10 @@
         <v>3</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>320</v>
@@ -4927,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>236</v>
@@ -4939,7 +4927,7 @@
         <v>320</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AD39" s="1" t="s">
         <v>320</v>
@@ -4949,11 +4937,11 @@
       </c>
     </row>
     <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="E40" s="1" t="s">
         <v>102</v>
       </c>
@@ -4964,7 +4952,7 @@
         <v>320</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>320</v>
@@ -4979,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>237</v>
@@ -4992,9 +4980,9 @@
       </c>
     </row>
     <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="E41" s="1" t="s">
         <v>103</v>
       </c>
@@ -5002,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>192</v>
@@ -5011,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>238</v>
@@ -5024,11 +5012,11 @@
       </c>
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="E42" s="1" t="s">
         <v>104</v>
       </c>
@@ -5058,9 +5046,9 @@
       </c>
     </row>
     <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="E43" s="1" t="s">
         <v>105</v>
       </c>
@@ -5068,7 +5056,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>194</v>
@@ -5090,9 +5078,9 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="E44" s="1" t="s">
         <v>106</v>
       </c>
@@ -5100,7 +5088,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>195</v>
@@ -5118,15 +5106,13 @@
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="E45" s="1" t="s">
         <v>107</v>
       </c>
@@ -5134,7 +5120,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>196</v>
@@ -5143,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>326</v>
@@ -5152,13 +5138,13 @@
         <v>1</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="E46" s="1" t="s">
         <v>108</v>
       </c>
@@ -5166,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>197</v>
@@ -5178,7 +5164,7 @@
         <v>65</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>320</v>
@@ -5187,12 +5173,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+    <row r="47" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="E47" s="1" t="s">
         <v>109</v>
       </c>
@@ -5200,7 +5184,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>198</v>
@@ -5212,7 +5196,7 @@
         <v>320</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>320</v>
@@ -5222,9 +5206,9 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="E48" s="1" t="s">
         <v>110</v>
       </c>
@@ -5244,7 +5228,7 @@
         <v>65</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>320</v>
@@ -5253,12 +5237,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="E49" s="1" t="s">
         <v>111</v>
       </c>
@@ -5275,13 +5257,13 @@
         <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="E50" s="1" t="s">
         <v>112</v>
       </c>
@@ -5309,10 +5291,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>320</v>
@@ -5329,10 +5311,10 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>320</v>
@@ -5349,7 +5331,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5371,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5393,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5404,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -5415,7 +5397,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5426,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -5530,7 +5512,7 @@
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>320</v>
@@ -5541,7 +5523,7 @@
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E71" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>320</v>
@@ -5552,7 +5534,7 @@
     </row>
     <row r="72" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E72" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>320</v>
@@ -5562,13 +5544,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="A47:C48"/>
+  <mergeCells count="3">
     <mergeCell ref="A38:C39"/>
     <mergeCell ref="A40:C41"/>
     <mergeCell ref="A42:C44"/>
-    <mergeCell ref="A45:C46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1556,7 +1556,7 @@
       </c>
       <c r="AA9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, **maa://27377, ***maa://25174, *maa://39938, maa://40166</t>
+          <t>maa://28711, **maa://27377, ***maa://25174, **maa://39938, maa://40166</t>
         </is>
       </c>
       <c r="AC9" s="4" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>maa://22753, *maa://21485, *maa://37962</t>
+          <t>maa://22753, *maa://21485, maa://37962</t>
         </is>
       </c>
       <c r="Y12" s="4" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>maa://21917, *maa://22741</t>
+          <t>maa://21917, maa://22741</t>
         </is>
       </c>
       <c r="Y18" s="4" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AA21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443, **maa://23820</t>
+          <t>*maa://21443, ***maa://23820</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926, *maa://36258</t>
+          <t>maa://35926, maa://36258</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1583,12 +1583,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://39243</t>
+          <t>**maa://32237, ***maa://39951, ***maa://39243</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036</t>
+          <t>***maa://28036, maa://41753</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929</t>
+          <t>maa://39929, maa://41749</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>maa://22430, *maa://39599</t>
+          <t>maa://22430, maa://39599</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -3538,11 +3538,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C26" s="2" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
           <t>宴</t>
@@ -3859,7 +3855,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929, maa://41749</t>
+          <t>maa://39929, **maa://41749</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1556,7 +1556,7 @@
       </c>
       <c r="AA9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, **maa://27377, ***maa://25174, **maa://39938, maa://40166</t>
+          <t>maa://28711, **maa://27377, ***maa://25174, *maa://39938, maa://40166</t>
         </is>
       </c>
       <c r="AC9" s="4" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929, **maa://41749</t>
+          <t>maa://39929, *maa://41749</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1583,12 +1583,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://39951, ***maa://39243</t>
+          <t>**maa://32237, ***maa://39243</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>*maa://21624</t>
+          <t>maa://21624</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
@@ -3535,10 +3535,14 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>maa://41802</t>
+        </is>
+      </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
           <t>宴</t>
@@ -5722,7 +5726,7 @@
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>*maa://40438</t>
+          <t>**maa://40438</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -712,12 +712,12 @@
       </c>
       <c r="AD2" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251, ***maa://39501, *maa://36675</t>
+          <t>maa://25251, *maa://36675</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://39243</t>
+          <t>**maa://32237, **maa://39243</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AA21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443, ***maa://23820</t>
+          <t>*maa://21443, **maa://23820</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>maa://39929, *maa://41749</t>
+          <t>maa://39929, maa://41749</t>
         </is>
       </c>
       <c r="Y28" s="4" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>***maa://39354</t>
+          <t>**maa://39354</t>
         </is>
       </c>
       <c r="AC37" s="4" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>maa://39643</t>
+          <t>*maa://39643</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1583,12 +1583,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, **maa://39243</t>
+          <t>**maa://32237, ***maa://39951, **maa://39243</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF72"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -1583,12 +1583,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, **maa://39243</t>
+          <t>**maa://32237, ***maa://39951, **maa://39243</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -2497,12 +2497,12 @@
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="U17" s="4" t="inlineStr">
@@ -3625,12 +3625,12 @@
       </c>
       <c r="Z26" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA26" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -4710,12 +4710,12 @@
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M36" s="4" t="inlineStr">
@@ -4746,6 +4746,21 @@
       <c r="S36" s="2" t="inlineStr">
         <is>
           <t>maa://27613</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>凯瑟琳</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="AC36" s="4" t="inlineStr">
@@ -4823,6 +4838,21 @@
       <c r="S37" s="2" t="inlineStr">
         <is>
           <t>**maa://39354</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>波卜</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="AC37" s="4" t="inlineStr">
@@ -5929,6 +5959,23 @@
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>维娜·维多利亚</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -715,12 +715,12 @@
       </c>
       <c r="AD2" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE2" s="5" t="inlineStr">
         <is>
-          <t>maa://25251, *maa://36675</t>
+          <t>maa://25251, ***maa://39501, *maa://36675</t>
         </is>
       </c>
     </row>
@@ -1098,12 +1098,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>**maa://42407</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>*maa://21476, ***maa://39431, *maa://37551</t>
+          <t>*maa://21476, **maa://39431, *maa://37551</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>maa://22762, **maa://39552</t>
+          <t>maa://22762, *maa://39552</t>
         </is>
       </c>
       <c r="M9" s="4" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://23504, maa://29988, **maa://22892, *maa://25141, *maa://36663, ***maa://22815</t>
+          <t>maa://23504, maa://29988, **maa://22892, *maa://25141, maa://36663, ***maa://22815</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>***maa://42235</t>
+          <t>*maa://42235</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -4374,11 +4374,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AE32" s="5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AE32" s="5" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>**maa://42407</t>
+          <t>*maa://42407</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://39951, **maa://39243</t>
+          <t>**maa://32237, **maa://39243</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="R14" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S14" s="5" t="inlineStr">
         <is>
-          <t>*maa://22471, maa://22521</t>
+          <t>maa://22521</t>
         </is>
       </c>
       <c r="U14" s="4" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>***maa://28036, maa://41753</t>
+          <t>***maa://28036, *maa://41753</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>**maa://21283, maa://34494, **maa://36665, maa://39601</t>
+          <t>**maa://21283, maa://34494, **maa://36665, *maa://39601</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
@@ -4371,10 +4371,14 @@
       </c>
       <c r="AD32" s="4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE32" s="5" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE32" s="5" t="inlineStr">
+        <is>
+          <t>maa://42408</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>maa://22430, maa://39599</t>
+          <t>maa://22430, *maa://39599</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">
@@ -2500,10 +2500,14 @@
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" s="5" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>**maa://42324</t>
+        </is>
+      </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
           <t>亚叶</t>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>*maa://42407</t>
+          <t>maa://42407</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="S45" s="5" t="inlineStr">
         <is>
-          <t>*maa://39364</t>
+          <t>**maa://39364</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>maa://22430, *maa://39599</t>
+          <t>maa://22430, maa://39599</t>
         </is>
       </c>
       <c r="I17" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1325,12 +1325,12 @@
       </c>
       <c r="AD7" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE7" s="5" t="inlineStr">
         <is>
-          <t>*maa://26191, *maa://36671</t>
+          <t>*maa://26191, *maa://36671, maa://42530</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -2505,7 +2505,7 @@
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>**maa://42324</t>
+          <t>***maa://42324</t>
         </is>
       </c>
       <c r="U17" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -3374,7 +3374,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://23504, maa://29988, **maa://22892, *maa://25141, maa://36663, ***maa://22815</t>
+          <t>maa://29988, maa://23504, **maa://22892, *maa://25141, maa://36663, ***maa://22815</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -2134,12 +2134,12 @@
       </c>
       <c r="R14" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S14" s="5" t="inlineStr">
         <is>
-          <t>maa://22521</t>
+          <t>maa://22521, maa://42751</t>
         </is>
       </c>
       <c r="U14" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -3633,7 +3633,7 @@
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>*maa://42235</t>
+          <t>maa://42235</t>
         </is>
       </c>
       <c r="AC26" s="4" t="inlineStr">
@@ -5304,12 +5304,12 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
-          <t>maa://21229, maa://30807, *maa://22767</t>
+          <t>maa://21229, maa://30807, *maa://22767, maa://42459</t>
         </is>
       </c>
       <c r="M45" s="4" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -715,12 +715,12 @@
       </c>
       <c r="AD2" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE2" s="5" t="inlineStr">
         <is>
-          <t>maa://25251, ***maa://39501, *maa://36675</t>
+          <t>maa://25251, *maa://36675</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
         <is>
-          <t>**maa://32495, ***maa://36683</t>
+          <t>**maa://32495, ***maa://31785, ***maa://36683</t>
         </is>
       </c>
       <c r="Y4" s="4" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>maa://22757</t>
+          <t>*maa://22757</t>
         </is>
       </c>
       <c r="M5" s="4" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="S6" s="5" t="inlineStr">
         <is>
-          <t>*maa://37411</t>
+          <t>maa://37411</t>
         </is>
       </c>
       <c r="U6" s="4" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="AE7" s="5" t="inlineStr">
         <is>
-          <t>*maa://26191, *maa://36671, maa://42530</t>
+          <t>*maa://26191, *maa://36671, *maa://42530</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>maa://22762, *maa://39552</t>
+          <t>maa://22762, maa://39552</t>
         </is>
       </c>
       <c r="M9" s="4" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>maa://22729, *maa://28648, *maa://36674</t>
+          <t>maa://22729, *maa://28648, maa://36674</t>
         </is>
       </c>
       <c r="U16" s="4" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>***maa://42324</t>
+          <t>**maa://42324</t>
         </is>
       </c>
       <c r="U17" s="4" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>maa://21432, maa://25198, **maa://20795, maa://36680</t>
+          <t>maa://21432, maa://25198, *maa://20795, maa://36680</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="AA21" s="5" t="inlineStr">
         <is>
-          <t>*maa://21443, **maa://23820</t>
+          <t>*maa://21443, ***maa://23820</t>
         </is>
       </c>
       <c r="AC21" s="4" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>maa://29988, maa://23504, **maa://22892, *maa://25141, maa://36663, ***maa://22815</t>
+          <t>maa://29988, maa://23504, **maa://22892, *maa://25141, *maa://36663, ***maa://22815</t>
         </is>
       </c>
       <c r="Y24" s="4" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>**maa://21283, maa://34494, **maa://36665, *maa://39601</t>
+          <t>**maa://21283, maa://34494, *maa://39601, **maa://36665</t>
         </is>
       </c>
       <c r="I27" s="4" t="inlineStr">
@@ -4009,12 +4009,12 @@
       </c>
       <c r="AD29" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE29" s="5" t="inlineStr">
         <is>
-          <t>*maa://24080</t>
+          <t>*maa://24080, maa://42865</t>
         </is>
       </c>
     </row>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="Z30" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA30" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://42979</t>
         </is>
       </c>
       <c r="AC30" s="4" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="K31" s="5" t="inlineStr">
         <is>
-          <t>maa://35926, maa://36258</t>
+          <t>maa://35926, *maa://36258</t>
         </is>
       </c>
       <c r="M31" s="4" t="inlineStr">
@@ -4330,12 +4330,12 @@
       </c>
       <c r="R32" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S32" s="5" t="inlineStr">
         <is>
-          <t>maa://41108, maa://41238</t>
+          <t>maa://41108, maa://41238, maa://42859</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -4599,6 +4599,21 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>忍冬</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
           <t>史尔特尔</t>
@@ -5099,6 +5114,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>云迹</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="E41" s="4" t="inlineStr">
@@ -5116,6 +5146,21 @@
           <t>maa://24466</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>菲莱</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
           <t>铅踝</t>
@@ -5144,6 +5189,21 @@
       <c r="S41" s="5" t="inlineStr">
         <is>
           <t>None</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>裁度</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5198,6 +5258,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>弑君者</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="E43" s="4" t="inlineStr">
@@ -5222,12 +5297,12 @@
       </c>
       <c r="N43" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O43" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q43" s="4" t="inlineStr">
@@ -5237,12 +5312,12 @@
       </c>
       <c r="R43" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S43" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5527,6 +5602,21 @@
           <t>*maa://39643</t>
         </is>
       </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>荒芜拉普兰德</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="n"/>
@@ -5788,12 +5878,12 @@
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G62" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://42981</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11490" yWindow="4320" windowWidth="23925" windowHeight="16665" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9930" yWindow="3165" windowWidth="23925" windowHeight="16665" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -68,31 +68,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,5648 +461,6024 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AG73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="9.5" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="19.75" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.5" customWidth="1" style="5" min="4" max="4"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="32.75" customWidth="1" style="5" min="7" max="7"/>
-    <col width="11.375" customWidth="1" style="5" min="8" max="8"/>
-    <col width="9.375" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
-    <col width="32.375" customWidth="1" style="5" min="11" max="11"/>
-    <col width="17.375" customWidth="1" style="5" min="12" max="12"/>
-    <col width="16.125" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
-    <col width="22.125" customWidth="1" style="5" min="15" max="15"/>
-    <col width="13.375" customWidth="1" style="5" min="16" max="16"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="4" min="17" max="17"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="18" max="18"/>
-    <col width="29" customWidth="1" style="5" min="19" max="19"/>
-    <col width="16.25" customWidth="1" style="5" min="20" max="20"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="4" min="21" max="21"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="22" max="22"/>
-    <col width="29.125" customWidth="1" style="5" min="23" max="23"/>
-    <col width="11.5" customWidth="1" style="5" min="24" max="24"/>
-    <col width="11.625" bestFit="1" customWidth="1" style="4" min="25" max="25"/>
-    <col width="5.5" bestFit="1" customWidth="1" style="4" min="26" max="26"/>
-    <col width="35.375" customWidth="1" style="5" min="27" max="27"/>
-    <col width="13" customWidth="1" style="5" min="28" max="28"/>
-    <col width="13.875" bestFit="1" customWidth="1" style="4" min="29" max="29"/>
-    <col width="5.5" customWidth="1" style="4" min="30" max="30"/>
-    <col width="26.75" customWidth="1" style="5" min="31" max="31"/>
-    <col width="9" customWidth="1" style="4" min="32" max="32"/>
-    <col width="9" customWidth="1" style="4" min="33" max="16384"/>
+    <col width="26.25" customWidth="1" style="1" min="1" max="1"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="19.75" customWidth="1" style="2" min="4" max="4"/>
+    <col width="10.5" customWidth="1" style="2" min="5" max="5"/>
+    <col width="11.625" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
+    <col width="32.75" customWidth="1" style="2" min="8" max="8"/>
+    <col width="11.375" customWidth="1" style="2" min="9" max="9"/>
+    <col width="9.375" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="32.375" customWidth="1" style="2" min="12" max="12"/>
+    <col width="17.375" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.125" bestFit="1" customWidth="1" style="1" min="14" max="14"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="15" max="15"/>
+    <col width="22.125" customWidth="1" style="2" min="16" max="16"/>
+    <col width="13.375" customWidth="1" style="2" min="17" max="17"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="1" min="18" max="18"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="19" max="19"/>
+    <col width="29" customWidth="1" style="2" min="20" max="20"/>
+    <col width="16.25" customWidth="1" style="2" min="21" max="21"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="1" min="22" max="22"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="23" max="23"/>
+    <col width="29.125" customWidth="1" style="2" min="24" max="24"/>
+    <col width="11.5" customWidth="1" style="2" min="25" max="25"/>
+    <col width="11.625" bestFit="1" customWidth="1" style="1" min="26" max="26"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="1" min="27" max="27"/>
+    <col width="35.375" customWidth="1" style="2" min="28" max="28"/>
+    <col width="13" customWidth="1" style="2" min="29" max="29"/>
+    <col width="13.875" bestFit="1" customWidth="1" style="1" min="30" max="30"/>
+    <col width="5.5" customWidth="1" style="1" min="31" max="31"/>
+    <col width="26.75" customWidth="1" style="2" min="32" max="32"/>
+    <col width="9" customWidth="1" style="1" min="33" max="34"/>
+    <col width="9" customWidth="1" style="1" min="35" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
+          <t>*为好评率不高于80%,**为好评率不高于50%，***为好评率不高于30%</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>先锋</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>近卫</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>重装</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>狙击</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>术师</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="S1" s="5" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>医疗</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="W1" s="5" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>辅助</t>
         </is>
       </c>
-      <c r="Z1" s="4" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="AA1" s="5" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="AC1" s="4" t="inlineStr">
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>特种</t>
         </is>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>有无</t>
         </is>
       </c>
-      <c r="AE1" s="5" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="AG1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>夜刀</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>maa://24702, maa://25390, maa://36681</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Castle-3</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>黑角</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>*maa://24633, *maa://30515, *maa://34787, maa://39402, ***maa://29083</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>巡林者</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>杜林</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>maa://22742, *maa://20791</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="1" t="n"/>
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>Lancet-2</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W2" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>梓兰</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA2" s="5" t="inlineStr">
+      <c r="AB2" s="2" t="inlineStr">
         <is>
           <t>maa://21246, maa://36684</t>
         </is>
       </c>
-      <c r="AC2" s="4" t="inlineStr">
+      <c r="AC2" s="1" t="n"/>
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>砾</t>
         </is>
       </c>
-      <c r="AD2" s="4" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE2" s="5" t="inlineStr">
+      <c r="AF2" s="2" t="inlineStr">
         <is>
           <t>maa://25251, *maa://36675</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="AG2" s="1" t="n"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>芬</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>maa://36987, maa://40192, maa://39849</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>玫兰莎</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>maa://21247, *maa://22748</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>卡缇</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>*maa://22880, maa://20276, *maa://22749</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>克洛丝</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="P3" s="2" t="inlineStr">
         <is>
           <t>maa://21249, maa://26254</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="inlineStr">
         <is>
           <t>12F</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="S3" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="T3" s="2" t="inlineStr">
         <is>
           <t>maa://24617, **maa://20790, ***maa://37170</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="inlineStr">
         <is>
           <t>芙蓉</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="W3" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="X3" s="2" t="inlineStr">
         <is>
           <t>maa://27396, maa://27484, maa://27480</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="inlineStr">
         <is>
           <t>深海色</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA3" s="5" t="inlineStr">
+      <c r="AA3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB3" s="2" t="inlineStr">
         <is>
           <t>maa://24390</t>
         </is>
       </c>
-      <c r="AC3" s="4" t="inlineStr">
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="inlineStr">
         <is>
           <t>暗索</t>
         </is>
       </c>
-      <c r="AD3" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE3" s="5" t="inlineStr">
+      <c r="AE3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF3" s="2" t="inlineStr">
         <is>
           <t>*maa://21289</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="AG3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>香草</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>maa://24632, **maa://24303, maa://22499, maa://22746</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>杜宾</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="inlineStr">
         <is>
           <t>米格鲁</t>
         </is>
       </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="inlineStr">
         <is>
           <t>安德切尔</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="inlineStr">
         <is>
           <t>炎熔</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="S4" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
         <is>
           <t>maa://32509, maa://22754, maa://27295, *maa://21746, *maa://31008</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="inlineStr">
         <is>
           <t>安赛尔</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="W4" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
+      <c r="X4" s="2" t="inlineStr">
         <is>
           <t>**maa://32495, ***maa://31785, ***maa://36683</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="inlineStr">
         <is>
           <t>地灵</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA4" s="5" t="inlineStr">
+      <c r="AA4" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB4" s="2" t="inlineStr">
         <is>
           <t>*maa://32658</t>
         </is>
       </c>
-      <c r="AC4" s="4" t="inlineStr">
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="1" t="inlineStr">
         <is>
           <t>阿消</t>
         </is>
       </c>
-      <c r="AD4" s="4" t="inlineStr">
+      <c r="AE4" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE4" s="5" t="inlineStr">
+      <c r="AF4" s="2" t="inlineStr">
         <is>
           <t>*maa://30062, *maa://39394</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="AG4" s="1" t="n"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "-" 为该干员没有悖论模拟</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>翎羽</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>maa://21245, maa://22744</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>缠丸</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>角峰</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>*maa://22757</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>杰西卡</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="P5" s="2" t="inlineStr">
         <is>
           <t>maa://21919, maa://21281</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="inlineStr">
         <is>
           <t>史都华德</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U5" s="1" t="n"/>
+      <c r="V5" s="1" t="inlineStr">
         <is>
           <t>末药</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="W5" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X5" s="2" t="inlineStr">
         <is>
           <t>maa://21290</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="1" t="inlineStr">
         <is>
           <t>梅尔</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="AA5" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA5" s="5" t="inlineStr">
+      <c r="AB5" s="2" t="inlineStr">
         <is>
           <t>*maa://29863, **maa://26013</t>
         </is>
       </c>
-      <c r="AC5" s="4" t="inlineStr">
+      <c r="AC5" s="1" t="n"/>
+      <c r="AD5" s="1" t="inlineStr">
         <is>
           <t>红</t>
         </is>
       </c>
-      <c r="AD5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE5" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="AE5" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG5" s="1" t="n"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>讯使</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>maa://42407</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>霜叶</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>maa://24370</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>蛇屠箱</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>maa://24839</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="inlineStr">
         <is>
           <t>流星</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="O6" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
         <is>
           <t>maa://31836, maa://30381</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="inlineStr">
         <is>
           <t>夜烟</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
         <is>
           <t>maa://37411</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="1" t="n"/>
+      <c r="V6" s="1" t="inlineStr">
         <is>
           <t>嘉维尔</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="W6" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X6" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="1" t="inlineStr">
         <is>
           <t>初雪</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA6" s="5" t="inlineStr">
+      <c r="AA6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB6" s="2" t="inlineStr">
         <is>
           <t>maa://22739</t>
         </is>
       </c>
-      <c r="AC6" s="4" t="inlineStr">
+      <c r="AC6" s="1" t="n"/>
+      <c r="AD6" s="1" t="inlineStr">
         <is>
           <t>崖心</t>
         </is>
       </c>
-      <c r="AD6" s="4" t="inlineStr">
+      <c r="AE6" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE6" s="5" t="inlineStr">
+      <c r="AF6" s="2" t="inlineStr">
         <is>
           <t>*maa://33152, ***maa://22770</t>
         </is>
       </c>
+      <c r="AG6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>清道夫</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>maa://21955</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>艾丝黛尔</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>*maa://22763</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="inlineStr">
         <is>
           <t>古米</t>
         </is>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="K7" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>maa://28624, maa://24957</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="inlineStr">
         <is>
           <t>白雪</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
         <is>
           <t>maa://22750</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="inlineStr">
         <is>
           <t>远山</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
         <is>
           <t>maa://21291</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="inlineStr">
         <is>
           <t>调香师</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="W7" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" s="5" t="inlineStr">
+      <c r="X7" s="2" t="inlineStr">
         <is>
           <t>maa://22399, *maa://22758</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="1" t="inlineStr">
         <is>
           <t>真理</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="AA7" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AA7" s="5" t="inlineStr">
+      <c r="AB7" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="AC7" s="4" t="inlineStr">
+      <c r="AC7" s="1" t="n"/>
+      <c r="AD7" s="1" t="inlineStr">
         <is>
           <t>狮蝎</t>
         </is>
       </c>
-      <c r="AD7" s="4" t="inlineStr">
+      <c r="AE7" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE7" s="5" t="inlineStr">
+      <c r="AF7" s="2" t="inlineStr">
         <is>
           <t>*maa://26191, *maa://36671, *maa://42530</t>
         </is>
       </c>
+      <c r="AG7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>更新日期：2024.11.02 22:43:40</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>红豆</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>*maa://21476, **maa://39431, *maa://37551</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>慕斯</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>*maa://24371</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="inlineStr">
         <is>
           <t>临光</t>
         </is>
       </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="n"/>
+      <c r="N8" s="1" t="inlineStr">
         <is>
           <t>蓝毒</t>
         </is>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="O8" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>maa://32931, *maa://21916, maa://23252, **maa://22759, maa://37496</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="1" t="inlineStr">
         <is>
           <t>阿米娅</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U8" s="1" t="n"/>
+      <c r="V8" s="1" t="inlineStr">
         <is>
           <t>白面鸮</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W8" s="5" t="inlineStr">
+      <c r="W8" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X8" s="2" t="inlineStr">
         <is>
           <t>maa://21411</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="1" t="inlineStr">
         <is>
           <t>空</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA8" s="5" t="inlineStr">
+      <c r="AA8" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB8" s="2" t="inlineStr">
         <is>
           <t>maa://25389</t>
         </is>
       </c>
-      <c r="AC8" s="4" t="inlineStr">
+      <c r="AC8" s="1" t="n"/>
+      <c r="AD8" s="1" t="inlineStr">
         <is>
           <t>食铁兽</t>
         </is>
       </c>
-      <c r="AD8" s="4" t="inlineStr">
+      <c r="AE8" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE8" s="5" t="inlineStr">
+      <c r="AF8" s="2" t="inlineStr">
         <is>
           <t>*maa://24479, *maa://21990</t>
         </is>
       </c>
+      <c r="AG8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>凛冬</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>maa://22765, *maa://21915</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>芙兰卡</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="inlineStr">
         <is>
           <t>雷蛇</t>
         </is>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="K9" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K9" s="5" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>maa://22762, maa://39552</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="1" t="n"/>
+      <c r="N9" s="1" t="inlineStr">
         <is>
           <t>白金</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>maa://22736</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="1" t="inlineStr">
         <is>
           <t>天火</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="S9" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>**maa://22866, maa://26222</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="U9" s="1" t="n"/>
+      <c r="V9" s="1" t="inlineStr">
         <is>
           <t>赫默</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W9" s="5" t="inlineStr">
+      <c r="W9" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X9" s="2" t="inlineStr">
         <is>
           <t>maa://26223</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="1" t="inlineStr">
         <is>
           <t>安洁莉娜</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="inlineStr">
+      <c r="AA9" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AA9" s="5" t="inlineStr">
+      <c r="AB9" s="2" t="inlineStr">
         <is>
           <t>maa://28711, **maa://27377, ***maa://25174, **maa://39938, maa://40166</t>
         </is>
       </c>
-      <c r="AC9" s="4" t="inlineStr">
+      <c r="AC9" s="1" t="n"/>
+      <c r="AD9" s="1" t="inlineStr">
         <is>
           <t>伊桑</t>
         </is>
       </c>
-      <c r="AD9" s="4" t="inlineStr">
+      <c r="AE9" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE9" s="5" t="inlineStr">
+      <c r="AF9" s="2" t="inlineStr">
         <is>
           <t>maa://26206, **maa://22865</t>
         </is>
       </c>
+      <c r="AG9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>德克萨斯</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>**maa://32237, **maa://39243</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>因陀罗</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>maa://32651</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="inlineStr">
         <is>
           <t>可颂</t>
         </is>
       </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>**maa://24395</t>
         </is>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="inlineStr">
         <is>
           <t>陨星</t>
         </is>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="O10" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>maa://28977, *maa://23264, maa://36669</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="inlineStr">
         <is>
           <t>伊芙利特</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="S10" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="T10" s="2" t="inlineStr">
         <is>
           <t>maa://27395, maa://22755, **maa://22756</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="inlineStr">
         <is>
           <t>华法琳</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="W10" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W10" s="5" t="inlineStr">
+      <c r="X10" s="2" t="inlineStr">
         <is>
           <t>maa://22301, maa://22726</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="1" t="inlineStr">
         <is>
           <t>格劳克斯</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA10" s="5" t="inlineStr">
+      <c r="AA10" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB10" s="2" t="inlineStr">
         <is>
           <t>maa://24391</t>
         </is>
       </c>
-      <c r="AC10" s="4" t="inlineStr">
+      <c r="AC10" s="1" t="n"/>
+      <c r="AD10" s="1" t="inlineStr">
         <is>
           <t>槐琥</t>
         </is>
       </c>
-      <c r="AD10" s="4" t="inlineStr">
+      <c r="AE10" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE10" s="5" t="inlineStr">
+      <c r="AF10" s="2" t="inlineStr">
         <is>
           <t>*maa://25021, *maa://22733, maa://22761</t>
         </is>
       </c>
+      <c r="AG10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>推进之王</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>maa://36707</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>拉普兰德</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="inlineStr">
         <is>
           <t>火神</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>maa://21287</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="M11" s="1" t="n"/>
+      <c r="N11" s="1" t="inlineStr">
         <is>
           <t>普罗旺斯</t>
         </is>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="O11" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="1" t="inlineStr">
         <is>
           <t>艾雅法拉</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="S11" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="T11" s="2" t="inlineStr">
         <is>
           <t>maa://22747, maa://22501</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="U11" s="1" t="n"/>
+      <c r="V11" s="1" t="inlineStr">
         <is>
           <t>闪灵</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W11" s="5" t="inlineStr">
+      <c r="W11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X11" s="2" t="inlineStr">
         <is>
           <t>maa://36713</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="1" t="inlineStr">
         <is>
           <t>麦哲伦</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr">
+      <c r="AA11" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA11" s="5" t="inlineStr">
+      <c r="AB11" s="2" t="inlineStr">
         <is>
           <t>maa://22516, maa://29912, *maa://20794</t>
         </is>
       </c>
-      <c r="AC11" s="4" t="inlineStr">
+      <c r="AC11" s="1" t="n"/>
+      <c r="AD11" s="1" t="inlineStr">
         <is>
           <t>雪雉</t>
         </is>
       </c>
-      <c r="AD11" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE11" s="5" t="inlineStr">
+      <c r="AE11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF11" s="2" t="inlineStr">
         <is>
           <t>maa://31203</t>
         </is>
       </c>
+      <c r="AG11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>格拉尼</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>maa://30766, **maa://36678</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="inlineStr">
         <is>
           <t>幽灵鲨</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>maa://21867</t>
         </is>
       </c>
-      <c r="I12" s="4" t="inlineStr">
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="inlineStr">
         <is>
           <t>星熊</t>
         </is>
       </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="n"/>
+      <c r="N12" s="1" t="inlineStr">
         <is>
           <t>守林人</t>
         </is>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="O12" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O12" s="5" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="1" t="inlineStr">
         <is>
           <t>夜魔</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U12" s="4" t="inlineStr">
+      <c r="S12" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U12" s="1" t="n"/>
+      <c r="V12" s="1" t="inlineStr">
         <is>
           <t>夜莺</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="W12" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W12" s="5" t="inlineStr">
+      <c r="X12" s="2" t="inlineStr">
         <is>
           <t>maa://22753, *maa://21485, maa://37962</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="1" t="inlineStr">
         <is>
           <t>巫恋</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="inlineStr">
+      <c r="AA12" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA12" s="5" t="inlineStr">
+      <c r="AB12" s="2" t="inlineStr">
         <is>
           <t>maa://23669, maa://36677, maa://39872</t>
         </is>
       </c>
-      <c r="AC12" s="4" t="inlineStr">
+      <c r="AC12" s="1" t="n"/>
+      <c r="AD12" s="1" t="inlineStr">
         <is>
           <t>阿</t>
         </is>
       </c>
-      <c r="AD12" s="4" t="inlineStr">
+      <c r="AE12" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE12" s="5" t="inlineStr">
+      <c r="AF12" s="2" t="inlineStr">
         <is>
           <t>*maa://28932, *maa://20106, *maa://22769</t>
         </is>
       </c>
+      <c r="AG12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>桃金娘</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>maa://24999, maa://36673, maa://25001</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="inlineStr">
         <is>
           <t>银灰</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>*maa://21248, **maa://22728</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="inlineStr">
         <is>
           <t>塞雷娅</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="n"/>
+      <c r="N13" s="1" t="inlineStr">
         <is>
           <t>能天使</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="O13" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O13" s="5" t="inlineStr">
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>maa://22676, *maa://22583, *maa://22500</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="1" t="inlineStr">
         <is>
           <t>格雷伊</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S13" s="5" t="inlineStr">
+      <c r="S13" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>maa://21484</t>
         </is>
       </c>
-      <c r="U13" s="4" t="inlineStr">
+      <c r="U13" s="1" t="n"/>
+      <c r="V13" s="1" t="inlineStr">
         <is>
           <t>苏苏洛</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="W13" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" s="5" t="inlineStr">
+      <c r="X13" s="2" t="inlineStr">
         <is>
           <t>*maa://34957, *maa://22768</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="1" t="inlineStr">
         <is>
           <t>月禾</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA13" s="5" t="inlineStr">
+      <c r="AA13" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB13" s="2" t="inlineStr">
         <is>
           <t>maa://24392</t>
         </is>
       </c>
-      <c r="AC13" s="4" t="inlineStr">
+      <c r="AC13" s="1" t="n"/>
+      <c r="AD13" s="1" t="inlineStr">
         <is>
           <t>傀影</t>
         </is>
       </c>
-      <c r="AD13" s="4" t="inlineStr">
+      <c r="AE13" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE13" s="5" t="inlineStr">
+      <c r="AF13" s="2" t="inlineStr">
         <is>
           <t>**maa://22737, maa://39883, *maa://39885</t>
         </is>
       </c>
+      <c r="AG13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>苇草</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>maa://30764</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="inlineStr">
         <is>
           <t>暴行</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>**maa://32656</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="inlineStr">
         <is>
           <t>斑点</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="K14" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K14" s="5" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>maa://26245, maa://21288, maa://36682, maa://39841</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="1" t="n"/>
+      <c r="N14" s="1" t="inlineStr">
         <is>
           <t>空爆</t>
         </is>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="O14" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O14" s="5" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>maa://23250, maa://20107, maa://22772, **maa://22745</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="1" t="inlineStr">
         <is>
           <t>莫斯提马</t>
         </is>
       </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="S14" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>maa://22521, maa://42751</t>
         </is>
       </c>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="U14" s="1" t="n"/>
+      <c r="V14" s="1" t="inlineStr">
         <is>
           <t>锡兰</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W14" s="5" t="inlineStr">
+      <c r="W14" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X14" s="2" t="inlineStr">
         <is>
           <t>maa://37468</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="1" t="inlineStr">
         <is>
           <t>波登可</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA14" s="5" t="inlineStr">
+      <c r="AA14" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB14" s="2" t="inlineStr">
         <is>
           <t>maa://22764</t>
         </is>
       </c>
-      <c r="AC14" s="4" t="inlineStr">
+      <c r="AC14" s="1" t="n"/>
+      <c r="AD14" s="1" t="inlineStr">
         <is>
           <t>THRM-EX</t>
         </is>
       </c>
-      <c r="AD14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE14" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE14" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF14" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>风笛</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>*maa://22743, maa://22734, *maa://30808</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>月见夜</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>maa://24304, maa://21478</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="inlineStr">
         <is>
           <t>坚雷</t>
         </is>
       </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K15" s="5" t="inlineStr">
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>*maa://21334</t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="M15" s="1" t="n"/>
+      <c r="N15" s="1" t="inlineStr">
         <is>
           <t>黑</t>
         </is>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="O15" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O15" s="5" t="inlineStr">
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>maa://24762, *maa://22727</t>
         </is>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="1" t="inlineStr">
         <is>
           <t>惊蛰</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S15" s="5" t="inlineStr">
+      <c r="S15" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>maa://23892</t>
         </is>
       </c>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="U15" s="1" t="n"/>
+      <c r="V15" s="1" t="inlineStr">
         <is>
           <t>微风</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W15" s="5" t="inlineStr">
+      <c r="W15" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X15" s="2" t="inlineStr">
         <is>
           <t>*maa://38786</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="1" t="inlineStr">
         <is>
           <t>铃兰</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA15" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC15" s="4" t="inlineStr">
+      <c r="AA15" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB15" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC15" s="1" t="n"/>
+      <c r="AD15" s="1" t="inlineStr">
         <is>
           <t>温蒂</t>
         </is>
       </c>
-      <c r="AD15" s="4" t="inlineStr">
+      <c r="AE15" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE15" s="5" t="inlineStr">
+      <c r="AF15" s="2" t="inlineStr">
         <is>
           <t>maa://21364, *maa://22766, *maa://36666</t>
         </is>
       </c>
+      <c r="AG15" s="1" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>极境</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>maa://21441, maa://36679, maa://37650</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="inlineStr">
         <is>
           <t>猎蜂</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="G16" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I16" s="4" t="inlineStr">
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="inlineStr">
         <is>
           <t>拜松</t>
         </is>
       </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>maa://24377</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="1" t="n"/>
+      <c r="N16" s="1" t="inlineStr">
         <is>
           <t>红云</t>
         </is>
       </c>
-      <c r="N16" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
+      <c r="O16" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
         <is>
           <t>maa://28504</t>
         </is>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="inlineStr">
         <is>
           <t>刻俄柏</t>
         </is>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="S16" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S16" s="5" t="inlineStr">
+      <c r="T16" s="2" t="inlineStr">
         <is>
           <t>maa://22729, *maa://28648, maa://36674</t>
         </is>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="inlineStr">
         <is>
           <t>清流</t>
         </is>
       </c>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="W16" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W16" s="5" t="inlineStr">
+      <c r="X16" s="2" t="inlineStr">
         <is>
           <t>maa://28501, maa://28051</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="inlineStr">
         <is>
           <t>稀音</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA16" s="5" t="inlineStr">
+      <c r="AA16" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB16" s="2" t="inlineStr">
         <is>
           <t>maa://26228</t>
         </is>
       </c>
-      <c r="AC16" s="4" t="inlineStr">
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="inlineStr">
         <is>
           <t>孑</t>
         </is>
       </c>
-      <c r="AD16" s="4" t="inlineStr">
+      <c r="AE16" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE16" s="5" t="inlineStr">
+      <c r="AF16" s="2" t="inlineStr">
         <is>
           <t>*maa://23911, maa://27755</t>
         </is>
       </c>
+      <c r="AG16" s="1" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>贾维</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>maa://21624</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>斯卡蒂</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="G17" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G17" s="5" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>maa://22430, maa://39599</t>
         </is>
       </c>
-      <c r="I17" s="4" t="inlineStr">
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="inlineStr">
         <is>
           <t>吽</t>
         </is>
       </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K17" s="5" t="inlineStr">
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>*maa://21679</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="inlineStr">
         <is>
           <t>送葬人</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="O17" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O17" s="5" t="inlineStr">
+      <c r="P17" s="2" t="inlineStr">
         <is>
           <t>maa://23890, *maa://24940</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="1" t="n"/>
+      <c r="R17" s="1" t="inlineStr">
         <is>
           <t>苦艾</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S17" s="5" t="inlineStr">
+      <c r="S17" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
         <is>
           <t>**maa://42324</t>
         </is>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="U17" s="1" t="n"/>
+      <c r="V17" s="1" t="inlineStr">
         <is>
           <t>亚叶</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W17" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="W17" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X17" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y17" s="1" t="n"/>
+      <c r="Z17" s="1" t="inlineStr">
         <is>
           <t>浊心斯卡蒂</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA17" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC17" s="4" t="inlineStr">
+      <c r="AA17" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB17" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC17" s="1" t="n"/>
+      <c r="AD17" s="1" t="inlineStr">
         <is>
           <t>罗宾</t>
         </is>
       </c>
-      <c r="AD17" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE17" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE17" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF17" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG17" s="1" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>豆苗</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>maa://24570</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="inlineStr">
         <is>
           <t>泡普卡</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="inlineStr">
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>maa://24421</t>
         </is>
       </c>
-      <c r="I18" s="4" t="inlineStr">
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="inlineStr">
         <is>
           <t>年</t>
         </is>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="K18" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K18" s="5" t="inlineStr">
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>maa://22466, *maa://22732</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="1" t="n"/>
+      <c r="N18" s="1" t="inlineStr">
         <is>
           <t>梅</t>
         </is>
       </c>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="O18" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O18" s="5" t="inlineStr">
+      <c r="P18" s="2" t="inlineStr">
         <is>
           <t>maa://24379, maa://24380</t>
         </is>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="Q18" s="1" t="n"/>
+      <c r="R18" s="1" t="inlineStr">
         <is>
           <t>莱恩哈特</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
+      <c r="S18" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
         <is>
           <t>maa://24385</t>
         </is>
       </c>
-      <c r="U18" s="4" t="inlineStr">
+      <c r="U18" s="1" t="n"/>
+      <c r="V18" s="1" t="inlineStr">
         <is>
           <t>絮雨</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="W18" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W18" s="5" t="inlineStr">
+      <c r="X18" s="2" t="inlineStr">
         <is>
           <t>maa://21917, maa://22741</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="1" t="n"/>
+      <c r="Z18" s="1" t="inlineStr">
         <is>
           <t>罗比菈塔</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA18" s="5" t="inlineStr">
+      <c r="AA18" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB18" s="2" t="inlineStr">
         <is>
           <t>maa://24393</t>
         </is>
       </c>
-      <c r="AC18" s="4" t="inlineStr">
+      <c r="AC18" s="1" t="n"/>
+      <c r="AD18" s="1" t="inlineStr">
         <is>
           <t>卡夫卡</t>
         </is>
       </c>
-      <c r="AD18" s="4" t="inlineStr">
+      <c r="AE18" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE18" s="5" t="inlineStr">
+      <c r="AF18" s="2" t="inlineStr">
         <is>
           <t>*maa://24313, **maa://29784</t>
         </is>
       </c>
+      <c r="AG18" s="1" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>嵯峨</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="inlineStr">
         <is>
           <t>诗怀雅</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="G19" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="inlineStr">
         <is>
           <t>石棉</t>
         </is>
       </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K19" s="5" t="inlineStr">
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>maa://39347</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="inlineStr">
         <is>
           <t>安比尔</t>
         </is>
       </c>
-      <c r="N19" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O19" s="5" t="inlineStr">
+      <c r="O19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
         <is>
           <t>maa://39433</t>
         </is>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q19" s="1" t="n"/>
+      <c r="R19" s="1" t="inlineStr">
         <is>
           <t>卡达</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S19" s="5" t="inlineStr">
+      <c r="S19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
         <is>
           <t>maa://24386</t>
         </is>
       </c>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="U19" s="1" t="n"/>
+      <c r="V19" s="1" t="inlineStr">
         <is>
           <t>图耶</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W19" s="5" t="inlineStr">
+      <c r="W19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X19" s="2" t="inlineStr">
         <is>
           <t>maa://31386</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="1" t="n"/>
+      <c r="Z19" s="1" t="inlineStr">
         <is>
           <t>灵知</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="inlineStr">
+      <c r="AA19" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA19" s="5" t="inlineStr">
+      <c r="AB19" s="2" t="inlineStr">
         <is>
           <t>*maa://30709, *maa://36668</t>
         </is>
       </c>
-      <c r="AC19" s="4" t="inlineStr">
+      <c r="AC19" s="1" t="n"/>
+      <c r="AD19" s="1" t="inlineStr">
         <is>
           <t>乌有</t>
         </is>
       </c>
-      <c r="AD19" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE19" s="5" t="inlineStr">
+      <c r="AE19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF19" s="2" t="inlineStr">
         <is>
           <t>*maa://21663</t>
         </is>
       </c>
+      <c r="AG19" s="1" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>琴柳</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>maa://21432, maa://25198, *maa://20795, maa://36680</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="inlineStr">
         <is>
           <t>陈</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>maa://22864</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="inlineStr">
         <is>
           <t>森蚺</t>
         </is>
       </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>maa://41331</t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="M20" s="1" t="n"/>
+      <c r="N20" s="1" t="inlineStr">
         <is>
           <t>灰喉</t>
         </is>
       </c>
-      <c r="N20" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O20" s="5" t="inlineStr">
+      <c r="O20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
         <is>
           <t>maa://37442</t>
         </is>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="Q20" s="1" t="n"/>
+      <c r="R20" s="1" t="inlineStr">
         <is>
           <t>蜜蜡</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S20" s="5" t="inlineStr">
+      <c r="S20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
         <is>
           <t>maa://29113</t>
         </is>
       </c>
-      <c r="U20" s="4" t="inlineStr">
+      <c r="U20" s="1" t="n"/>
+      <c r="V20" s="1" t="inlineStr">
         <is>
           <t>凯尔希</t>
         </is>
       </c>
-      <c r="V20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="W20" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y20" s="1" t="n"/>
+      <c r="Z20" s="1" t="inlineStr">
         <is>
           <t>九色鹿</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA20" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC20" s="4" t="inlineStr">
+      <c r="AA20" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC20" s="1" t="n"/>
+      <c r="AD20" s="1" t="inlineStr">
         <is>
           <t>霜华</t>
         </is>
       </c>
-      <c r="AD20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE20" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE20" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG20" s="1" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>野鬃</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>maa://21261</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="inlineStr">
         <is>
           <t>星极</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>maa://24372</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="inlineStr">
         <is>
           <t>泡泡</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K21" s="5" t="inlineStr">
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>maa://31731</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="1" t="n"/>
+      <c r="N21" s="1" t="inlineStr">
         <is>
           <t>慑砂</t>
         </is>
       </c>
-      <c r="N21" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
+      <c r="O21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
         <is>
           <t>maa://24381</t>
         </is>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="1" t="n"/>
+      <c r="R21" s="1" t="inlineStr">
         <is>
           <t>特米米</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S21" s="5" t="inlineStr">
+      <c r="S21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
         <is>
           <t>maa://21993</t>
         </is>
       </c>
-      <c r="U21" s="4" t="inlineStr">
+      <c r="U21" s="1" t="n"/>
+      <c r="V21" s="1" t="inlineStr">
         <is>
           <t>桑葚</t>
         </is>
       </c>
-      <c r="V21" s="4" t="inlineStr">
+      <c r="W21" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W21" s="5" t="inlineStr">
+      <c r="X21" s="2" t="inlineStr">
         <is>
           <t>maa://20110, maa://34946</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="inlineStr">
+      <c r="Y21" s="1" t="n"/>
+      <c r="Z21" s="1" t="inlineStr">
         <is>
           <t>令</t>
         </is>
       </c>
-      <c r="Z21" s="4" t="inlineStr">
+      <c r="AA21" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA21" s="5" t="inlineStr">
+      <c r="AB21" s="2" t="inlineStr">
         <is>
           <t>*maa://21443, ***maa://23820</t>
         </is>
       </c>
-      <c r="AC21" s="4" t="inlineStr">
+      <c r="AC21" s="1" t="n"/>
+      <c r="AD21" s="1" t="inlineStr">
         <is>
           <t>歌蕾蒂娅</t>
         </is>
       </c>
-      <c r="AD21" s="4" t="inlineStr">
+      <c r="AE21" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE21" s="5" t="inlineStr">
+      <c r="AF21" s="2" t="inlineStr">
         <is>
           <t>maa://22524, *maa://22432</t>
         </is>
       </c>
+      <c r="AG21" s="1" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>焰尾</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="inlineStr">
         <is>
           <t>赫拉格</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>maa://25236, **maa://21678, **maa://22735</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="inlineStr">
         <is>
           <t>瑕光</t>
         </is>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="K22" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>maa://27127, *maa://22751</t>
         </is>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="M22" s="1" t="n"/>
+      <c r="N22" s="1" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="N22" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O22" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="O22" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q22" s="1" t="n"/>
+      <c r="R22" s="1" t="inlineStr">
         <is>
           <t>薄绿</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="S22" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
         <is>
           <t>maa://38495</t>
         </is>
       </c>
-      <c r="U22" s="4" t="inlineStr">
+      <c r="U22" s="1" t="n"/>
+      <c r="V22" s="1" t="inlineStr">
         <is>
           <t>蜜莓</t>
         </is>
       </c>
-      <c r="V22" s="4" t="inlineStr">
+      <c r="W22" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W22" s="5" t="inlineStr">
+      <c r="X22" s="2" t="inlineStr">
         <is>
           <t>maa://21282, *maa://37649</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Y22" s="1" t="n"/>
+      <c r="Z22" s="1" t="inlineStr">
         <is>
           <t>夏栎</t>
         </is>
       </c>
-      <c r="Z22" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA22" s="5" t="inlineStr">
+      <c r="AA22" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB22" s="2" t="inlineStr">
         <is>
           <t>maa://23656</t>
         </is>
       </c>
-      <c r="AC22" s="4" t="inlineStr">
+      <c r="AC22" s="1" t="n"/>
+      <c r="AD22" s="1" t="inlineStr">
         <is>
           <t>贝娜</t>
         </is>
       </c>
-      <c r="AD22" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE22" s="5" t="inlineStr">
+      <c r="AE22" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF22" s="2" t="inlineStr">
         <is>
           <t>maa://29658</t>
         </is>
       </c>
+      <c r="AG22" s="1" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>夜半</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>***maa://28036, *maa://41753</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>炎客</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="inlineStr">
         <is>
           <t>泥岩</t>
         </is>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="K23" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K23" s="5" t="inlineStr">
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>maa://39756, maa://39875</t>
         </is>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="M23" s="1" t="n"/>
+      <c r="N23" s="1" t="inlineStr">
         <is>
           <t>早露</t>
         </is>
       </c>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="O23" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O23" s="5" t="inlineStr">
+      <c r="P23" s="2" t="inlineStr">
         <is>
           <t>maa://30587, *maa://29748, *maa://37566</t>
         </is>
       </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="Q23" s="1" t="n"/>
+      <c r="R23" s="1" t="inlineStr">
         <is>
           <t>爱丽丝</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="S23" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S23" s="5" t="inlineStr">
+      <c r="T23" s="2" t="inlineStr">
         <is>
           <t>maa://24387, maa://31212</t>
         </is>
       </c>
-      <c r="U23" s="4" t="inlineStr">
+      <c r="U23" s="1" t="n"/>
+      <c r="V23" s="1" t="inlineStr">
         <is>
           <t>褐果</t>
         </is>
       </c>
-      <c r="V23" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W23" s="5" t="inlineStr">
+      <c r="W23" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X23" s="2" t="inlineStr">
         <is>
           <t>*maa://28503</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="inlineStr">
+      <c r="Y23" s="1" t="n"/>
+      <c r="Z23" s="1" t="inlineStr">
         <is>
           <t>海蒂</t>
         </is>
       </c>
-      <c r="Z23" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA23" s="5" t="inlineStr">
+      <c r="AA23" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB23" s="2" t="inlineStr">
         <is>
           <t>maa://29652</t>
         </is>
       </c>
-      <c r="AC23" s="4" t="inlineStr">
+      <c r="AC23" s="1" t="n"/>
+      <c r="AD23" s="1" t="inlineStr">
         <is>
           <t>绮良</t>
         </is>
       </c>
-      <c r="AD23" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE23" s="5" t="inlineStr">
+      <c r="AE23" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF23" s="2" t="inlineStr">
         <is>
           <t>maa://31489</t>
         </is>
       </c>
+      <c r="AG23" s="1" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>晓歌</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>maa://24368</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>布洛卡</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr">
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="inlineStr">
         <is>
           <t>闪击</t>
         </is>
       </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K24" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M24" s="1" t="n"/>
+      <c r="N24" s="1" t="inlineStr">
         <is>
           <t>安哲拉</t>
         </is>
       </c>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O24" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="inlineStr">
+      <c r="O24" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q24" s="1" t="n"/>
+      <c r="R24" s="1" t="inlineStr">
         <is>
           <t>炎狱炎熔</t>
         </is>
       </c>
-      <c r="R24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S24" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U24" s="4" t="inlineStr">
+      <c r="S24" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U24" s="1" t="n"/>
+      <c r="V24" s="1" t="inlineStr">
         <is>
           <t>流明</t>
         </is>
       </c>
-      <c r="V24" s="4" t="inlineStr">
+      <c r="W24" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="W24" s="5" t="inlineStr">
+      <c r="X24" s="2" t="inlineStr">
         <is>
           <t>maa://29988, maa://23504, **maa://22892, *maa://25141, *maa://36663, ***maa://22815</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Y24" s="1" t="n"/>
+      <c r="Z24" s="1" t="inlineStr">
         <is>
           <t>掠风</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA24" s="5" t="inlineStr">
+      <c r="AA24" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB24" s="2" t="inlineStr">
         <is>
           <t>maa://39349</t>
         </is>
       </c>
-      <c r="AC24" s="4" t="inlineStr">
+      <c r="AC24" s="1" t="n"/>
+      <c r="AD24" s="1" t="inlineStr">
         <is>
           <t>水月</t>
         </is>
       </c>
-      <c r="AD24" s="4" t="inlineStr">
+      <c r="AE24" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AE24" s="5" t="inlineStr">
+      <c r="AF24" s="2" t="inlineStr">
         <is>
           <t>maa://22523, *maa://36672, maa://29910, **maa://21440</t>
         </is>
       </c>
+      <c r="AG24" s="1" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>伺夜</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>maa://29753</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>煌</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="H25" s="2" t="inlineStr">
         <is>
           <t>*maa://29063, *maa://25311</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="inlineStr">
         <is>
           <t>暴雨</t>
         </is>
       </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K25" s="5" t="inlineStr">
+      <c r="K25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>maa://24378</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="1" t="inlineStr">
         <is>
           <t>酸糖</t>
         </is>
       </c>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O25" s="5" t="inlineStr">
+      <c r="O25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
         <is>
           <t>maa://24382</t>
         </is>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="Q25" s="1" t="n"/>
+      <c r="R25" s="1" t="inlineStr">
         <is>
           <t>夕</t>
         </is>
       </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="S25" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S25" s="5" t="inlineStr">
+      <c r="T25" s="2" t="inlineStr">
         <is>
           <t>maa://20109, maa://22545</t>
         </is>
       </c>
-      <c r="U25" s="4" t="inlineStr">
+      <c r="U25" s="1" t="n"/>
+      <c r="V25" s="1" t="inlineStr">
         <is>
           <t>濯尘芙蓉</t>
         </is>
       </c>
-      <c r="V25" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
+      <c r="W25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X25" s="2" t="inlineStr">
         <is>
           <t>*maa://29890</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="inlineStr">
+      <c r="Y25" s="1" t="n"/>
+      <c r="Z25" s="1" t="inlineStr">
         <is>
           <t>但书</t>
         </is>
       </c>
-      <c r="Z25" s="4" t="inlineStr">
+      <c r="AA25" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA25" s="5" t="inlineStr">
+      <c r="AB25" s="2" t="inlineStr">
         <is>
           <t>maa://31215, *maa://24516, maa://26001</t>
         </is>
       </c>
-      <c r="AC25" s="4" t="inlineStr">
+      <c r="AC25" s="1" t="n"/>
+      <c r="AD25" s="1" t="inlineStr">
         <is>
           <t>老鲤</t>
         </is>
       </c>
-      <c r="AD25" s="4" t="inlineStr">
+      <c r="AE25" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AE25" s="5" t="inlineStr">
+      <c r="AF25" s="2" t="inlineStr">
         <is>
           <t>maa://20108, maa://24621, maa://36676, maa://22771, maa://37772</t>
         </is>
       </c>
+      <c r="AG25" s="1" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>谜图</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>maa://41802</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="inlineStr">
         <is>
           <t>宴</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>maa://24913</t>
         </is>
       </c>
-      <c r="I26" s="4" t="inlineStr">
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="inlineStr">
         <is>
           <t>灰毫</t>
         </is>
       </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M26" s="1" t="n"/>
+      <c r="N26" s="1" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
       </c>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="O26" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O26" s="5" t="inlineStr">
+      <c r="P26" s="2" t="inlineStr">
         <is>
           <t>*maa://30968, maa://39870</t>
         </is>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="Q26" s="1" t="n"/>
+      <c r="R26" s="1" t="inlineStr">
         <is>
           <t>异客</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U26" s="4" t="inlineStr">
+      <c r="S26" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U26" s="1" t="n"/>
+      <c r="V26" s="1" t="inlineStr">
         <is>
           <t>明椒</t>
         </is>
       </c>
-      <c r="V26" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
+      <c r="W26" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X26" s="2" t="inlineStr">
         <is>
           <t>maa://24389</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="inlineStr">
+      <c r="Y26" s="1" t="n"/>
+      <c r="Z26" s="1" t="inlineStr">
         <is>
           <t>白铁</t>
         </is>
       </c>
-      <c r="Z26" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA26" s="5" t="inlineStr">
+      <c r="AA26" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB26" s="2" t="inlineStr">
         <is>
           <t>maa://42235</t>
         </is>
       </c>
-      <c r="AC26" s="4" t="inlineStr">
+      <c r="AC26" s="1" t="n"/>
+      <c r="AD26" s="1" t="inlineStr">
         <is>
           <t>见行者</t>
         </is>
       </c>
-      <c r="AD26" s="4" t="inlineStr">
+      <c r="AE26" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE26" s="5" t="inlineStr">
+      <c r="AF26" s="2" t="inlineStr">
         <is>
           <t>maa://30511, *maa://29760</t>
         </is>
       </c>
+      <c r="AG26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>伊内丝</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="inlineStr">
         <is>
           <t>柏喙</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>**maa://21283, maa://34494, *maa://39601, **maa://36665</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr">
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="inlineStr">
         <is>
           <t>极光</t>
         </is>
       </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
+      <c r="K27" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>maa://28071</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="1" t="n"/>
+      <c r="N27" s="1" t="inlineStr">
         <is>
           <t>奥斯塔</t>
         </is>
       </c>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="O27" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O27" s="5" t="inlineStr">
+      <c r="P27" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="Q27" s="1" t="n"/>
+      <c r="R27" s="1" t="inlineStr">
         <is>
           <t>深靛</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S27" s="5" t="inlineStr">
+      <c r="S27" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
         <is>
           <t>*maa://30624</t>
         </is>
       </c>
-      <c r="U27" s="4" t="inlineStr">
+      <c r="U27" s="1" t="n"/>
+      <c r="V27" s="1" t="inlineStr">
         <is>
           <t>焰影苇草</t>
         </is>
       </c>
-      <c r="V27" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W27" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="W27" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X27" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y27" s="1" t="n"/>
+      <c r="Z27" s="1" t="inlineStr">
         <is>
           <t>U-Official</t>
         </is>
       </c>
-      <c r="Z27" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA27" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC27" s="4" t="inlineStr">
+      <c r="AA27" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB27" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC27" s="1" t="n"/>
+      <c r="AD27" s="1" t="inlineStr">
         <is>
           <t>风丸</t>
         </is>
       </c>
-      <c r="AD27" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE27" s="5" t="inlineStr">
+      <c r="AE27" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF27" s="2" t="inlineStr">
         <is>
           <t>maa://24023</t>
         </is>
       </c>
+      <c r="AG27" s="1" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>缪尔赛思</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>maa://24465, maa://25725</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="inlineStr">
         <is>
           <t>断罪者</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I28" s="4" t="inlineStr">
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="inlineStr">
         <is>
           <t>暮落</t>
         </is>
       </c>
-      <c r="J28" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
+      <c r="K28" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>*maa://30770</t>
         </is>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="M28" s="1" t="n"/>
+      <c r="N28" s="1" t="inlineStr">
         <is>
           <t>迷迭香</t>
         </is>
       </c>
-      <c r="N28" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q28" s="4" t="inlineStr">
+      <c r="O28" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q28" s="1" t="n"/>
+      <c r="R28" s="1" t="inlineStr">
         <is>
           <t>卡涅利安</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="S28" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S28" s="5" t="inlineStr">
+      <c r="T28" s="2" t="inlineStr">
         <is>
           <t>maa://23263, *maa://29765</t>
         </is>
       </c>
-      <c r="U28" s="4" t="inlineStr">
+      <c r="U28" s="1" t="n"/>
+      <c r="V28" s="1" t="inlineStr">
         <is>
           <t>纯烬艾雅法拉</t>
         </is>
       </c>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="W28" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W28" s="5" t="inlineStr">
+      <c r="X28" s="2" t="inlineStr">
         <is>
           <t>maa://39929, maa://41749</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="inlineStr">
+      <c r="Y28" s="1" t="n"/>
+      <c r="Z28" s="1" t="inlineStr">
         <is>
           <t>淬羽赫默</t>
         </is>
       </c>
-      <c r="Z28" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA28" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC28" s="4" t="inlineStr">
+      <c r="AA28" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB28" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC28" s="1" t="n"/>
+      <c r="AD28" s="1" t="inlineStr">
         <is>
           <t>归溟幽灵鲨</t>
         </is>
       </c>
-      <c r="AD28" s="4" t="inlineStr">
+      <c r="AE28" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE28" s="5" t="inlineStr">
+      <c r="AF28" s="2" t="inlineStr">
         <is>
           <t>maa://36660, *maa://36701</t>
         </is>
       </c>
+      <c r="AG28" s="1" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>青枳</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>maa://31694</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="inlineStr">
         <is>
           <t>刻刀</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
         <is>
           <t>*maa://25175</t>
         </is>
       </c>
-      <c r="I29" s="4" t="inlineStr">
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="inlineStr">
         <is>
           <t>号角</t>
         </is>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="K29" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K29" s="5" t="inlineStr">
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>maa://28432, *maa://28440, maa://31400, *maa://28650</t>
         </is>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="inlineStr">
         <is>
           <t>松果</t>
         </is>
       </c>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="O29" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O29" s="5" t="inlineStr">
+      <c r="P29" s="2" t="inlineStr">
         <is>
           <t>*maa://23168, **maa://30050</t>
         </is>
       </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="Q29" s="1" t="n"/>
+      <c r="R29" s="1" t="inlineStr">
         <is>
           <t>布丁</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S29" s="5" t="inlineStr">
+      <c r="S29" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
         <is>
           <t>maa://28502</t>
         </is>
       </c>
-      <c r="U29" s="4" t="inlineStr">
+      <c r="U29" s="1" t="n"/>
+      <c r="V29" s="1" t="inlineStr">
         <is>
           <t>刺玫</t>
         </is>
       </c>
-      <c r="V29" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W29" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y29" s="4" t="inlineStr">
+      <c r="W29" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X29" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y29" s="1" t="n"/>
+      <c r="Z29" s="1" t="inlineStr">
         <is>
           <t>凛视</t>
         </is>
       </c>
-      <c r="Z29" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA29" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC29" s="4" t="inlineStr">
+      <c r="AA29" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB29" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC29" s="1" t="n"/>
+      <c r="AD29" s="1" t="inlineStr">
         <is>
           <t>多萝西</t>
         </is>
       </c>
-      <c r="AD29" s="4" t="inlineStr">
+      <c r="AE29" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE29" s="5" t="inlineStr">
+      <c r="AF29" s="2" t="inlineStr">
         <is>
           <t>*maa://24080, maa://42865</t>
         </is>
       </c>
+      <c r="AG29" s="1" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>万顷</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="inlineStr">
         <is>
           <t>铸铁</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>maa://39355</t>
         </is>
       </c>
-      <c r="I30" s="4" t="inlineStr">
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="inlineStr">
         <is>
           <t>车尔尼</t>
         </is>
       </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
+      <c r="K30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>maa://30442</t>
         </is>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="inlineStr">
         <is>
           <t>空弦</t>
         </is>
       </c>
-      <c r="N30" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
+      <c r="O30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
         <is>
           <t>maa://21442</t>
         </is>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="Q30" s="1" t="n"/>
+      <c r="R30" s="1" t="inlineStr">
         <is>
           <t>蚀清</t>
         </is>
       </c>
-      <c r="R30" s="4" t="inlineStr">
+      <c r="S30" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S30" s="5" t="inlineStr">
+      <c r="T30" s="2" t="inlineStr">
         <is>
           <t>*maa://32940, maa://24388</t>
         </is>
       </c>
-      <c r="U30" s="4" t="inlineStr">
+      <c r="U30" s="1" t="n"/>
+      <c r="V30" s="1" t="inlineStr">
         <is>
           <t>哈洛德</t>
         </is>
       </c>
-      <c r="V30" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W30" s="5" t="inlineStr">
+      <c r="W30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X30" s="2" t="inlineStr">
         <is>
           <t>*maa://39477</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="inlineStr">
+      <c r="Y30" s="1" t="n"/>
+      <c r="Z30" s="1" t="inlineStr">
         <is>
           <t>塑心</t>
         </is>
       </c>
-      <c r="Z30" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA30" s="5" t="inlineStr">
+      <c r="AA30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB30" s="2" t="inlineStr">
         <is>
           <t>maa://42979</t>
         </is>
       </c>
-      <c r="AC30" s="4" t="inlineStr">
+      <c r="AC30" s="1" t="n"/>
+      <c r="AD30" s="1" t="inlineStr">
         <is>
           <t>缄默德克萨斯</t>
         </is>
       </c>
-      <c r="AD30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE30" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE30" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF30" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG30" s="1" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>红隼</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>断崖</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="H31" s="2" t="inlineStr">
         <is>
           <t>maa://32721, **maa://24373</t>
         </is>
       </c>
-      <c r="I31" s="4" t="inlineStr">
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="inlineStr">
         <is>
           <t>斥罪</t>
         </is>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="K31" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K31" s="5" t="inlineStr">
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>maa://35926, *maa://36258</t>
         </is>
       </c>
-      <c r="M31" s="4" t="inlineStr">
+      <c r="M31" s="1" t="n"/>
+      <c r="N31" s="1" t="inlineStr">
         <is>
           <t>灰烬</t>
         </is>
       </c>
-      <c r="N31" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O31" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q31" s="4" t="inlineStr">
+      <c r="O31" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q31" s="1" t="n"/>
+      <c r="R31" s="1" t="inlineStr">
         <is>
           <t>耶拉</t>
         </is>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="S31" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S31" s="5" t="inlineStr">
+      <c r="T31" s="2" t="inlineStr">
         <is>
           <t>maa://30711, maa://30768</t>
         </is>
       </c>
-      <c r="U31" s="4" t="inlineStr">
+      <c r="U31" s="1" t="n"/>
+      <c r="V31" s="1" t="inlineStr">
         <is>
           <t>阿米娅(医疗)</t>
         </is>
       </c>
-      <c r="V31" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W31" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y31" s="4" t="inlineStr">
+      <c r="W31" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X31" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y31" s="1" t="n"/>
+      <c r="Z31" s="1" t="inlineStr">
         <is>
           <t>小满</t>
         </is>
       </c>
-      <c r="Z31" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA31" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC31" s="4" t="inlineStr">
+      <c r="AA31" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB31" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC31" s="1" t="n"/>
+      <c r="AD31" s="1" t="inlineStr">
         <is>
           <t>麒麟R夜刀</t>
         </is>
       </c>
-      <c r="AD31" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE31" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE31" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF31" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG31" s="1" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>历阵锐枪芬</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="inlineStr">
         <is>
           <t>棘刺</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="G32" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr">
         <is>
           <t>maa://21895, maa://36667, **maa://20793, maa://22760</t>
         </is>
       </c>
-      <c r="I32" s="4" t="inlineStr">
+      <c r="I32" s="1" t="n"/>
+      <c r="J32" s="1" t="inlineStr">
         <is>
           <t>火哨</t>
         </is>
       </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K32" s="5" t="inlineStr">
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
         <is>
           <t>maa://28065</t>
         </is>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="M32" s="1" t="n"/>
+      <c r="N32" s="1" t="inlineStr">
         <is>
           <t>熔泉</t>
         </is>
       </c>
-      <c r="N32" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O32" s="5" t="inlineStr">
+      <c r="O32" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
         <is>
           <t>maa://26203</t>
         </is>
       </c>
-      <c r="Q32" s="4" t="inlineStr">
+      <c r="Q32" s="1" t="n"/>
+      <c r="R32" s="1" t="inlineStr">
         <is>
           <t>澄闪</t>
         </is>
       </c>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="S32" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S32" s="5" t="inlineStr">
+      <c r="T32" s="2" t="inlineStr">
         <is>
           <t>maa://41108, maa://41238, maa://42859</t>
         </is>
       </c>
-      <c r="U32" s="4" t="inlineStr">
+      <c r="U32" s="1" t="n"/>
+      <c r="V32" s="1" t="inlineStr">
         <is>
           <t>莎草</t>
         </is>
       </c>
-      <c r="V32" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y32" s="4" t="inlineStr">
+      <c r="W32" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X32" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y32" s="1" t="n"/>
+      <c r="Z32" s="1" t="inlineStr">
         <is>
           <t>PhonoR-0</t>
         </is>
       </c>
-      <c r="Z32" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC32" s="4" t="inlineStr">
+      <c r="AA32" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB32" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC32" s="1" t="n"/>
+      <c r="AD32" s="1" t="inlineStr">
         <is>
           <t>空构</t>
         </is>
       </c>
-      <c r="AD32" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE32" s="5" t="inlineStr">
+      <c r="AE32" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF32" s="2" t="inlineStr">
         <is>
           <t>maa://42408</t>
         </is>
       </c>
+      <c r="AG32" s="1" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>渡桥</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="inlineStr">
         <is>
           <t>燧石</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
         <is>
           <t>**maa://39351</t>
         </is>
       </c>
-      <c r="I33" s="4" t="inlineStr">
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="inlineStr">
         <is>
           <t>洋灰</t>
         </is>
       </c>
-      <c r="J33" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K33" s="5" t="inlineStr">
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>maa://39808</t>
         </is>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" s="1" t="n"/>
+      <c r="N33" s="1" t="inlineStr">
         <is>
           <t>假日威龙陈</t>
         </is>
       </c>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="O33" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O33" s="5" t="inlineStr">
+      <c r="P33" s="2" t="inlineStr">
         <is>
           <t>*maa://21956, maa://22730</t>
         </is>
       </c>
-      <c r="Q33" s="4" t="inlineStr">
+      <c r="Q33" s="1" t="n"/>
+      <c r="R33" s="1" t="inlineStr">
         <is>
           <t>洛洛</t>
         </is>
       </c>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="S33" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S33" s="5" t="inlineStr">
+      <c r="T33" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Y33" s="4" t="inlineStr">
+      <c r="U33" s="1" t="n"/>
+      <c r="Z33" s="1" t="inlineStr">
         <is>
           <t>魔王</t>
         </is>
       </c>
-      <c r="Z33" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC33" s="4" t="inlineStr">
+      <c r="AA33" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB33" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC33" s="1" t="n"/>
+      <c r="AD33" s="1" t="inlineStr">
         <is>
           <t>琳琅诗怀雅</t>
         </is>
       </c>
-      <c r="AD33" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE33" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF33" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG33" s="1" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>齐尔查克</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="inlineStr">
         <is>
           <t>芳汀</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I34" s="4" t="inlineStr">
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="1" t="n"/>
+      <c r="J34" s="1" t="inlineStr">
         <is>
           <t>Friston-3</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M34" s="4" t="inlineStr">
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="n"/>
+      <c r="N34" s="1" t="inlineStr">
         <is>
           <t>远牙</t>
         </is>
       </c>
-      <c r="N34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q34" s="4" t="inlineStr">
+      <c r="O34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q34" s="1" t="n"/>
+      <c r="R34" s="1" t="inlineStr">
         <is>
           <t>黑键</t>
         </is>
       </c>
-      <c r="R34" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S34" s="5" t="inlineStr">
+      <c r="S34" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
         <is>
           <t>maa://24526</t>
         </is>
       </c>
-      <c r="Y34" s="4" t="inlineStr">
+      <c r="U34" s="1" t="n"/>
+      <c r="Z34" s="1" t="inlineStr">
         <is>
           <t>海霓</t>
         </is>
       </c>
-      <c r="Z34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC34" s="4" t="inlineStr">
+      <c r="AA34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB34" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC34" s="1" t="n"/>
+      <c r="AD34" s="1" t="inlineStr">
         <is>
           <t>杏仁</t>
         </is>
       </c>
-      <c r="AD34" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE34" s="5" t="inlineStr">
+      <c r="AE34" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF34" s="2" t="inlineStr">
         <is>
           <t>*maa://32650</t>
         </is>
       </c>
+      <c r="AG34" s="1" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>忍冬</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="inlineStr">
         <is>
           <t>史尔特尔</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I35" s="4" t="inlineStr">
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="1" t="n"/>
+      <c r="J35" s="1" t="inlineStr">
         <is>
           <t>涤火杰西卡</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K35" s="5" t="inlineStr">
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>maa://41296</t>
         </is>
       </c>
-      <c r="M35" s="4" t="inlineStr">
+      <c r="M35" s="1" t="n"/>
+      <c r="N35" s="1" t="inlineStr">
         <is>
           <t>正义骑士号</t>
         </is>
       </c>
-      <c r="N35" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O35" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q35" s="4" t="inlineStr">
+      <c r="O35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="n"/>
+      <c r="R35" s="1" t="inlineStr">
         <is>
           <t>星源</t>
         </is>
       </c>
-      <c r="R35" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S35" s="5" t="inlineStr">
+      <c r="S35" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
         <is>
           <t>maa://24842</t>
         </is>
       </c>
-      <c r="Y35" s="4" t="inlineStr">
+      <c r="U35" s="1" t="n"/>
+      <c r="Z35" s="1" t="inlineStr">
         <is>
           <t>衡沙</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA35" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC35" s="4" t="inlineStr">
+      <c r="AA35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB35" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC35" s="1" t="n"/>
+      <c r="AD35" s="1" t="inlineStr">
         <is>
           <t>维荻</t>
         </is>
       </c>
-      <c r="AD35" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE35" s="5" t="inlineStr">
+      <c r="AE35" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF35" s="2" t="inlineStr">
         <is>
           <t>maa://39479</t>
         </is>
       </c>
+      <c r="AG35" s="1" t="n"/>
     </row>
     <row r="36">
-      <c r="E36" s="4" t="inlineStr">
+      <c r="F36" s="1" t="inlineStr">
         <is>
           <t>鞭刃</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G36" s="5" t="inlineStr">
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
         <is>
           <t>maa://24375</t>
         </is>
       </c>
-      <c r="I36" s="4" t="inlineStr">
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="inlineStr">
         <is>
           <t>深律</t>
         </is>
       </c>
-      <c r="J36" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K36" s="5" t="inlineStr">
+      <c r="K36" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>maa://42240</t>
         </is>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="M36" s="1" t="n"/>
+      <c r="N36" s="1" t="inlineStr">
         <is>
           <t>寒芒克洛丝</t>
         </is>
       </c>
-      <c r="N36" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O36" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q36" s="4" t="inlineStr">
+      <c r="O36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q36" s="1" t="n"/>
+      <c r="R36" s="1" t="inlineStr">
         <is>
           <t>至简</t>
         </is>
       </c>
-      <c r="R36" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S36" s="5" t="inlineStr">
+      <c r="S36" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
         <is>
           <t>maa://27613</t>
         </is>
       </c>
-      <c r="Y36" s="4" t="inlineStr">
+      <c r="U36" s="1" t="n"/>
+      <c r="Z36" s="1" t="inlineStr">
         <is>
           <t>凯瑟琳</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA36" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC36" s="4" t="inlineStr">
+      <c r="AA36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC36" s="1" t="n"/>
+      <c r="AD36" s="1" t="inlineStr">
         <is>
           <t>双月</t>
         </is>
       </c>
-      <c r="AD36" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE36" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF36" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG36" s="1" t="n"/>
     </row>
     <row r="37">
-      <c r="E37" s="4" t="inlineStr">
+      <c r="F37" s="1" t="inlineStr">
         <is>
           <t>杰克</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G37" s="5" t="inlineStr">
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
         <is>
           <t>*maa://24374</t>
         </is>
       </c>
-      <c r="I37" s="4" t="inlineStr">
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="inlineStr">
         <is>
           <t>黍</t>
         </is>
       </c>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="inlineStr">
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="n"/>
+      <c r="N37" s="1" t="inlineStr">
         <is>
           <t>菲亚梅塔</t>
         </is>
       </c>
-      <c r="N37" s="4" t="inlineStr">
+      <c r="O37" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O37" s="5" t="inlineStr">
+      <c r="P37" s="2" t="inlineStr">
         <is>
           <t>maa://21280, *maa://21239</t>
         </is>
       </c>
-      <c r="Q37" s="4" t="inlineStr">
+      <c r="Q37" s="1" t="n"/>
+      <c r="R37" s="1" t="inlineStr">
         <is>
           <t>雪绒</t>
         </is>
       </c>
-      <c r="R37" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S37" s="5" t="inlineStr">
+      <c r="S37" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
         <is>
           <t>**maa://39354</t>
         </is>
       </c>
-      <c r="Y37" s="4" t="inlineStr">
+      <c r="U37" s="1" t="n"/>
+      <c r="Z37" s="1" t="inlineStr">
         <is>
           <t>波卜</t>
         </is>
       </c>
-      <c r="Z37" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA37" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC37" s="4" t="inlineStr">
+      <c r="AA37" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB37" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC37" s="1" t="n"/>
+      <c r="AD37" s="1" t="inlineStr">
         <is>
           <t>艾拉</t>
         </is>
       </c>
-      <c r="AD37" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE37" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE37" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF37" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG37" s="1" t="n"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>*为好评率不高于80%,**为好评率不高于50%，***为好评率不高于30%</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="6" t="n"/>
+      <c r="F38" s="1" t="inlineStr">
         <is>
           <t>阿米娅(近卫)</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I38" s="4" t="inlineStr">
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="1" t="n"/>
+      <c r="J38" s="1" t="inlineStr">
         <is>
           <t>露托</t>
         </is>
       </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K38" s="5" t="inlineStr">
+      <c r="K38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>maa://39384</t>
         </is>
       </c>
-      <c r="M38" s="4" t="inlineStr">
+      <c r="M38" s="1" t="n"/>
+      <c r="N38" s="1" t="inlineStr">
         <is>
           <t>埃拉托</t>
         </is>
       </c>
-      <c r="N38" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O38" s="5" t="inlineStr">
+      <c r="O38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
         <is>
           <t>*maa://24383</t>
         </is>
       </c>
-      <c r="Q38" s="4" t="inlineStr">
+      <c r="Q38" s="1" t="n"/>
+      <c r="R38" s="1" t="inlineStr">
         <is>
           <t>和弦</t>
         </is>
       </c>
-      <c r="R38" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S38" s="5" t="inlineStr">
+      <c r="S38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
         <is>
           <t>maa://30713</t>
         </is>
       </c>
-      <c r="AC38" s="4" t="inlineStr">
+      <c r="U38" s="1" t="n"/>
+      <c r="AD38" s="1" t="inlineStr">
         <is>
           <t>阿斯卡纶</t>
         </is>
       </c>
-      <c r="AD38" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE38" s="5" t="inlineStr">
+      <c r="AE38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF38" s="2" t="inlineStr">
         <is>
           <t>maa://36697</t>
         </is>
       </c>
+      <c r="AG38" s="1" t="n"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="E39" s="4" t="inlineStr">
+      <c r="C39" s="6" t="n"/>
+      <c r="D39" s="6" t="n"/>
+      <c r="F39" s="1" t="inlineStr">
         <is>
           <t>山</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="G39" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G39" s="5" t="inlineStr">
+      <c r="H39" s="2" t="inlineStr">
         <is>
           <t>maa://25199, maa://36670, maa://30434</t>
         </is>
       </c>
-      <c r="I39" s="4" t="inlineStr">
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="inlineStr">
         <is>
           <t>深巡</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K39" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" s="1" t="n"/>
+      <c r="N39" s="1" t="inlineStr">
         <is>
           <t>承曦格雷伊</t>
         </is>
       </c>
-      <c r="N39" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O39" s="5" t="inlineStr">
+      <c r="O39" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
         <is>
           <t>maa://24709</t>
         </is>
       </c>
-      <c r="Q39" s="4" t="inlineStr">
+      <c r="Q39" s="1" t="n"/>
+      <c r="R39" s="1" t="inlineStr">
         <is>
           <t>林</t>
         </is>
       </c>
-      <c r="R39" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S39" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC39" s="4" t="inlineStr">
+      <c r="S39" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U39" s="1" t="n"/>
+      <c r="AD39" s="1" t="inlineStr">
         <is>
           <t>锡人</t>
         </is>
       </c>
-      <c r="AD39" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE39" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE39" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF39" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG39" s="1" t="n"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>减号-为该干员没有悖论模拟</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="C40" s="7" t="n"/>
+      <c r="D40" s="7" t="n"/>
+      <c r="F40" s="1" t="inlineStr">
         <is>
           <t>战车</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I40" s="4" t="inlineStr">
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="1" t="n"/>
+      <c r="J40" s="1" t="inlineStr">
         <is>
           <t>森西</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K40" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M40" s="4" t="inlineStr">
+      <c r="K40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M40" s="1" t="n"/>
+      <c r="N40" s="1" t="inlineStr">
         <is>
           <t>鸿雪</t>
         </is>
       </c>
-      <c r="N40" s="4" t="inlineStr">
+      <c r="O40" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O40" s="5" t="inlineStr">
+      <c r="P40" s="2" t="inlineStr">
         <is>
           <t>maa://23278, maa://21386, maa://36664</t>
         </is>
       </c>
-      <c r="Q40" s="4" t="inlineStr">
+      <c r="Q40" s="1" t="n"/>
+      <c r="R40" s="1" t="inlineStr">
         <is>
           <t>霍尔海雅</t>
         </is>
       </c>
-      <c r="R40" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S40" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
+      <c r="S40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U40" s="1" t="n"/>
+      <c r="AD40" s="1" t="inlineStr">
         <is>
           <t>云迹</t>
         </is>
       </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG40" s="1" t="n"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="E41" s="4" t="inlineStr">
+      <c r="C41" s="7" t="n"/>
+      <c r="D41" s="7" t="n"/>
+      <c r="F41" s="1" t="inlineStr">
         <is>
           <t>赤冬</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G41" s="5" t="inlineStr">
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
         <is>
           <t>maa://24466</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="inlineStr">
         <is>
           <t>菲莱</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="inlineStr">
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="n"/>
+      <c r="N41" s="1" t="inlineStr">
         <is>
           <t>铅踝</t>
         </is>
       </c>
-      <c r="N41" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O41" s="5" t="inlineStr">
+      <c r="O41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
         <is>
           <t>**maa://35616</t>
         </is>
       </c>
-      <c r="Q41" s="4" t="inlineStr">
+      <c r="Q41" s="1" t="n"/>
+      <c r="R41" s="1" t="inlineStr">
         <is>
           <t>寒檀</t>
         </is>
       </c>
-      <c r="R41" s="4" t="inlineStr">
+      <c r="S41" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S41" s="5" t="inlineStr">
+      <c r="T41" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="U41" s="1" t="n"/>
+      <c r="AD41" s="1" t="inlineStr">
         <is>
           <t>裁度</t>
         </is>
       </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE41" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF41" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG41" s="1" t="n"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="7" t="inlineStr">
-        <is>
-          <t>更新日期：2024.09.16</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="C42" s="8" t="n"/>
+      <c r="D42" s="8" t="n"/>
+      <c r="F42" s="1" t="inlineStr">
         <is>
           <t>帕拉斯</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G42" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M42" s="4" t="inlineStr">
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="n"/>
+      <c r="N42" s="1" t="inlineStr">
         <is>
           <t>子月</t>
         </is>
       </c>
-      <c r="N42" s="4" t="inlineStr">
+      <c r="O42" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O42" s="5" t="inlineStr">
+      <c r="P42" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q42" s="4" t="inlineStr">
+      <c r="Q42" s="1" t="n"/>
+      <c r="R42" s="1" t="inlineStr">
         <is>
           <t>戴菲恩</t>
         </is>
       </c>
-      <c r="R42" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S42" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
+      <c r="S42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U42" s="1" t="n"/>
+      <c r="AD42" s="1" t="inlineStr">
         <is>
           <t>弑君者</t>
         </is>
       </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="AE42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG42" s="1" t="n"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="E43" s="4" t="inlineStr">
+      <c r="C43" s="8" t="n"/>
+      <c r="D43" s="8" t="n"/>
+      <c r="F43" s="1" t="inlineStr">
         <is>
           <t>龙舌兰</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="G43" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G43" s="5" t="inlineStr">
+      <c r="H43" s="2" t="inlineStr">
         <is>
           <t>maa://22525, maa://21284</t>
         </is>
       </c>
-      <c r="M43" s="4" t="inlineStr">
+      <c r="I43" s="1" t="n"/>
+      <c r="N43" s="1" t="inlineStr">
         <is>
           <t>截云</t>
         </is>
       </c>
-      <c r="N43" s="4" t="inlineStr">
+      <c r="O43" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O43" s="5" t="inlineStr">
+      <c r="P43" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q43" s="4" t="inlineStr">
+      <c r="Q43" s="1" t="n"/>
+      <c r="R43" s="1" t="inlineStr">
         <is>
           <t>折光</t>
         </is>
       </c>
-      <c r="R43" s="4" t="inlineStr">
+      <c r="S43" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S43" s="5" t="inlineStr">
+      <c r="T43" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="E44" s="4" t="inlineStr">
+      <c r="U43" s="1" t="n"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="C44" s="8" t="n"/>
+      <c r="D44" s="8" t="n"/>
+      <c r="F44" s="1" t="inlineStr">
         <is>
           <t>羽毛笔</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="G44" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G44" s="5" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>maa://29768, maa://27728</t>
         </is>
       </c>
-      <c r="M44" s="4" t="inlineStr">
+      <c r="I44" s="1" t="n"/>
+      <c r="N44" s="1" t="inlineStr">
         <is>
           <t>泰拉大陆调查团</t>
         </is>
       </c>
-      <c r="N44" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O44" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q44" s="4" t="inlineStr">
+      <c r="O44" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q44" s="1" t="n"/>
+      <c r="R44" s="1" t="inlineStr">
         <is>
           <t>温米</t>
         </is>
       </c>
-      <c r="R44" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S44" s="5" t="inlineStr">
+      <c r="S44" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
         <is>
           <t>maa://39366</t>
         </is>
       </c>
+      <c r="U44" s="1" t="n"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="8" t="n"/>
-      <c r="B45" s="8" t="n"/>
-      <c r="C45" s="8" t="n"/>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+      <c r="F45" s="1" t="inlineStr">
         <is>
           <t>耀骑士临光</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="G45" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G45" s="5" t="inlineStr">
+      <c r="H45" s="2" t="inlineStr">
         <is>
           <t>maa://21229, maa://30807, *maa://22767, maa://42459</t>
         </is>
       </c>
-      <c r="M45" s="4" t="inlineStr">
+      <c r="I45" s="1" t="n"/>
+      <c r="N45" s="1" t="inlineStr">
         <is>
           <t>玫拉</t>
         </is>
       </c>
-      <c r="N45" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O45" s="5" t="inlineStr">
+      <c r="O45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
         <is>
           <t>*maa://36237</t>
         </is>
       </c>
-      <c r="Q45" s="4" t="inlineStr">
+      <c r="Q45" s="1" t="n"/>
+      <c r="R45" s="1" t="inlineStr">
         <is>
           <t>阿罗玛</t>
         </is>
       </c>
-      <c r="R45" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S45" s="5" t="inlineStr">
+      <c r="S45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
         <is>
           <t>**maa://39364</t>
         </is>
       </c>
+      <c r="U45" s="1" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="n"/>
-      <c r="B46" s="8" t="n"/>
-      <c r="C46" s="8" t="n"/>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="B46" s="3" t="n"/>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="3" t="n"/>
+      <c r="F46" s="1" t="inlineStr">
         <is>
           <t>艾丽妮</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G46" s="5" t="inlineStr">
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
         <is>
           <t>maa://35931</t>
         </is>
       </c>
-      <c r="M46" s="4" t="inlineStr">
+      <c r="I46" s="1" t="n"/>
+      <c r="N46" s="1" t="inlineStr">
         <is>
           <t>隐现</t>
         </is>
       </c>
-      <c r="N46" s="4" t="inlineStr">
+      <c r="O46" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O46" s="5" t="inlineStr">
+      <c r="P46" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q46" s="4" t="inlineStr">
+      <c r="Q46" s="1" t="n"/>
+      <c r="R46" s="1" t="inlineStr">
         <is>
           <t>逻各斯</t>
         </is>
       </c>
-      <c r="R46" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S46" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="S46" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U46" s="1" t="n"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="8" t="n"/>
-      <c r="B47" s="8" t="n"/>
-      <c r="C47" s="8" t="n"/>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+      <c r="F47" s="1" t="inlineStr">
         <is>
           <t>百炼嘉维尔</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="G47" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G47" s="5" t="inlineStr">
+      <c r="H47" s="2" t="inlineStr">
         <is>
           <t>maa://27410, maa://29661, maa://28038</t>
         </is>
       </c>
-      <c r="M47" s="4" t="inlineStr">
+      <c r="I47" s="1" t="n"/>
+      <c r="N47" s="1" t="inlineStr">
         <is>
           <t>提丰</t>
         </is>
       </c>
-      <c r="N47" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O47" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q47" s="4" t="inlineStr">
+      <c r="O47" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q47" s="1" t="n"/>
+      <c r="R47" s="1" t="inlineStr">
         <is>
           <t>妮芙</t>
         </is>
       </c>
-      <c r="R47" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S47" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="S47" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U47" s="1" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="n"/>
-      <c r="B48" s="8" t="n"/>
-      <c r="C48" s="8" t="n"/>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" s="3" t="n"/>
+      <c r="F48" s="1" t="inlineStr">
         <is>
           <t>玛恩纳</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G48" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M48" s="4" t="inlineStr">
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="n"/>
+      <c r="N48" s="1" t="inlineStr">
         <is>
           <t>冰酿</t>
         </is>
       </c>
-      <c r="N48" s="4" t="inlineStr">
+      <c r="O48" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O48" s="5" t="inlineStr">
+      <c r="P48" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
+      <c r="Q48" s="1" t="n"/>
+      <c r="R48" s="1" t="inlineStr">
         <is>
           <t>玛露西尔</t>
         </is>
       </c>
-      <c r="R48" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S48" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="S48" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U48" s="1" t="n"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="8" t="n"/>
-      <c r="B49" s="8" t="n"/>
-      <c r="C49" s="8" t="n"/>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="B49" s="3" t="n"/>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+      <c r="F49" s="1" t="inlineStr">
         <is>
           <t>罗小黑</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G49" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M49" s="4" t="inlineStr">
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="n"/>
+      <c r="N49" s="1" t="inlineStr">
         <is>
           <t>跃跃</t>
         </is>
       </c>
-      <c r="N49" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O49" s="5" t="inlineStr">
+      <c r="O49" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
         <is>
           <t>*maa://39643</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="Q49" s="1" t="n"/>
+      <c r="R49" s="1" t="inlineStr">
         <is>
           <t>荒芜拉普兰德</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="S49" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T49" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U49" s="1" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="n"/>
-      <c r="B50" s="8" t="n"/>
-      <c r="C50" s="8" t="n"/>
-      <c r="E50" s="4" t="inlineStr">
+      <c r="B50" s="3" t="n"/>
+      <c r="C50" s="3" t="n"/>
+      <c r="D50" s="3" t="n"/>
+      <c r="F50" s="1" t="inlineStr">
         <is>
           <t>海沫</t>
         </is>
       </c>
-      <c r="F50" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G50" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M50" s="4" t="inlineStr">
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" s="1" t="n"/>
+      <c r="N50" s="1" t="inlineStr">
         <is>
           <t>莱伊</t>
         </is>
       </c>
-      <c r="N50" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O50" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O50" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q50" s="1" t="n"/>
     </row>
     <row r="51">
-      <c r="E51" s="4" t="inlineStr">
+      <c r="F51" s="1" t="inlineStr">
         <is>
           <t>达格达</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G51" s="5" t="inlineStr">
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
         <is>
           <t>*maa://30769</t>
         </is>
       </c>
-      <c r="M51" s="4" t="inlineStr">
+      <c r="I51" s="1" t="n"/>
+      <c r="N51" s="1" t="inlineStr">
         <is>
           <t>维什戴尔</t>
         </is>
       </c>
-      <c r="N51" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O51" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O51" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q51" s="1" t="n"/>
     </row>
     <row r="52">
-      <c r="E52" s="4" t="inlineStr">
+      <c r="F52" s="1" t="inlineStr">
         <is>
           <t>石英</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G52" s="5" t="inlineStr">
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
         <is>
           <t>maa://24376</t>
         </is>
       </c>
-      <c r="M52" s="4" t="inlineStr">
+      <c r="I52" s="1" t="n"/>
+      <c r="N52" s="1" t="inlineStr">
         <is>
           <t>娜仁图亚</t>
         </is>
       </c>
-      <c r="N52" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O52" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="O52" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q52" s="1" t="n"/>
     </row>
     <row r="53">
-      <c r="E53" s="4" t="inlineStr">
+      <c r="F53" s="1" t="inlineStr">
         <is>
           <t>重岳</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="G53" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G53" s="5" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>maa://32534, **maa://32434</t>
         </is>
       </c>
+      <c r="I53" s="1" t="n"/>
     </row>
     <row r="54">
-      <c r="E54" s="4" t="inlineStr">
+      <c r="F54" s="1" t="inlineStr">
         <is>
           <t>铎铃</t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr">
+      <c r="G54" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G54" s="5" t="inlineStr">
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
+      <c r="I54" s="1" t="n"/>
     </row>
     <row r="55">
-      <c r="E55" s="4" t="inlineStr">
+      <c r="F55" s="1" t="inlineStr">
         <is>
           <t>仇白</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G55" s="5" t="inlineStr">
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
         <is>
           <t>maa://32532</t>
         </is>
       </c>
+      <c r="I55" s="1" t="n"/>
     </row>
     <row r="56">
-      <c r="E56" s="4" t="inlineStr">
+      <c r="F56" s="1" t="inlineStr">
         <is>
           <t>火龙S黑角</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G56" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" s="1" t="n"/>
     </row>
     <row r="57">
-      <c r="E57" s="4" t="inlineStr">
+      <c r="F57" s="1" t="inlineStr">
         <is>
           <t>休谟斯</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G57" s="5" t="inlineStr">
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
         <is>
           <t>maa://25176</t>
         </is>
       </c>
+      <c r="I57" s="1" t="n"/>
     </row>
     <row r="58">
-      <c r="E58" s="4" t="inlineStr">
+      <c r="F58" s="1" t="inlineStr">
         <is>
           <t>摩根</t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G58" s="5" t="inlineStr">
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
         <is>
           <t>*maa://37964</t>
         </is>
       </c>
+      <c r="I58" s="1" t="n"/>
     </row>
     <row r="59">
-      <c r="E59" s="4" t="inlineStr">
+      <c r="F59" s="1" t="inlineStr">
         <is>
           <t>圣约送葬人</t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="G59" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G59" s="5" t="inlineStr">
+      <c r="H59" s="2" t="inlineStr">
         <is>
           <t>maa://27746, maa://31270</t>
         </is>
       </c>
+      <c r="I59" s="1" t="n"/>
     </row>
     <row r="60">
-      <c r="E60" s="4" t="inlineStr">
+      <c r="F60" s="1" t="inlineStr">
         <is>
           <t>苍苔</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G60" s="5" t="inlineStr">
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
         <is>
           <t>**maa://40438</t>
         </is>
       </c>
+      <c r="I60" s="1" t="n"/>
     </row>
     <row r="61">
-      <c r="E61" s="4" t="inlineStr">
+      <c r="F61" s="1" t="inlineStr">
         <is>
           <t>赫德雷</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G61" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="1" t="n"/>
     </row>
     <row r="62">
-      <c r="E62" s="4" t="inlineStr">
+      <c r="F62" s="1" t="inlineStr">
         <is>
           <t>止颂</t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G62" s="5" t="inlineStr">
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
         <is>
           <t>maa://42981</t>
         </is>
       </c>
+      <c r="I62" s="1" t="n"/>
     </row>
     <row r="63">
-      <c r="E63" s="4" t="inlineStr">
+      <c r="F63" s="1" t="inlineStr">
         <is>
           <t>薇薇安娜</t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G63" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="1" t="n"/>
     </row>
     <row r="64">
-      <c r="E64" s="4" t="inlineStr">
+      <c r="F64" s="1" t="inlineStr">
         <is>
           <t>烈夏</t>
         </is>
       </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G64" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="1" t="n"/>
     </row>
     <row r="65">
-      <c r="E65" s="4" t="inlineStr">
+      <c r="F65" s="1" t="inlineStr">
         <is>
           <t>锏</t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G65" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="1" t="n"/>
     </row>
     <row r="66">
-      <c r="E66" s="4" t="inlineStr">
+      <c r="F66" s="1" t="inlineStr">
         <is>
           <t>左乐</t>
         </is>
       </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G66" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="1" t="n"/>
     </row>
     <row r="67">
-      <c r="E67" s="4" t="inlineStr">
+      <c r="F67" s="1" t="inlineStr">
         <is>
           <t>导火索</t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G67" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="1" t="n"/>
     </row>
     <row r="68">
-      <c r="E68" s="4" t="inlineStr">
+      <c r="F68" s="1" t="inlineStr">
         <is>
           <t>医生</t>
         </is>
       </c>
-      <c r="F68" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G68" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" s="1" t="n"/>
     </row>
     <row r="69">
-      <c r="E69" s="4" t="inlineStr">
+      <c r="F69" s="1" t="inlineStr">
         <is>
           <t>奥达</t>
         </is>
       </c>
-      <c r="F69" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G69" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G69" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" s="1" t="n"/>
     </row>
     <row r="70">
-      <c r="E70" s="4" t="inlineStr">
+      <c r="F70" s="1" t="inlineStr">
         <is>
           <t>乌尔比安</t>
         </is>
       </c>
-      <c r="F70" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G70" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" s="1" t="n"/>
     </row>
     <row r="71">
-      <c r="E71" s="4" t="inlineStr">
+      <c r="F71" s="1" t="inlineStr">
         <is>
           <t>佩佩</t>
         </is>
       </c>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G71" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" s="1" t="n"/>
     </row>
     <row r="72">
-      <c r="E72" s="4" t="inlineStr">
+      <c r="F72" s="1" t="inlineStr">
         <is>
           <t>莱欧斯</t>
         </is>
       </c>
-      <c r="F72" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G72" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G72" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" s="1" t="n"/>
     </row>
     <row r="73">
-      <c r="E73" s="4" t="inlineStr">
+      <c r="F73" s="1" t="inlineStr">
         <is>
           <t>维娜·维多利亚</t>
         </is>
       </c>
-      <c r="F73" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G73" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="A42:C44"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9930" yWindow="3165" windowWidth="23925" windowHeight="16665" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.02 22:43:40</t>
+          <t>更新日期：2024.11.02 22:47:19</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324</t>
+          <t>***maa://42324</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -6476,9 +6476,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.02 22:47:19</t>
+          <t>更新日期：2024.11.03 01:13:15</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -842,12 +842,12 @@
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617, **maa://20790, ***maa://37170</t>
+          <t>maa://24617, **maa://20790</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.03 01:13:15</t>
+          <t>更新日期：2024.11.03 14:53:27</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>maa://28977, *maa://23264, maa://36669</t>
+          <t>maa://28977, maa://36669, *maa://23264</t>
         </is>
       </c>
       <c r="Q10" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -842,12 +842,12 @@
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617, **maa://20790</t>
+          <t>maa://24617, **maa://20790, ***maa://37170</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509, maa://22754, maa://27295, *maa://21746, *maa://31008</t>
+          <t>maa://32509, maa://27295, maa://22754, *maa://21746, *maa://31008</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -988,12 +988,12 @@
       </c>
       <c r="W4" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495, ***maa://31785, ***maa://36683</t>
+          <t>**maa://32495, ***maa://31785, ***maa://36683, maa://43217</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191, *maa://36671, *maa://42530</t>
+          <t>*maa://26191, *maa://36671, **maa://42530</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.03 14:53:27</t>
+          <t>更新日期：2024.11.09 17:55:06</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, **maa://39243</t>
+          <t>**maa://32237, ***maa://39243</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -2494,12 +2494,12 @@
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43216</t>
         </is>
       </c>
       <c r="I16" s="1" t="n"/>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>***maa://42324</t>
+          <t>**maa://42324</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>maa://38495</t>
+          <t>*maa://38495</t>
         </is>
       </c>
       <c r="U22" s="1" t="n"/>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988, maa://23504, **maa://22892, *maa://25141, *maa://36663, ***maa://22815</t>
+          <t>maa://29988, maa://23504, **maa://22892, *maa://25141, maa://36663, ***maa://22815</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3712,12 +3712,12 @@
       </c>
       <c r="S25" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109, maa://22545</t>
+          <t>maa://20109, maa://22545, maa://42915</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
-          <t>*maa://39477</t>
+          <t>maa://39477</t>
         </is>
       </c>
       <c r="Y30" s="1" t="n"/>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108, maa://41238, maa://42859</t>
+          <t>maa://41108, maa://42859, maa://41238</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -5512,12 +5512,12 @@
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616</t>
+          <t>**maa://35616, *maa://43177</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5667,11 +5667,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="T43" s="2" t="inlineStr"/>
       <c r="U43" s="1" t="n"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
@@ -5742,7 +5738,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229, maa://30807, *maa://22767, maa://42459</t>
+          <t>maa://21229, maa://30807, *maa://22767, *maa://42459</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.09 17:55:06</t>
+          <t>更新日期：2024.11.10 13:16:41</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.10 13:16:41</t>
+          <t>更新日期：2024.11.13 13:18:25</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, **maa://27377, ***maa://25174, **maa://39938, maa://40166</t>
+          <t>maa://28711, **maa://27377, **maa://39938, ***maa://25174, maa://40166</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324</t>
+          <t>***maa://42324</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>*maa://38495</t>
+          <t>maa://38495</t>
         </is>
       </c>
       <c r="U22" s="1" t="n"/>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926, *maa://36258</t>
+          <t>maa://35926, maa://36258</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -5664,10 +5664,14 @@
       </c>
       <c r="S43" s="1" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T43" s="2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>maa://43198</t>
+        </is>
+      </c>
       <c r="U43" s="1" t="n"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
@@ -6231,7 +6235,7 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>**maa://40438</t>
+          <t>*maa://40438</t>
         </is>
       </c>
       <c r="I60" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -993,7 +993,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495, ***maa://31785, ***maa://36683, maa://43217</t>
+          <t>**maa://32495, ***maa://31785, ***maa://36683, *maa://43217</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.13 13:18:25</t>
+          <t>更新日期：2024.11.14 13:18:07</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -993,7 +993,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495, ***maa://31785, ***maa://36683, *maa://43217</t>
+          <t>**maa://32495, ***maa://31785, ***maa://36683, maa://43217</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.14 13:18:07</t>
+          <t>更新日期：2024.11.15 13:19:01</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931, *maa://21916, maa://23252, **maa://22759, maa://37496</t>
+          <t>maa://32931, *maa://21916, maa://23252, maa://37496, **maa://22759</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, **maa://27377, **maa://39938, ***maa://25174, maa://40166</t>
+          <t>maa://28711, **maa://39938, **maa://27377, ***maa://25174, maa://40166</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1698,12 +1698,12 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://39243</t>
+          <t>**maa://32237, ***maa://39951, ***maa://39243</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
-          <t>maa://22516, maa://29912, *maa://20794</t>
+          <t>maa://29912, maa://22516, *maa://20794</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>***maa://42324</t>
+          <t>**maa://42324</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1420,7 +1420,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191, *maa://36671, **maa://42530</t>
+          <t>*maa://26191, *maa://36671, *maa://42530</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.15 13:19:01</t>
+          <t>更新日期：2024.11.16 13:18:21</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.16 13:18:21</t>
+          <t>更新日期：2024.11.17 00:06:00</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://39951, ***maa://39243</t>
+          <t>**maa://32237, ***maa://39243</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.17 00:06:00</t>
+          <t>更新日期：2024.11.17 13:18:12</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.17 13:18:12</t>
+          <t>更新日期：2024.11.19 13:18:32</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743, maa://22734, *maa://30808</t>
+          <t>*maa://22743, maa://22734, *maa://30808, ***maa://36048</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036, *maa://41753</t>
+          <t>***maa://28036, **maa://41753</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>*maa://21956, maa://22730</t>
+          <t>*maa://21956, *maa://22730</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>*maa://30769</t>
+          <t>maa://30769</t>
         </is>
       </c>
       <c r="I51" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.19 13:18:32</t>
+          <t>更新日期：2024.11.20 13:18:41</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.20 13:18:41</t>
+          <t>更新日期：2024.11.21 13:18:54</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.21 13:18:54</t>
+          <t>更新日期：2024.11.22 13:18:20</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.22 13:18:20</t>
+          <t>更新日期：2024.11.23 13:18:17</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.23 13:18:17</t>
+          <t>更新日期：2024.11.23 17:16:53</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.23 13:18:17</t>
+          <t>更新日期：2024.11.24 12:07:34</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -5790,12 +5790,12 @@
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931</t>
+          <t>maa://35931, maa://43901</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 12:07:34</t>
+          <t>更新日期：2024.11.24 13:17:50</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="AF32" s="2" t="inlineStr">
         <is>
-          <t>maa://42408</t>
+          <t>*maa://42408</t>
         </is>
       </c>
       <c r="AG32" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 12:07:34</t>
+          <t>更新日期：2024.11.24 15:31:26</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="AF32" s="2" t="inlineStr">
         <is>
-          <t>maa://42408</t>
+          <t>*maa://42408</t>
         </is>
       </c>
       <c r="AG32" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -842,12 +842,12 @@
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617, **maa://20790, ***maa://37170</t>
+          <t>maa://24617, **maa://20790</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 15:31:26</t>
+          <t>更新日期：2024.11.30 13:17:44</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080, maa://42865</t>
+          <t>*maa://24080, *maa://42865</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4460,12 +4460,12 @@
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926, maa://36258</t>
+          <t>maa://35926, maa://36258, maa://43904</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 13:17:44</t>
+          <t>更新日期：2024.11.30 17:56:43</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, **maa://39938, **maa://27377, ***maa://25174, maa://40166</t>
+          <t>maa://28711, *maa://39938, **maa://27377, ***maa://25174, maa://40166</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 17:56:43</t>
+          <t>更新日期：2024.11.30 23:36:59</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 23:36:59</t>
+          <t>更新日期：2024.12.01 15:12:11</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://41108, maa://42859, maa://41238</t>
+          <t>maa://42859, maa://41108, maa://41238</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.01 15:12:11</t>
+          <t>更新日期：2024.12.01 15:16:43</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.01 15:16:43</t>
+          <t>更新日期：2024.12.07 13:18:04</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="AA9" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, *maa://39938, **maa://27377, ***maa://25174, maa://40166</t>
+          <t>maa://28711, **maa://39938, **maa://27377, maa://40166</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245, maa://21288, maa://36682, maa://39841</t>
+          <t>maa://26245, maa://21288, maa://39841, maa://36682</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036, **maa://41753</t>
+          <t>***maa://28036, *maa://41753</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523, *maa://36672, maa://29910, **maa://21440</t>
+          <t>maa://22523, maa://36672, maa://29910, **maa://21440</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -4761,6 +4761,22 @@
         </is>
       </c>
       <c r="U33" s="1" t="n"/>
+      <c r="V33" s="1" t="inlineStr">
+        <is>
+          <t>瑰盐</t>
+        </is>
+      </c>
+      <c r="W33" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X33" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y33" s="1" t="n"/>
       <c r="Z33" s="1" t="inlineStr">
         <is>
           <t>魔王</t>
@@ -5181,7 +5197,7 @@
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>**maa://39354</t>
+          <t>***maa://39354</t>
         </is>
       </c>
       <c r="U37" s="1" t="n"/>
@@ -5673,6 +5689,22 @@
         </is>
       </c>
       <c r="U43" s="1" t="n"/>
+      <c r="AD43" s="1" t="inlineStr">
+        <is>
+          <t>引星棘刺</t>
+        </is>
+      </c>
+      <c r="AE43" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF43" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG43" s="1" t="n"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="C44" s="8" t="n"/>
@@ -5795,7 +5827,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931, maa://43901</t>
+          <t>maa://35931, *maa://43901</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6027,6 +6059,22 @@
         </is>
       </c>
       <c r="Q50" s="1" t="n"/>
+      <c r="R50" s="1" t="inlineStr">
+        <is>
+          <t>特克诺</t>
+        </is>
+      </c>
+      <c r="S50" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T50" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U50" s="1" t="n"/>
     </row>
     <row r="51">
       <c r="F51" s="1" t="inlineStr">
@@ -6266,12 +6314,12 @@
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981</t>
+          <t>maa://42981, maa://43903</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>
@@ -6302,12 +6350,12 @@
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.07 13:18:04</t>
+          <t>更新日期：2024.12.07 23:48:34</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.07 23:48:34</t>
+          <t>更新日期：2024.12.08 13:18:47</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>maa://24368</t>
+          <t>*maa://24368</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.08 13:18:47</t>
+          <t>更新日期：2024.12.08 15:46:46</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -6350,12 +6350,12 @@
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://44405</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.08 15:46:46</t>
+          <t>更新日期：2024.12.12 13:20:00</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>maa://30766, **maa://36678</t>
+          <t>maa://30766, *maa://36678</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168, **maa://30050</t>
+          <t>*maa://23168, *maa://30050</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>maa://35926, maa://36258, maa://43904</t>
+          <t>maa://35926, maa://36258, *maa://43904</t>
         </is>
       </c>
       <c r="M31" s="1" t="n"/>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>**maa://35616, *maa://43177</t>
+          <t>**maa://35616, maa://43177</t>
         </is>
       </c>
       <c r="Q41" s="1" t="n"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>maa://35931, *maa://43901</t>
+          <t>maa://35931, maa://43901</t>
         </is>
       </c>
       <c r="I46" s="1" t="n"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>maa://44405</t>
+          <t>**maa://44405</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.12 13:20:00</t>
+          <t>更新日期：2024.12.13 13:19:35</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>**maa://44405</t>
+          <t>maa://44405</t>
         </is>
       </c>
       <c r="I64" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.13 13:19:35</t>
+          <t>更新日期：2024.12.14 13:22:12</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199, maa://36670, maa://30434</t>
+          <t>maa://25199, maa://36670, maa://30434, **maa://44165</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.14 13:22:12</t>
+          <t>更新日期：2024.12.15 13:19:36</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.15 13:19:36</t>
+          <t>更新日期：2024.12.18 13:18:43</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.18 13:18:43</t>
+          <t>更新日期：2024.12.19 13:19:06</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743, maa://22734, *maa://30808, ***maa://36048</t>
+          <t>*maa://22743, maa://22734, *maa://30808, **maa://36048</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443, ***maa://23820</t>
+          <t>maa://21443, ***maa://23820</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.19 13:19:06</t>
+          <t>更新日期：2024.12.20 08:28:42</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.19 13:19:06</t>
+          <t>更新日期：2024.12.20 08:32:28</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -760,12 +760,12 @@
       </c>
       <c r="AE2" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251, *maa://36675</t>
+          <t>maa://25251, ***maa://21730, *maa://36675</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.20 08:32:28</t>
+          <t>更新日期：2024.12.21 13:17:14</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -842,12 +842,12 @@
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617, **maa://20790</t>
+          <t>maa://24617, **maa://20790, ***maa://37170</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.21 13:17:14</t>
+          <t>更新日期：2024.12.22 13:16:54</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AF9" s="2" t="inlineStr">
         <is>
-          <t>maa://26206, **maa://22865</t>
+          <t>maa://26206, *maa://22865</t>
         </is>
       </c>
       <c r="AG9" s="1" t="n"/>
@@ -1698,12 +1698,12 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://39243</t>
+          <t>**maa://32237, ***maa://34206, ***maa://39243</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.22 13:16:54</t>
+          <t>更新日期：2024.12.23 13:18:33</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -842,12 +842,12 @@
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617, **maa://20790, ***maa://37170</t>
+          <t>maa://24617, **maa://20790</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.23 13:18:33</t>
+          <t>更新日期：2024.12.24 13:17:51</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199, maa://36670, maa://30434, **maa://44165</t>
+          <t>maa://25199, maa://36670, maa://30434, *maa://44165</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.24 13:17:51</t>
+          <t>更新日期：2024.12.29 14:56:16</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988, maa://23504, **maa://22892, *maa://25141, maa://36663, ***maa://22815</t>
+          <t>maa://29988, maa://23504, **maa://22892, *maa://25141, *maa://36663, ***maa://22815</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -4394,12 +4394,12 @@
       </c>
       <c r="AA30" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979</t>
+          <t>maa://42979, maa://45045</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -5328,12 +5328,12 @@
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199, maa://36670, maa://30434, *maa://44165</t>
+          <t>maa://25199, maa://36670, maa://30434, *maa://44165, maa://45059</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.29 14:56:16</t>
+          <t>更新日期：2024.12.31 13:17:57</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.31 13:17:57</t>
+          <t>更新日期：2025.01.01 13:19:57</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.01 13:19:57</t>
+          <t>更新日期：2025.01.03 13:17:45</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743, maa://22734, *maa://30808, **maa://36048</t>
+          <t>*maa://22743, maa://22734, *maa://30808, **maa://36048, maa://45058</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -3664,12 +3664,12 @@
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063, *maa://25311</t>
+          <t>*maa://29063, *maa://25311, maa://45047</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.03 13:17:45</t>
+          <t>更新日期：2025.01.04 13:16:59</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199, maa://36670, maa://30434, *maa://44165, maa://45059</t>
+          <t>maa://25199, maa://36670, maa://30434, *maa://44165, *maa://45059</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1415,12 +1415,12 @@
       </c>
       <c r="AE7" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191, *maa://36671, *maa://42530</t>
+          <t>*maa://26191, *maa://36671, *maa://42530, maa://45272</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.04 13:16:59</t>
+          <t>更新日期：2025.01.05 13:20:09</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://34206, ***maa://39243</t>
+          <t>**maa://32237, ***maa://34206, ***maa://39243, maa://45271</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443, ***maa://23820</t>
+          <t>*maa://21443, ***maa://23820</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.05 13:20:09</t>
+          <t>更新日期：2025.01.06 13:18:43</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>*maa://34957, *maa://22768</t>
+          <t>maa://34957, *maa://22768</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.06 13:18:43</t>
+          <t>更新日期：2025.01.07 13:17:31</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.07 13:17:31</t>
+          <t>更新日期：2025.01.09 13:18:22</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>*maa://21443, ***maa://23820</t>
+          <t>maa://21443, ***maa://23820</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108, maa://24621, maa://36676, maa://22771, maa://37772</t>
+          <t>maa://20108, maa://24621, maa://36676, maa://22771, **maa://37772</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.09 13:18:22</t>
+          <t>更新日期：2025.01.11 13:17:38</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://34206, ***maa://39243, maa://45271</t>
+          <t>**maa://32237, ***maa://34206, ***maa://39243, *maa://45271</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.11 13:17:38</t>
+          <t>更新日期：2025.01.12 13:18:28</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://34206, ***maa://39243, *maa://45271</t>
+          <t>**maa://32237, ***maa://34206, ***maa://39243, **maa://45271</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229, maa://30807, *maa://22767, *maa://42459</t>
+          <t>maa://21229, maa://30807, *maa://22767, maa://42459</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.12 13:18:28</t>
+          <t>更新日期：2025.01.17 13:17:18</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466, *maa://22732</t>
+          <t>maa://22466, **maa://22732</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080, *maa://42865</t>
+          <t>*maa://24080, maa://42865</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>*maa://21956, *maa://22730</t>
+          <t>maa://21956, *maa://22730</t>
         </is>
       </c>
       <c r="Q33" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.17 13:17:18</t>
+          <t>更新日期：2025.01.18 13:16:09</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>***maa://39354</t>
+          <t>**maa://39354</t>
         </is>
       </c>
       <c r="U37" s="1" t="n"/>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>maa://23278, maa://21386, maa://36664</t>
+          <t>maa://23278, maa://21386, maa://36664, maa://45550</t>
         </is>
       </c>
       <c r="Q40" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.18 13:16:09</t>
+          <t>更新日期：2025.01.18 14:49:21</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -760,12 +760,12 @@
       </c>
       <c r="AE2" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251, ***maa://21730, *maa://36675</t>
+          <t>maa://25251, ***maa://21730, ***maa://39501, *maa://36675</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>maa://21919, maa://21281</t>
+          <t>maa://21919, *maa://21281</t>
         </is>
       </c>
       <c r="Q5" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.18 14:49:21</t>
+          <t>更新日期：2025.01.25 08:45:24</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45557</t>
         </is>
       </c>
       <c r="Q11" s="1" t="n"/>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="S11" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747, maa://22501</t>
+          <t>maa://22747, maa://22501, *maa://45521</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364, *maa://22766, *maa://36666</t>
+          <t>maa://21364, *maa://36666, *maa://22766</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466, **maa://22732</t>
+          <t>maa://22466, *maa://22732</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063, *maa://25311, maa://45047</t>
+          <t>*maa://29063, *maa://25311, **maa://45047</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283, maa://34494, *maa://39601, **maa://36665</t>
+          <t>**maa://21283, *maa://39601, maa://34494, **maa://36665</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -4298,12 +4298,12 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://45792</t>
         </is>
       </c>
       <c r="E30" s="1" t="n"/>
@@ -4524,12 +4524,12 @@
       </c>
       <c r="AA31" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB31" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC31" s="1" t="n"/>
@@ -4622,12 +4622,12 @@
       </c>
       <c r="S32" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>maa://42859, maa://41108, maa://41238</t>
+          <t>maa://42859, maa://41108, maa://41238, maa://45523</t>
         </is>
       </c>
       <c r="U32" s="1" t="n"/>
@@ -4752,12 +4752,12 @@
       </c>
       <c r="S33" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45558</t>
         </is>
       </c>
       <c r="U33" s="1" t="n"/>
@@ -5039,6 +5039,22 @@
       <c r="AG35" s="1" t="n"/>
     </row>
     <row r="36">
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>寻澜</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="n"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
           <t>鞭刃</t>
@@ -5160,12 +5176,12 @@
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://45718, maa://45789</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5301,6 +5317,22 @@
         </is>
       </c>
       <c r="U38" s="1" t="n"/>
+      <c r="Z38" s="1" t="inlineStr">
+        <is>
+          <t>行箸</t>
+        </is>
+      </c>
+      <c r="AA38" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB38" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC38" s="1" t="n"/>
       <c r="AD38" s="1" t="inlineStr">
         <is>
           <t>阿斯卡纶</t>
@@ -5333,7 +5365,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://25199, maa://36670, maa://30434, *maa://44165, *maa://45059</t>
+          <t>maa://36670, maa://25199, maa://30434, *maa://45059, *maa://44165</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5376,12 +5408,12 @@
       </c>
       <c r="S39" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>*maa://45788</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5589,6 +5621,22 @@
         </is>
       </c>
       <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
+          <t>余</t>
+        </is>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M42" s="1" t="n"/>
       <c r="N42" s="1" t="inlineStr">
         <is>
           <t>子月</t>
@@ -6109,6 +6157,22 @@
         </is>
       </c>
       <c r="Q51" s="1" t="n"/>
+      <c r="R51" s="1" t="inlineStr">
+        <is>
+          <t>烛煌</t>
+        </is>
+      </c>
+      <c r="S51" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T51" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U51" s="1" t="n"/>
     </row>
     <row r="52">
       <c r="F52" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -842,12 +842,12 @@
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617, **maa://20790</t>
+          <t>maa://24617, **maa://20790, maa://45854</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.25 08:45:24</t>
+          <t>更新日期：2025.01.26 08:43:45</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://34206, ***maa://39243, **maa://45271</t>
+          <t>**maa://32237, ***maa://34206, ***maa://39243, *maa://45271</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1778,12 +1778,12 @@
       </c>
       <c r="W10" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301, maa://22726</t>
+          <t>maa://22301, maa://22726, maa://45828</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -3630,12 +3630,12 @@
       </c>
       <c r="AE24" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523, maa://36672, maa://29910, **maa://21440</t>
+          <t>maa://22523, maa://36672, maa://29910, **maa://21440, maa://45831</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>*maa://30770</t>
+          <t>maa://30770</t>
         </is>
       </c>
       <c r="M28" s="1" t="n"/>
@@ -4394,12 +4394,12 @@
       </c>
       <c r="AA30" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979, maa://45045</t>
+          <t>maa://42979, maa://45045, maa://45822</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -5408,12 +5408,12 @@
       </c>
       <c r="S39" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>*maa://45788</t>
+          <t>*maa://45788, *maa://45790</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.26 08:43:45</t>
+          <t>更新日期：2025.01.27 13:17:55</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="X15" s="2" t="inlineStr">
         <is>
-          <t>*maa://38786</t>
+          <t>maa://38786</t>
         </is>
       </c>
       <c r="Y15" s="1" t="n"/>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>*maa://45788, *maa://45790</t>
+          <t>*maa://45788, maa://45790</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.27 13:17:55</t>
+          <t>更新日期：2025.01.28 13:17:19</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="AF10" s="2" t="inlineStr">
         <is>
-          <t>*maa://25021, *maa://22733, maa://22761</t>
+          <t>*maa://25021, *maa://22733, **maa://22761</t>
         </is>
       </c>
       <c r="AG10" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.28 13:17:19</t>
+          <t>更新日期：2025.01.30 13:18:46</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29063, *maa://25311, **maa://45047</t>
+          <t>*maa://29063, *maa://25311, *maa://45047</t>
         </is>
       </c>
       <c r="I25" s="1" t="n"/>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="AF25" s="2" t="inlineStr">
         <is>
-          <t>maa://20108, maa://24621, maa://36676, maa://22771, **maa://37772</t>
+          <t>maa://20108, maa://24621, maa://36676, maa://22771, *maa://37772</t>
         </is>
       </c>
       <c r="AG25" s="1" t="n"/>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979, maa://45045, maa://45822</t>
+          <t>maa://42979, maa://45822, maa://45045</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>*maa://45788, maa://45790</t>
+          <t>maa://45788, maa://45790</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.30 13:18:46</t>
+          <t>更新日期：2025.01.31 13:17:43</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.31 13:17:43</t>
+          <t>更新日期：2025.02.01 13:16:44</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476, **maa://39431, *maa://37551</t>
+          <t>*maa://21476, *maa://39431, *maa://37551</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.01 13:16:44</t>
+          <t>更新日期：2025.02.02 13:17:29</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -760,12 +760,12 @@
       </c>
       <c r="AE2" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251, ***maa://21730, ***maa://39501, *maa://36675</t>
+          <t>maa://25251, ***maa://21730, **maa://36675</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495, ***maa://31785, ***maa://36683, maa://43217</t>
+          <t>**maa://32495, ***maa://31785, maa://43217, ***maa://36683</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.02 13:17:29</t>
+          <t>更新日期：2025.02.08 13:16:19</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="AA9" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, **maa://39938, **maa://27377, maa://40166</t>
+          <t>maa://28711, **maa://39938, **maa://27377, maa://40166, *maa://45044</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1698,12 +1698,12 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>**maa://32237, ***maa://34206, ***maa://39243, *maa://45271</t>
+          <t>***maa://34206, ***maa://39243, *maa://45271</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747, maa://22501, *maa://45521</t>
+          <t>maa://22747, maa://22501, maa://45521</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1974,12 +1974,12 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867</t>
+          <t>maa://21867, **maa://45826</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523, maa://36672, maa://29910, **maa://21440, maa://45831</t>
+          <t>maa://22523, maa://36672, maa://29910, **maa://21440, *maa://45831</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>maa://20109, maa://22545, maa://42915</t>
+          <t>maa://20109, maa://22545, *maa://42915</t>
         </is>
       </c>
       <c r="U25" s="1" t="n"/>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215, *maa://24516, maa://26001</t>
+          <t>maa://31215, maa://24516, maa://26001</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979, maa://45822, maa://45045</t>
+          <t>maa://42979, maa://45822, *maa://45045</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -5728,12 +5728,12 @@
       </c>
       <c r="S43" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>maa://43198</t>
+          <t>maa://43198, maa://46286</t>
         </is>
       </c>
       <c r="U43" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.08 13:16:19</t>
+          <t>更新日期：2025.02.09 13:17:45</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -3518,12 +3518,12 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368</t>
+          <t>*maa://24368, **maa://46650</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.09 13:17:45</t>
+          <t>更新日期：2025.02.12 13:18:17</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762, maa://39552</t>
+          <t>maa://22762, *maa://39552</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747, maa://22501, maa://45521</t>
+          <t>maa://22747, maa://22501, *maa://45521</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867, **maa://45826</t>
+          <t>maa://21867, ***maa://45826</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670, maa://25199, maa://30434, *maa://45059, *maa://44165</t>
+          <t>maa://36670, maa://25199, maa://30434, maa://45059, *maa://44165</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>maa://27746, maa://31270</t>
+          <t>maa://31270, maa://27746</t>
         </is>
       </c>
       <c r="I59" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1420,7 +1420,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191, *maa://36671, *maa://42530, maa://45272</t>
+          <t>*maa://26191, *maa://36671, maa://45272, *maa://42530</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.12 13:18:17</t>
+          <t>更新日期：2025.02.14 13:17:46</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG73"/>
+  <dimension ref="A1:AG74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A7"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.14 13:17:46</t>
+          <t>更新日期：2025.02.15 13:17:50</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
-          <t>maa://22301, maa://22726, maa://45828</t>
+          <t>maa://22301, maa://45828, maa://22726</t>
         </is>
       </c>
       <c r="Y10" s="1" t="n"/>
@@ -4891,6 +4891,22 @@
         </is>
       </c>
       <c r="U34" s="1" t="n"/>
+      <c r="V34" s="1" t="inlineStr">
+        <is>
+          <t>诺威尔</t>
+        </is>
+      </c>
+      <c r="W34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X34" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y34" s="1" t="n"/>
       <c r="Z34" s="1" t="inlineStr">
         <is>
           <t>海霓</t>
@@ -6585,6 +6601,24 @@
         </is>
       </c>
       <c r="I73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>隐德来希</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.15 13:17:50</t>
+          <t>更新日期：2025.02.15 19:34:59</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="S39" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788, maa://45790</t>
+          <t>maa://45788, *maa://45790, **maa://47079</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.15 19:34:59</t>
+          <t>更新日期：2025.02.16 13:17:39</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -5192,12 +5192,12 @@
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718, maa://45789</t>
+          <t>maa://45718, maa://45789, maa://47069</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5408,12 +5408,12 @@
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>maa://24709</t>
+          <t>maa://24709, maa://47093</t>
         </is>
       </c>
       <c r="Q39" s="1" t="n"/>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788, *maa://45790, **maa://47079</t>
+          <t>maa://45788, *maa://45790, *maa://47079</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.16 13:17:39</t>
+          <t>更新日期：2025.02.22 13:17:25</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>maa://22747, maa://22501, *maa://45521</t>
+          <t>maa://22747, maa://22501, maa://45521</t>
         </is>
       </c>
       <c r="U11" s="1" t="n"/>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>maa://23263, *maa://29765</t>
+          <t>*maa://29765, maa://23263</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718, maa://45789, maa://47069</t>
+          <t>maa://45718, *maa://47069, maa://45789</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788, *maa://45790, *maa://47079</t>
+          <t>maa://45788, *maa://45790, maa://47079</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5728,12 +5728,12 @@
       </c>
       <c r="O43" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://47403</t>
         </is>
       </c>
       <c r="Q43" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.22 13:17:25</t>
+          <t>更新日期：2025.02.27 13:19:23</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1587,11 +1587,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="H9" s="2" t="inlineStr"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -2433,7 +2429,7 @@
       </c>
       <c r="X15" s="2" t="inlineStr">
         <is>
-          <t>maa://38786</t>
+          <t>*maa://38786</t>
         </is>
       </c>
       <c r="Y15" s="1" t="n"/>
@@ -3295,7 +3291,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>maa://27127, *maa://22751</t>
+          <t>*maa://27127, *maa://22751</t>
         </is>
       </c>
       <c r="M22" s="1" t="n"/>
@@ -3523,7 +3519,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368, **maa://46650</t>
+          <t>*maa://24368, *maa://46650</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -783,7 +783,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>maa://36987, maa://40192, maa://39849</t>
+          <t>maa://40192, maa://36987, maa://39849</t>
         </is>
       </c>
       <c r="E3" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.27 13:19:23</t>
+          <t>更新日期：2025.03.01 13:17:29</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788, *maa://45790, maa://47079</t>
+          <t>maa://45788, maa://47079, *maa://45790</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.01 13:17:29</t>
+          <t>更新日期：2025.03.02 13:19:18</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.02 13:19:18</t>
+          <t>更新日期：2025.03.06 13:18:49</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1694,12 +1694,12 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://34206, ***maa://39243, *maa://45271</t>
+          <t>***maa://39243, *maa://45271</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867, ***maa://45826</t>
+          <t>maa://21867, **maa://45826</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368, *maa://46650</t>
+          <t>*maa://24368, **maa://46650</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432, *maa://28440, maa://31400, *maa://28650</t>
+          <t>maa://28432, maa://28440, maa://31400, *maa://28650</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.06 13:18:49</t>
+          <t>更新日期：2025.03.07 13:21:00</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -4862,12 +4862,12 @@
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q34" s="1" t="n"/>
@@ -5817,6 +5817,22 @@
         </is>
       </c>
       <c r="U44" s="1" t="n"/>
+      <c r="AD44" s="1" t="inlineStr">
+        <is>
+          <t>钼铅</t>
+        </is>
+      </c>
+      <c r="AE44" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF44" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG44" s="1" t="n"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="B45" s="3" t="n"/>
@@ -6219,6 +6235,22 @@
         </is>
       </c>
       <c r="Q52" s="1" t="n"/>
+      <c r="R52" s="1" t="inlineStr">
+        <is>
+          <t>死芒</t>
+        </is>
+      </c>
+      <c r="S52" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T52" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U52" s="1" t="n"/>
     </row>
     <row r="53">
       <c r="F53" s="1" t="inlineStr">
@@ -6237,6 +6269,22 @@
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
+      <c r="N53" s="1" t="inlineStr">
+        <is>
+          <t>水灯心</t>
+        </is>
+      </c>
+      <c r="O53" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P53" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q53" s="1" t="n"/>
     </row>
     <row r="54">
       <c r="F54" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.07 13:21:00</t>
+          <t>更新日期：2025.03.08 13:15:15</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="X13" s="2" t="inlineStr">
         <is>
-          <t>maa://34957, *maa://22768</t>
+          <t>maa://34957, **maa://22768</t>
         </is>
       </c>
       <c r="Y13" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.08 13:15:15</t>
+          <t>更新日期：2025.03.08 16:37:02</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="AF32" s="2" t="inlineStr">
         <is>
-          <t>*maa://42408</t>
+          <t>maa://42408</t>
         </is>
       </c>
       <c r="AG32" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633, *maa://30515, *maa://34787, maa://39402, ***maa://29083</t>
+          <t>*maa://24633, *maa://30515, maa://39402, *maa://34787, ***maa://29083</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.08 16:37:02</t>
+          <t>更新日期：2025.03.15 13:17:29</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867, **maa://45826</t>
+          <t>maa://21867, ***maa://45826</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324</t>
+          <t>*maa://42324</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2846,12 +2846,12 @@
       </c>
       <c r="AE18" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313, **maa://29784</t>
+          <t>*maa://24313, **maa://29784, maa://47854</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>*maa://24368, **maa://46650</t>
+          <t>*maa://24368, *maa://46650</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523, maa://36672, maa://29910, **maa://21440, *maa://45831</t>
+          <t>maa://22523, maa://36672, maa://29910, **maa://21440, maa://45831</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.15 13:17:29</t>
+          <t>更新日期：2025.03.16 13:17:23</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -826,12 +826,12 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249, maa://26254</t>
+          <t>maa://21249, maa://26254, **maa://22738</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.16 13:17:23</t>
+          <t>更新日期：2025.03.19 13:19:27</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>maa://22762, *maa://39552</t>
+          <t>maa://22762, maa://39552</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, **maa://39938, **maa://27377, maa://40166, *maa://45044</t>
+          <t>maa://28711, **maa://39938, **maa://27377, *maa://45044, maa://40166</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -4862,12 +4862,12 @@
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://48817</t>
         </is>
       </c>
       <c r="Q34" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.19 13:19:27</t>
+          <t>更新日期：2025.03.20 13:18:45</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.20 13:18:45</t>
+          <t>更新日期：2025.03.23 13:17:41</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2132,12 +2132,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676, *maa://22583, *maa://22500</t>
+          <t>maa://22676, *maa://22583, *maa://22500, maa://48321</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>*maa://22743, maa://22734, *maa://30808, **maa://36048, maa://45058</t>
+          <t>*maa://22743, maa://22734, *maa://30808, *maa://36048, maa://45058</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.23 13:17:41</t>
+          <t>更新日期：2025.03.28 13:20:26</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1694,12 +1694,12 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://39243, *maa://45271</t>
+          <t>***maa://34206, ***maa://39243, *maa://45271</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729, *maa://28648, maa://36674</t>
+          <t>maa://22729, *maa://28648, *maa://36674</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523, maa://36672, maa://29910, **maa://21440, maa://45831</t>
+          <t>maa://22523, *maa://36672, maa://29910, **maa://21440, maa://45831</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.28 13:20:26</t>
+          <t>更新日期：2025.03.30 13:18:18</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1020,12 +1020,12 @@
       </c>
       <c r="AE4" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062, *maa://39394</t>
+          <t>*maa://30062, *maa://39394, maa://48095</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.30 13:18:18</t>
+          <t>更新日期：2025.04.03 13:19:19</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670, maa://25199, maa://30434, maa://45059, *maa://44165</t>
+          <t>maa://36670, maa://25199, maa://30434, *maa://45059, *maa://44165</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://45788, maa://47079, *maa://45790</t>
+          <t>*maa://45788, maa://47079, *maa://45790</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.03 13:19:19</t>
+          <t>更新日期：2025.04.04 13:19:56</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.04 13:19:56</t>
+          <t>更新日期：2025.04.05 17:12:18</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867, ***maa://45826</t>
+          <t>maa://21867, **maa://45826</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>*maa://42324</t>
+          <t>**maa://42324</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.05 17:12:18</t>
+          <t>更新日期：2025.04.05 17:33:18</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG74"/>
+  <dimension ref="A1:AG75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A7"/>
@@ -956,12 +956,12 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://49983</t>
         </is>
       </c>
       <c r="Q4" s="1" t="n"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509, maa://27295, maa://22754, *maa://21746, *maa://31008</t>
+          <t>maa://32509, maa://27295, maa://22754, *maa://31008, *maa://21746</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.05 17:33:18</t>
+          <t>更新日期：2025.04.12 13:18:33</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245, maa://21288, maa://39841, maa://36682</t>
+          <t>maa://39841, maa://26245, maa://21288, maa://36682</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="AE17" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AG17" s="1" t="n"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313, **maa://29784, maa://47854</t>
+          <t>*maa://24313, **maa://29784, *maa://47854</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -3074,12 +3074,12 @@
       </c>
       <c r="W20" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X20" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://49976</t>
         </is>
       </c>
       <c r="Y20" s="1" t="n"/>
@@ -5017,6 +5017,22 @@
         </is>
       </c>
       <c r="U35" s="1" t="n"/>
+      <c r="V35" s="1" t="inlineStr">
+        <is>
+          <t>Mon3tr</t>
+        </is>
+      </c>
+      <c r="W35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y35" s="1" t="n"/>
       <c r="Z35" s="1" t="inlineStr">
         <is>
           <t>衡沙</t>
@@ -5288,12 +5304,12 @@
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>maa://39384</t>
+          <t>maa://39384, maa://49735</t>
         </is>
       </c>
       <c r="M38" s="1" t="n"/>
@@ -5429,6 +5445,22 @@
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
+      <c r="Z39" s="1" t="inlineStr">
+        <is>
+          <t>阿兰娜</t>
+        </is>
+      </c>
+      <c r="AA39" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB39" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC39" s="1" t="n"/>
       <c r="AD39" s="1" t="inlineStr">
         <is>
           <t>锡人</t>
@@ -6663,6 +6695,24 @@
         </is>
       </c>
       <c r="I74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <t>骋风</t>
+        </is>
+      </c>
+      <c r="G75" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.05 17:33:18</t>
+          <t>更新日期：2025.04.04 13:19:56</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867, **maa://45826</t>
+          <t>maa://21867, ***maa://45826</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324</t>
+          <t>*maa://42324</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9930" yWindow="3165" windowWidth="23925" windowHeight="16665" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG74"/>
+  <dimension ref="A1:AG75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A7"/>
@@ -956,12 +956,12 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://49983</t>
         </is>
       </c>
       <c r="Q4" s="1" t="n"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509, maa://27295, maa://22754, *maa://21746, *maa://31008</t>
+          <t>maa://32509, maa://27295, maa://22754, *maa://31008, *maa://21746</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.04 13:19:56</t>
+          <t>更新日期：2025.04.13 00:29:41</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867, ***maa://45826</t>
+          <t>maa://21867, **maa://45826</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>maa://26245, maa://21288, maa://39841, maa://36682</t>
+          <t>maa://39841, maa://26245, maa://21288, maa://36682</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>*maa://42324</t>
+          <t>**maa://42324</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="AE17" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AG17" s="1" t="n"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313, **maa://29784, maa://47854</t>
+          <t>*maa://24313, **maa://29784, *maa://47854</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -3074,12 +3074,12 @@
       </c>
       <c r="W20" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X20" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://49976, maa://50085</t>
         </is>
       </c>
       <c r="Y20" s="1" t="n"/>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036, *maa://41753</t>
+          <t>***maa://28036, **maa://41753</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -5017,6 +5017,22 @@
         </is>
       </c>
       <c r="U35" s="1" t="n"/>
+      <c r="V35" s="1" t="inlineStr">
+        <is>
+          <t>Mon3tr</t>
+        </is>
+      </c>
+      <c r="W35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X35" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y35" s="1" t="n"/>
       <c r="Z35" s="1" t="inlineStr">
         <is>
           <t>衡沙</t>
@@ -5288,12 +5304,12 @@
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>maa://39384</t>
+          <t>maa://39384, maa://49735</t>
         </is>
       </c>
       <c r="M38" s="1" t="n"/>
@@ -5429,6 +5445,22 @@
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
+      <c r="Z39" s="1" t="inlineStr">
+        <is>
+          <t>阿兰娜</t>
+        </is>
+      </c>
+      <c r="AA39" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB39" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC39" s="1" t="n"/>
       <c r="AD39" s="1" t="inlineStr">
         <is>
           <t>锡人</t>
@@ -6664,11 +6696,29 @@
       </c>
       <c r="I74" s="1" t="n"/>
     </row>
+    <row r="75">
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <t>骋风</t>
+        </is>
+      </c>
+      <c r="G75" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" s="1" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9930" yWindow="3165" windowWidth="23925" windowHeight="16665" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.13 00:29:41</t>
+          <t>更新日期：2025.04.13 13:23:50</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>**maa://42324</t>
+          <t>*maa://42324</t>
         </is>
       </c>
       <c r="U17" s="1" t="n"/>
@@ -6716,9 +6716,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -956,12 +956,12 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>maa://49983</t>
+          <t>maa://49983, maa://50121</t>
         </is>
       </c>
       <c r="Q4" s="1" t="n"/>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="W6" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X6" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Y6" s="1" t="n"/>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="AA7" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://50141</t>
         </is>
       </c>
       <c r="AC7" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.13 13:23:50</t>
+          <t>更新日期：2025.04.17 13:19:49</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://34206, ***maa://39243, *maa://45271</t>
+          <t>***maa://34206, *maa://45271, ***maa://39243</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="AE17" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF17" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://50136</t>
         </is>
       </c>
       <c r="AG17" s="1" t="n"/>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864</t>
+          <t>maa://22864, ***maa://43283</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="X20" s="2" t="inlineStr">
         <is>
-          <t>maa://49976, maa://50085</t>
+          <t>*maa://49976, maa://50085</t>
         </is>
       </c>
       <c r="Y20" s="1" t="n"/>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="X25" s="2" t="inlineStr">
         <is>
-          <t>*maa://29890</t>
+          <t>maa://29890</t>
         </is>
       </c>
       <c r="Y25" s="1" t="n"/>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670, maa://25199, maa://30434, *maa://45059, *maa://44165</t>
+          <t>maa://36670, maa://25199, maa://30434, maa://45059, *maa://44165</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -961,7 +961,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>maa://49983, maa://50121</t>
+          <t>maa://49983, *maa://50121</t>
         </is>
       </c>
       <c r="Q4" s="1" t="n"/>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="AE4" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF4" s="2" t="inlineStr">
         <is>
-          <t>*maa://30062, *maa://39394, maa://48095</t>
+          <t>*maa://30062, *maa://39394</t>
         </is>
       </c>
       <c r="AG4" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.17 13:19:49</t>
+          <t>更新日期：2025.04.24 13:20:31</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250, maa://20107, maa://22772, **maa://22745</t>
+          <t>maa://23250, maa://20107, maa://22772, *maa://22745</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>maa://21441, maa://36679, maa://37650</t>
+          <t>maa://21441, maa://37650, maa://36679</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729, *maa://28648, *maa://36674</t>
+          <t>maa://22729, *maa://28648, maa://36674</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="X20" s="2" t="inlineStr">
         <is>
-          <t>*maa://49976, maa://50085</t>
+          <t>maa://49976, maa://50085</t>
         </is>
       </c>
       <c r="Y20" s="1" t="n"/>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>maa://24387, maa://31212</t>
+          <t>maa://31212, maa://24387</t>
         </is>
       </c>
       <c r="U23" s="1" t="n"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="AF26" s="2" t="inlineStr">
         <is>
-          <t>maa://30511, *maa://29760</t>
+          <t>*maa://30511, *maa://29760</t>
         </is>
       </c>
       <c r="AG26" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -961,7 +961,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>maa://49983, *maa://50121</t>
+          <t>maa://49983, maa://50121</t>
         </is>
       </c>
       <c r="Q4" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.24 13:20:31</t>
+          <t>更新日期：2025.05.01 13:20:46</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1584,10 +1584,14 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>**maa://47450</t>
+        </is>
+      </c>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -1665,7 +1669,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, **maa://39938, **maa://27377, *maa://45044, maa://40166</t>
+          <t>maa://28711, **maa://39938, *maa://45044, **maa://27377, maa://40166</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1975,7 +1979,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867, **maa://45826</t>
+          <t>maa://21867, ***maa://45826</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -4523,11 +4527,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AB31" s="2" t="inlineStr"/>
       <c r="AC31" s="1" t="n"/>
       <c r="AD31" s="1" t="inlineStr">
         <is>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG75"/>
+  <dimension ref="A1:AG76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A7"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633, *maa://30515, maa://39402, *maa://34787, ***maa://29083</t>
+          <t>*maa://24633, maa://39402, *maa://30515, *maa://34787, ***maa://29083</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617, **maa://20790, maa://45854</t>
+          <t>maa://24617, maa://45854, **maa://20790</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.01 13:20:46</t>
+          <t>更新日期：2025.05.02 13:20:57</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>maa://30766, *maa://36678</t>
+          <t>maa://30766, maa://36678</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867, ***maa://45826</t>
+          <t>maa://21867, **maa://45826</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466, *maa://22732</t>
+          <t>maa://22466, **maa://22732</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -4524,10 +4524,14 @@
       </c>
       <c r="AA31" s="1" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB31" s="2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB31" s="2" t="inlineStr">
+        <is>
+          <t>**maa://51420</t>
+        </is>
+      </c>
       <c r="AC31" s="1" t="n"/>
       <c r="AD31" s="1" t="inlineStr">
         <is>
@@ -4830,12 +4834,12 @@
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I34" s="1" t="n"/>
@@ -4894,12 +4898,12 @@
       </c>
       <c r="W34" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Y34" s="1" t="n"/>
@@ -5181,6 +5185,22 @@
       <c r="AG36" s="1" t="n"/>
     </row>
     <row r="37">
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CONFESS-47</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="n"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
           <t>杰克</t>
@@ -5749,6 +5769,22 @@
         </is>
       </c>
       <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="inlineStr">
+        <is>
+          <t>信仰搅拌机</t>
+        </is>
+      </c>
+      <c r="K43" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L43" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M43" s="1" t="n"/>
       <c r="N43" s="1" t="inlineStr">
         <is>
           <t>截云</t>
@@ -5918,6 +5954,22 @@
         </is>
       </c>
       <c r="U45" s="1" t="n"/>
+      <c r="AD45" s="1" t="inlineStr">
+        <is>
+          <t>新约能天使</t>
+        </is>
+      </c>
+      <c r="AE45" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF45" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG45" s="1" t="n"/>
     </row>
     <row r="46">
       <c r="B46" s="3" t="n"/>
@@ -6335,6 +6387,22 @@
         </is>
       </c>
       <c r="I54" s="1" t="n"/>
+      <c r="N54" s="1" t="inlineStr">
+        <is>
+          <t>蕾缪安</t>
+        </is>
+      </c>
+      <c r="O54" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P54" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q54" s="1" t="n"/>
     </row>
     <row r="55">
       <c r="F55" s="1" t="inlineStr">
@@ -6713,6 +6781,24 @@
         </is>
       </c>
       <c r="I75" s="1" t="n"/>
+    </row>
+    <row r="76">
+      <c r="F76" s="1" t="inlineStr">
+        <is>
+          <t>聆音</t>
+        </is>
+      </c>
+      <c r="G76" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.02 13:20:57</t>
+          <t>更新日期：2025.05.03 13:20:53</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, **maa://39938, *maa://45044, **maa://27377, maa://40166</t>
+          <t>maa://28711, **maa://39938, **maa://45044, **maa://27377, maa://40166</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="AF15" s="2" t="inlineStr">
         <is>
-          <t>maa://21364, *maa://36666, *maa://22766</t>
+          <t>maa://21364, maa://36666, *maa://22766</t>
         </is>
       </c>
       <c r="AG15" s="1" t="n"/>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>maa://22729, *maa://28648, maa://36674</t>
+          <t>maa://22729, *maa://28648, *maa://36674</t>
         </is>
       </c>
       <c r="U16" s="1" t="n"/>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466, **maa://22732</t>
+          <t>maa://22466, *maa://22732</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="AF21" s="2" t="inlineStr">
         <is>
-          <t>maa://22524, *maa://22432</t>
+          <t>maa://22524, maa://22432</t>
         </is>
       </c>
       <c r="AG21" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>maa://24702, maa://25390, maa://36681</t>
+          <t>maa://25390, maa://24702, maa://36681</t>
         </is>
       </c>
       <c r="E2" s="1" t="n"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>*maa://24633, maa://39402, *maa://30515, *maa://34787, ***maa://29083</t>
+          <t>maa://39402, *maa://24633, *maa://30515, *maa://34787, ***maa://29083</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -765,7 +765,7 @@
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251, ***maa://21730, **maa://36675</t>
+          <t>maa://25251, **maa://21730, **maa://36675</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -874,12 +874,12 @@
       </c>
       <c r="AA3" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB3" s="2" t="inlineStr">
         <is>
-          <t>maa://24390</t>
+          <t>maa://24390, maa://52241</t>
         </is>
       </c>
       <c r="AC3" s="1" t="n"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495, ***maa://31785, maa://43217, ***maa://36683</t>
+          <t>**maa://32495, maa://43217, ***maa://31785, ***maa://36683</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="W6" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://52754</t>
         </is>
       </c>
       <c r="Y6" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.03 13:20:53</t>
+          <t>更新日期：2025.05.10 13:19:34</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*maa://21476, *maa://39431, *maa://37551</t>
+          <t>*maa://21476, *maa://39431, **maa://37551</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
-          <t>maa://26223</t>
+          <t>maa://26223, maa://52237</t>
         </is>
       </c>
       <c r="Y9" s="1" t="n"/>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466, *maa://22732</t>
+          <t>maa://22466, *maa://22732, maa://52226</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="X20" s="2" t="inlineStr">
         <is>
-          <t>maa://49976, maa://50085</t>
+          <t>maa://50085, maa://49976</t>
         </is>
       </c>
       <c r="Y20" s="1" t="n"/>
@@ -3224,12 +3224,12 @@
       </c>
       <c r="AA21" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB21" s="2" t="inlineStr">
         <is>
-          <t>maa://21443, ***maa://23820</t>
+          <t>maa://21443, ***maa://23820, **maa://52223</t>
         </is>
       </c>
       <c r="AC21" s="1" t="n"/>
@@ -3598,12 +3598,12 @@
       </c>
       <c r="W24" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988, maa://23504, **maa://22892, *maa://25141, *maa://36663, ***maa://22815</t>
+          <t>maa://29988, maa://23504, **maa://22892, *maa://25141, *maa://36663, ***maa://22815, maa://52227</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="AB30" s="2" t="inlineStr">
         <is>
-          <t>maa://42979, maa://45822, *maa://45045</t>
+          <t>maa://42979, maa://45822, maa://45045</t>
         </is>
       </c>
       <c r="AC30" s="1" t="n"/>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>*maa://45788, maa://47079, *maa://45790</t>
+          <t>maa://47079, *maa://45788, *maa://45790</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>maa://47403</t>
+          <t>*maa://47403</t>
         </is>
       </c>
       <c r="Q43" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.10 13:19:34</t>
+          <t>更新日期：2025.05.11 13:19:54</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -3014,12 +3014,12 @@
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864, ***maa://43283</t>
+          <t>maa://22864, ***maa://43283, maa://53361</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1420,7 +1420,7 @@
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191, *maa://36671, maa://45272, *maa://42530</t>
+          <t>*maa://26191, maa://45272, *maa://36671, *maa://42530</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.11 13:19:54</t>
+          <t>更新日期：2025.05.13 13:20:58</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://34206, *maa://45271, ***maa://39243</t>
+          <t>***maa://34206, *maa://45271, ***maa://39243, maa://54000</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>**maa://21283, *maa://39601, maa://34494, **maa://36665</t>
+          <t>*maa://39601, **maa://21283, maa://34494, **maa://36665</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="AB31" s="2" t="inlineStr">
         <is>
-          <t>**maa://51420</t>
+          <t>***maa://51420</t>
         </is>
       </c>
       <c r="AC31" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.13 13:20:58</t>
+          <t>更新日期：2025.05.14 13:20:50</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>**maa://22866, maa://26222</t>
+          <t>maa://26222, **maa://22866</t>
         </is>
       </c>
       <c r="U9" s="1" t="n"/>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>maa://24379, maa://24380</t>
+          <t>maa://24379, maa://24380, maa://54153</t>
         </is>
       </c>
       <c r="Q18" s="1" t="n"/>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="AB25" s="2" t="inlineStr">
         <is>
-          <t>maa://31215, maa://24516, maa://26001</t>
+          <t>maa://31215, *maa://24516, maa://26001</t>
         </is>
       </c>
       <c r="AC25" s="1" t="n"/>
@@ -4216,12 +4216,12 @@
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168, *maa://30050</t>
+          <t>*maa://23168, *maa://30050, maa://54169</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -680,12 +680,12 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>maa://39402, *maa://24633, *maa://30515, *maa://34787, ***maa://29083</t>
+          <t>maa://39402, *maa://24633, *maa://30515, *maa://34787, ***maa://29083, maa://54304</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.14 13:20:50</t>
+          <t>更新日期：2025.05.17 13:19:59</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="AF18" s="2" t="inlineStr">
         <is>
-          <t>*maa://24313, **maa://29784, *maa://47854</t>
+          <t>*maa://24313, **maa://29784, maa://47854</t>
         </is>
       </c>
       <c r="AG18" s="1" t="n"/>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>maa://28432, maa://28440, maa://31400, *maa://28650</t>
+          <t>maa://28432, maa://31400, maa://28440, *maa://28650</t>
         </is>
       </c>
       <c r="M29" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>maa://39402, *maa://24633, *maa://30515, *maa://34787, ***maa://29083, maa://54304</t>
+          <t>maa://39402, *maa://24633, *maa://30515, *maa://34787, ***maa://29083, **maa://54304</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -1043,12 +1043,12 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>maa://21245, maa://22744</t>
+          <t>maa://21245, maa://22744, maa://54105</t>
         </is>
       </c>
       <c r="E5" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.17 13:19:59</t>
+          <t>更新日期：2025.05.24 13:19:10</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, **maa://39938, **maa://45044, **maa://27377, maa://40166</t>
+          <t>maa://28711, **maa://39938, **maa://45044, maa://40166, **maa://27377</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1974,12 +1974,12 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867, **maa://45826</t>
+          <t>maa://21867, **maa://45826, maa://54294</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737, maa://39883, *maa://39885</t>
+          <t>**maa://22737, maa://39883, **maa://39885</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2428,12 +2428,12 @@
       </c>
       <c r="W15" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X15" s="2" t="inlineStr">
         <is>
-          <t>*maa://38786</t>
+          <t>*maa://38786, maa://56102</t>
         </is>
       </c>
       <c r="Y15" s="1" t="n"/>
@@ -2608,12 +2608,12 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>maa://21624</t>
+          <t>maa://21624, maa://56358</t>
         </is>
       </c>
       <c r="E17" s="1" t="n"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864, ***maa://43283, maa://53361</t>
+          <t>maa://22864, ***maa://43283, *maa://53361</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3078,12 +3078,12 @@
       </c>
       <c r="W20" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="X20" s="2" t="inlineStr">
         <is>
-          <t>maa://50085, maa://49976</t>
+          <t>maa://50085, maa://49976, maa://56241</t>
         </is>
       </c>
       <c r="Y20" s="1" t="n"/>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://56400</t>
         </is>
       </c>
       <c r="Q27" s="1" t="n"/>
@@ -5224,12 +5224,12 @@
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718, *maa://47069, maa://45789</t>
+          <t>maa://45718, maa://47069, maa://45789, maa://56336</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>maa://47079, *maa://45788, *maa://45790</t>
+          <t>maa://47079, *maa://45788, maa://45790</t>
         </is>
       </c>
       <c r="U39" s="1" t="n"/>
@@ -6448,12 +6448,12 @@
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>maa://25176</t>
+          <t>maa://25176, maa://56237</t>
         </is>
       </c>
       <c r="I57" s="1" t="n"/>
@@ -6538,12 +6538,12 @@
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>maa://42981, maa://43903</t>
+          <t>maa://42981, maa://43903, maa://56228</t>
         </is>
       </c>
       <c r="I62" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.24 13:19:10</t>
+          <t>更新日期：2025.06.10 00:49:28</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -760,12 +760,12 @@
       </c>
       <c r="AE2" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251, **maa://21730, **maa://36675</t>
+          <t>maa://25251, **maa://21730, **maa://36675, maa://59087</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -831,7 +831,7 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249, maa://26254, **maa://22738</t>
+          <t>maa://21249, maa://26254, *maa://22738</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.10 00:49:28</t>
+          <t>更新日期：2025.06.10 00:57:41</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>**maa://47450</t>
+          <t>**maa://47450, maa://56348</t>
         </is>
       </c>
       <c r="I9" s="1" t="n"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>***maa://34206, *maa://45271, ***maa://39243, maa://54000</t>
+          <t>***maa://34206, *maa://45271, ***maa://39243, **maa://54000</t>
         </is>
       </c>
       <c r="E10" s="1" t="n"/>
@@ -2006,12 +2006,12 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://57541</t>
         </is>
       </c>
       <c r="Q12" s="1" t="n"/>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="AF13" s="2" t="inlineStr">
         <is>
-          <t>**maa://22737, maa://39883, **maa://39885</t>
+          <t>**maa://22737, maa://39883, *maa://39885</t>
         </is>
       </c>
       <c r="AG13" s="1" t="n"/>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>maa://23890, *maa://24940</t>
+          <t>maa://23890, *maa://24940, maa://56238</t>
         </is>
       </c>
       <c r="Q17" s="1" t="n"/>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="W19" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X19" s="2" t="inlineStr">
         <is>
-          <t>maa://31386</t>
+          <t>maa://31386, maa://58490</t>
         </is>
       </c>
       <c r="Y19" s="1" t="n"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864, ***maa://43283, *maa://53361</t>
+          <t>maa://22864, **maa://53361, ***maa://43283</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>***maa://28036, **maa://41753</t>
+          <t>***maa://28036, *maa://41753</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
@@ -3778,12 +3778,12 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>maa://41802</t>
+          <t>maa://41802, maa://56374</t>
         </is>
       </c>
       <c r="E26" s="1" t="n"/>
@@ -3794,12 +3794,12 @@
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913</t>
+          <t>maa://24913, **maa://56240</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>*maa://30968, maa://39870</t>
+          <t>*maa://30968, maa://39870, maa://56625</t>
         </is>
       </c>
       <c r="Q26" s="1" t="n"/>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>*maa://39601, **maa://21283, maa://34494, **maa://36665</t>
+          <t>*maa://39601, **maa://21283, maa://34494, *maa://36665</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="AF29" s="2" t="inlineStr">
         <is>
-          <t>*maa://24080, maa://42865</t>
+          <t>*maa://24080, *maa://42865</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
@@ -4524,14 +4524,10 @@
       </c>
       <c r="AA31" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB31" s="2" t="inlineStr">
-        <is>
-          <t>***maa://51420</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB31" s="2" t="inlineStr"/>
       <c r="AC31" s="1" t="n"/>
       <c r="AD31" s="1" t="inlineStr">
         <is>
@@ -4866,12 +4862,12 @@
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>maa://48817</t>
+          <t>maa://48817, maa://56235</t>
         </is>
       </c>
       <c r="Q34" s="1" t="n"/>
@@ -4914,12 +4910,12 @@
       </c>
       <c r="AA34" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB34" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC34" s="1" t="n"/>
@@ -4935,7 +4931,7 @@
       </c>
       <c r="AF34" s="2" t="inlineStr">
         <is>
-          <t>*maa://32650</t>
+          <t>maa://32650</t>
         </is>
       </c>
       <c r="AG34" s="1" t="n"/>
@@ -5229,7 +5225,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>maa://45718, maa://47069, maa://45789, maa://56336</t>
+          <t>maa://45718, maa://47069, maa://56336, maa://45789</t>
         </is>
       </c>
       <c r="M37" s="1" t="n"/>
@@ -5413,7 +5409,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670, maa://25199, maa://30434, maa://45059, *maa://44165</t>
+          <t>maa://36670, maa://25199, maa://30434, *maa://45059, *maa://44165</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5565,6 +5561,22 @@
         </is>
       </c>
       <c r="U40" s="1" t="n"/>
+      <c r="Z40" s="1" t="inlineStr">
+        <is>
+          <t>酒神</t>
+        </is>
+      </c>
+      <c r="AA40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB40" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC40" s="1" t="n"/>
       <c r="AD40" s="1" t="inlineStr">
         <is>
           <t>云迹</t>
@@ -6023,6 +6035,22 @@
         </is>
       </c>
       <c r="U46" s="1" t="n"/>
+      <c r="AD46" s="1" t="inlineStr">
+        <is>
+          <t>蒂比</t>
+        </is>
+      </c>
+      <c r="AE46" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF46" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG46" s="1" t="n"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="B47" s="3" t="n"/>
@@ -6035,12 +6063,12 @@
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>maa://27410, maa://29661, maa://28038</t>
+          <t>maa://27410, maa://29661, maa://28038, maa://56236</t>
         </is>
       </c>
       <c r="I47" s="1" t="n"/>
@@ -6310,12 +6338,12 @@
       </c>
       <c r="O52" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://59378, maa://59394</t>
         </is>
       </c>
       <c r="Q52" s="1" t="n"/>
@@ -6369,6 +6397,22 @@
         </is>
       </c>
       <c r="Q53" s="1" t="n"/>
+      <c r="R53" s="1" t="inlineStr">
+        <is>
+          <t>Miss.Christine</t>
+        </is>
+      </c>
+      <c r="S53" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T53" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U53" s="1" t="n"/>
     </row>
     <row r="54">
       <c r="F54" s="1" t="inlineStr">
@@ -6556,12 +6600,12 @@
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://59534, maa://59413</t>
         </is>
       </c>
       <c r="I63" s="1" t="n"/>

--- a/Excel/悖论模拟干员名单用户版.xlsx
+++ b/Excel/悖论模拟干员名单用户版.xlsx
@@ -680,12 +680,12 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>maa://39402, *maa://24633, *maa://30515, *maa://34787, ***maa://29083, **maa://54304</t>
+          <t>maa://39402, *maa://30515, *maa://34787</t>
         </is>
       </c>
       <c r="M2" s="1" t="n"/>
@@ -712,12 +712,12 @@
       </c>
       <c r="S2" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>maa://22742, *maa://20791</t>
+          <t>maa://22742</t>
         </is>
       </c>
       <c r="U2" s="1" t="n"/>
@@ -760,12 +760,12 @@
       </c>
       <c r="AE2" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF2" s="2" t="inlineStr">
         <is>
-          <t>maa://25251, **maa://21730, **maa://36675, maa://59087</t>
+          <t>maa://25251, maa://59087</t>
         </is>
       </c>
       <c r="AG2" s="1" t="n"/>
@@ -794,12 +794,12 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>maa://21247, *maa://22748</t>
+          <t>maa://21247</t>
         </is>
       </c>
       <c r="I3" s="1" t="n"/>
@@ -826,12 +826,12 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>maa://21249, maa://26254, *maa://22738</t>
+          <t>maa://21249, maa://26254</t>
         </is>
       </c>
       <c r="Q3" s="1" t="n"/>
@@ -842,12 +842,12 @@
       </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>maa://24617, maa://45854, **maa://20790</t>
+          <t>maa://24617, maa://45854</t>
         </is>
       </c>
       <c r="U3" s="1" t="n"/>
@@ -908,12 +908,12 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>maa://24632, **maa://24303, maa://22499, maa://22746</t>
+          <t>maa://24632, maa://22499, maa://22746</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
@@ -972,12 +972,12 @@
       </c>
       <c r="S4" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>maa://32509, maa://27295, maa://22754, *maa://31008, *maa://21746</t>
+          <t>maa://32509, maa://27295, maa://22754, *maa://31008</t>
         </is>
       </c>
       <c r="U4" s="1" t="n"/>
@@ -988,12 +988,12 @@
       </c>
       <c r="W4" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
-          <t>**maa://32495, maa://43217, ***maa://31785, ***maa://36683</t>
+          <t>maa://43217</t>
         </is>
       </c>
       <c r="Y4" s="1" t="n"/>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="AE7" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF7" s="2" t="inlineStr">
         <is>
-          <t>*maa://26191, maa://45272, *maa://36671, *maa://42530</t>
+          <t>maa://45272</t>
         </is>
       </c>
       <c r="AG7" s="1" t="n"/>
@@ -1428,7 +1428,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.10 00:57:41</t>
+          <t>更新日期：2025.06.10 14:12:09</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>maa://32931, *maa://21916, maa://23252, maa://37496, **maa://22759</t>
+          <t>maa://32931, maa://23252, maa://37496</t>
         </is>
       </c>
       <c r="Q8" s="1" t="n"/>
@@ -1584,12 +1584,12 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>**maa://47450, maa://56348</t>
+          <t>maa://56348</t>
         </is>
       </c>
       <c r="I9" s="1" t="n"/>
@@ -1632,12 +1632,12 @@
       </c>
       <c r="S9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>maa://26222, **maa://22866</t>
+          <t>maa://26222</t>
         </is>
       </c>
       <c r="U9" s="1" t="n"/>
@@ -1664,12 +1664,12 @@
       </c>
       <c r="AA9" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
-          <t>maa://28711, **maa://39938, **maa://45044, maa://40166, **maa://27377</t>
+          <t>maa://28711, maa://40166</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1762,12 +1762,12 @@
       </c>
       <c r="S10" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, **maa://22756</t>
+          <t>maa://27395, maa://22755</t>
         </is>
       </c>
       <c r="U10" s="1" t="n"/>
@@ -1924,12 +1924,12 @@
       </c>
       <c r="AA11" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
-          <t>maa://29912, maa://22516, *maa://20794</t>
+          <t>maa://29912, maa://22516</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -1974,12 +1974,12 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>maa://21867, **maa://45826, maa://54294</t>
+          <t>maa://21867, maa://54294</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -2136,12 +2136,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>maa://22676, *maa://22583, *maa://22500, maa://48321</t>
+          <t>maa://22676, *maa://22583, maa://48321</t>
         </is>
       </c>
       <c r="Q13" s="1" t="n"/>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>maa://23250, maa://20107, maa://22772, *maa://22745</t>
+          <t>maa://23250, maa://20107, maa://22772</t>
         </is>
       </c>
       <c r="Q14" s="1" t="n"/>
@@ -2590,12 +2590,12 @@
       </c>
       <c r="AE16" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF16" s="2" t="inlineStr">
         <is>
-          <t>*maa://23911, maa://27755</t>
+          <t>maa://27755</t>
         </is>
       </c>
       <c r="AG16" s="1" t="n"/>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>maa://23890, *maa://24940, maa://56238</t>
+          <t>maa://23890, maa://56238</t>
         </is>
       </c>
       <c r="Q17" s="1" t="n"/>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>maa://22466, *maa://22732, maa://52226</t>
+          <t>maa://22466, maa://52226</t>
         </is>
       </c>
       <c r="M18" s="1" t="n"/>
@@ -2998,12 +2998,12 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>maa://21432, maa://25198, *maa://20795, maa://36680</t>
+          <t>maa://21432, maa://25198, maa://36680</t>
         </is>
       </c>
       <c r="E20" s="1" t="n"/>
@@ -3014,12 +3014,12 @@
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>maa://22864, **maa://53361, ***maa://43283</t>
+          <t>maa://22864</t>
         </is>
       </c>
       <c r="I20" s="1" t="n"/>
@@ -3274,12 +3274,12 @@
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>maa://25236, **maa://21678, **maa://22735</t>
+          <t>maa://25236</t>
         </is>
       </c>
       <c r="I22" s="1" t="n"/>
@@ -3598,12 +3598,12 @@
       </c>
       <c r="W24" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
-          <t>maa://29988, maa://23504, **maa://22892, *maa://25141, *maa://36663, ***maa://22815, maa://52227</t>
+          <t>maa://29988, maa://23504, *maa://25141, *maa://36663, maa://52227</t>
         </is>
       </c>
       <c r="Y24" s="1" t="n"/>
@@ -3630,12 +3630,12 @@
       </c>
       <c r="AE24" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF24" s="2" t="inlineStr">
         <is>
-          <t>maa://22523, *maa://36672, maa://29910, **maa://21440, maa://45831</t>
+          <t>maa://22523, *maa://36672, maa://29910, maa://45831</t>
         </is>
       </c>
       <c r="AG24" s="1" t="n"/>
@@ -3794,12 +3794,12 @@
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>maa://24913, **maa://56240</t>
+          <t>maa://24913</t>
         </is>
       </c>
       <c r="I26" s="1" t="n"/>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>*maa://30968, maa://39870, maa://56625</t>
+          <t>maa://39870, maa://56625</t>
         </is>
       </c>
       <c r="Q26" s="1" t="n"/>
@@ -3924,12 +3924,12 @@
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>*maa://39601, **maa://21283, maa://34494, *maa://36665</t>
+          <t>*maa://39601, maa://34494</t>
         </is>
       </c>
       <c r="I27" s="1" t="n"/>
@@ -4102,12 +4102,12 @@
       </c>
       <c r="S28" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>*maa://29765, maa://23263</t>
+          <t>maa://23263</t>
         </is>
       </c>
       <c r="U28" s="1" t="n"/>
@@ -4150,12 +4150,12 @@
       </c>
       <c r="AE28" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF28" s="2" t="inlineStr">
         <is>
-          <t>maa://36660, *maa://36701</t>
+          <t>maa://36660</t>
         </is>
       </c>
       <c r="AG28" s="1" t="n"/>
@@ -4216,12 +4216,12 @@
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>*maa://23168, *maa://30050, maa://54169</t>
+          <t>maa://54169</t>
         </is>
       </c>
       <c r="Q29" s="1" t="n"/>
@@ -4444,12 +4444,12 @@
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>maa://32721, **maa://24373</t>
+          <t>maa://32721</t>
         </is>
       </c>
       <c r="I31" s="1" t="n"/>
@@ -4570,12 +4570,12 @@
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>maa://21895, maa://36667, **maa://20793, maa://22760</t>
+          <t>maa://21895, maa://36667, maa://22760</t>
         </is>
       </c>
       <c r="I32" s="1" t="n"/>
@@ -5404,12 +5404,12 @@
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>maa://36670, maa://25199, maa://30434, *maa://45059, *maa://44165</t>
+          <t>maa://36670, maa://25199, maa://30434, *maa://45059</t>
         </is>
       </c>
       <c r="I39" s="1" t="n"/>
@@ -5925,12 +5925,12 @@
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>maa://21229, maa://30807, *maa://22767, maa://42459</t>
+          <t>maa://21229, maa://30807, maa://42459</t>
         </is>
       </c>
       <c r="I45" s="1" t="n"/>
@@ -6372,12 +6372,12 @@
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>maa://32534, **maa://32434</t>
+          <t>maa://32534</t>
         </is>
       </c>
       <c r="I53" s="1" t="n"/>
